--- a/data/morphemes.xlsx
+++ b/data/morphemes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75AFA36-6E56-3047-B287-79BFC7719E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA7FF5C-B06C-984E-A571-17AE15BCE918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="760" windowWidth="31360" windowHeight="12320" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>

--- a/data/morphemes.xlsx
+++ b/data/morphemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0835CF1F-116D-E64F-A292-847DED06EB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E0596-E710-0F4F-A7DF-91A76681CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="5900" windowWidth="32960" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="0" yWindow="2880" windowWidth="29920" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflection" sheetId="8" r:id="rId1"/>
@@ -7549,9 +7549,6 @@
     <t>Säqă;Ri</t>
   </si>
   <si>
-    <t>Prār;Säqă;Pälzäk;Ri</t>
-  </si>
-  <si>
     <t>asälă</t>
   </si>
   <si>
@@ -9801,9 +9798,6 @@
     <t>śorkäm</t>
   </si>
   <si>
-    <t>ṣoλākā</t>
-  </si>
-  <si>
     <t>kānikāñcā</t>
   </si>
   <si>
@@ -10408,6 +10402,12 @@
   </si>
   <si>
     <t>Kon</t>
+  </si>
+  <si>
+    <t>śoλākā</t>
+  </si>
+  <si>
+    <t>Prār;Säqă;Pälzäk;Ri;Ywār</t>
   </si>
 </sst>
 </file>
@@ -10917,7 +10917,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -11072,7 +11072,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2428</v>
@@ -11168,7 +11168,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>689</v>
@@ -11194,7 +11194,7 @@
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -11543,7 +11543,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>3168</v>
+        <v>3167</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -11614,7 +11614,7 @@
         <v>2456</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>3237</v>
+        <v>3236</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -11670,7 +11670,7 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="10" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -12091,7 +12091,7 @@
         <v>1219</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="D32" s="9" t="s">
         <v>32</v>
@@ -12114,7 +12114,7 @@
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -12122,7 +12122,7 @@
         <v>68</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>2289</v>
@@ -12158,8 +12158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE25BEAE-ECB0-3E42-A39B-2C15C3BB1FB8}">
   <dimension ref="A1:XFB1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A363" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G371" sqref="G371"/>
+    <sheetView tabSelected="1" topLeftCell="C1312" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G1320" sqref="G1320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12246,7 +12246,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>3169</v>
+        <v>3168</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1159</v>
@@ -12578,7 +12578,7 @@
         <v>61</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>3170</v>
+        <v>3169</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>1159</v>
@@ -12829,7 +12829,7 @@
         <v>78</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>3171</v>
+        <v>3170</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>1159</v>
@@ -13272,10 +13272,10 @@
         <v>108</v>
       </c>
       <c r="B40" s="13" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>2808</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>2809</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>1159</v>
@@ -13330,10 +13330,10 @@
         <v>110</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>3172</v>
+        <v>3171</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>1159</v>
@@ -17455,7 +17455,7 @@
         <v>2224</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>3173</v>
+        <v>3172</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>1159</v>
@@ -21577,7 +21577,7 @@
         <v>110</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>3174</v>
+        <v>3173</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>1159</v>
@@ -21635,7 +21635,7 @@
         <v>111</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>3175</v>
+        <v>3174</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>1159</v>
@@ -21666,7 +21666,7 @@
         <v>145</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>3176</v>
+        <v>3175</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>1159</v>
@@ -21914,7 +21914,7 @@
         <v>121</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>3177</v>
+        <v>3176</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>1159</v>
@@ -22100,7 +22100,7 @@
         <v>1156</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>1159</v>
@@ -22170,7 +22170,7 @@
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="H63" s="13" t="s">
         <v>505</v>
@@ -22201,7 +22201,7 @@
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="H64" s="13" t="s">
         <v>505</v>
@@ -22232,7 +22232,7 @@
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
       <c r="G65" s="6" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="H65" s="13" t="s">
         <v>505</v>
@@ -22252,7 +22252,7 @@
         <v>134</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>3398</v>
+        <v>3396</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>102</v>
@@ -22263,7 +22263,7 @@
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
       <c r="G66" s="6" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="H66" s="13" t="s">
         <v>505</v>
@@ -22410,7 +22410,7 @@
         <v>152</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>3179</v>
+        <v>3178</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>1159</v>
@@ -22418,7 +22418,7 @@
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6" t="s">
-        <v>3236</v>
+        <v>3235</v>
       </c>
       <c r="H71" s="16" t="s">
         <v>506</v>
@@ -22503,7 +22503,7 @@
         <v>153</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>3180</v>
+        <v>3179</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>1159</v>
@@ -22534,7 +22534,7 @@
         <v>154</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>3181</v>
+        <v>3180</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>1159</v>
@@ -23565,7 +23565,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
       <c r="G108" s="6" t="s">
-        <v>3235</v>
+        <v>3234</v>
       </c>
       <c r="H108" s="16" t="s">
         <v>506</v>
@@ -23650,7 +23650,7 @@
         <v>214</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>3182</v>
+        <v>3181</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>1159</v>
@@ -23712,7 +23712,7 @@
         <v>484</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D113" s="6" t="s">
         <v>1159</v>
@@ -23836,7 +23836,7 @@
         <v>222</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>3184</v>
+        <v>3183</v>
       </c>
       <c r="D117" s="6" t="s">
         <v>1159</v>
@@ -23875,7 +23875,7 @@
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
       <c r="G118" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="H118" s="16" t="s">
         <v>506</v>
@@ -23906,7 +23906,7 @@
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
       <c r="G119" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="H119" s="16" t="s">
         <v>506</v>
@@ -23929,7 +23929,7 @@
         <v>223</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>3185</v>
+        <v>3184</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>1159</v>
@@ -23937,7 +23937,7 @@
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
       <c r="G120" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="H120" s="16" t="s">
         <v>506</v>
@@ -23968,7 +23968,7 @@
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
       <c r="G121" s="6" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="H121" s="16" t="s">
         <v>506</v>
@@ -23999,7 +23999,7 @@
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
       <c r="G122" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="H122" s="16" t="s">
         <v>506</v>
@@ -24030,7 +24030,7 @@
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
       <c r="G123" s="6" t="s">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="H123" s="16" t="s">
         <v>506</v>
@@ -24061,7 +24061,7 @@
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
       <c r="G124" s="6" t="s">
-        <v>3127</v>
+        <v>3126</v>
       </c>
       <c r="H124" s="16" t="s">
         <v>506</v>
@@ -24092,7 +24092,7 @@
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
       <c r="G125" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="H125" s="16" t="s">
         <v>506</v>
@@ -24123,7 +24123,7 @@
       <c r="E126" s="6"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="H126" s="16" t="s">
         <v>506</v>
@@ -24154,7 +24154,7 @@
       <c r="E127" s="6"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10" t="s">
-        <v>3124</v>
+        <v>3123</v>
       </c>
       <c r="H127" s="16" t="s">
         <v>506</v>
@@ -24421,7 +24421,7 @@
         <v>252</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>3183</v>
+        <v>3182</v>
       </c>
       <c r="D136" s="6" t="s">
         <v>1159</v>
@@ -24605,7 +24605,7 @@
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
       <c r="G142" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H142" s="16" t="s">
         <v>506</v>
@@ -24636,7 +24636,7 @@
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
       <c r="G143" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H143" s="16" t="s">
         <v>506</v>
@@ -24667,7 +24667,7 @@
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
       <c r="G144" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H144" s="16" t="s">
         <v>506</v>
@@ -24698,7 +24698,7 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
       <c r="G145" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H145" s="16" t="s">
         <v>506</v>
@@ -24729,7 +24729,7 @@
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
       <c r="G146" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H146" s="16" t="s">
         <v>506</v>
@@ -24760,7 +24760,7 @@
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
       <c r="G147" s="10" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H147" s="16" t="s">
         <v>506</v>
@@ -24791,7 +24791,7 @@
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
       <c r="G148" s="6" t="s">
-        <v>3130</v>
+        <v>3129</v>
       </c>
       <c r="H148" s="16" t="s">
         <v>506</v>
@@ -24822,7 +24822,7 @@
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
       <c r="G149" s="6" t="s">
-        <v>3129</v>
+        <v>3128</v>
       </c>
       <c r="H149" s="16" t="s">
         <v>506</v>
@@ -24853,7 +24853,7 @@
       <c r="E150" s="6"/>
       <c r="F150" s="10"/>
       <c r="G150" s="6" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="H150" s="16" t="s">
         <v>506</v>
@@ -24884,7 +24884,7 @@
       <c r="E151" s="6"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="H151" s="16" t="s">
         <v>506</v>
@@ -24915,7 +24915,7 @@
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
       <c r="G152" s="6" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="H152" s="16" t="s">
         <v>506</v>
@@ -24938,7 +24938,7 @@
         <v>281</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>3186</v>
+        <v>3185</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>1159</v>
@@ -24946,7 +24946,7 @@
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
       <c r="G153" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H153" s="16" t="s">
         <v>506</v>
@@ -24977,7 +24977,7 @@
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
       <c r="G154" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H154" s="16" t="s">
         <v>506</v>
@@ -25008,7 +25008,7 @@
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
       <c r="G155" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H155" s="16" t="s">
         <v>506</v>
@@ -25039,7 +25039,7 @@
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="H156" s="16" t="s">
         <v>506</v>
@@ -25070,7 +25070,7 @@
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
       <c r="G157" s="6" t="s">
-        <v>3131</v>
+        <v>3130</v>
       </c>
       <c r="H157" s="16" t="s">
         <v>506</v>
@@ -25101,7 +25101,7 @@
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
       <c r="G158" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H158" s="16" t="s">
         <v>506</v>
@@ -25132,7 +25132,7 @@
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
       <c r="G159" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H159" s="16" t="s">
         <v>506</v>
@@ -25163,7 +25163,7 @@
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
       <c r="G160" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H160" s="16" t="s">
         <v>506</v>
@@ -25194,7 +25194,7 @@
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
       <c r="G161" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H161" s="16" t="s">
         <v>506</v>
@@ -25225,7 +25225,7 @@
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
       <c r="G162" s="6" t="s">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="H162" s="16" t="s">
         <v>506</v>
@@ -25256,7 +25256,7 @@
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
       <c r="G163" s="6" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="H163" s="16" t="s">
         <v>506</v>
@@ -25287,7 +25287,7 @@
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
       <c r="G164" s="6" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="H164" s="16" t="s">
         <v>506</v>
@@ -25318,7 +25318,7 @@
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
       <c r="G165" s="6" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="H165" s="16" t="s">
         <v>506</v>
@@ -25349,7 +25349,7 @@
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
       <c r="G166" s="6" t="s">
-        <v>3133</v>
+        <v>3132</v>
       </c>
       <c r="H166" s="16" t="s">
         <v>506</v>
@@ -25380,7 +25380,7 @@
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
       <c r="G167" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H167" s="16" t="s">
         <v>506</v>
@@ -25411,7 +25411,7 @@
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
       <c r="G168" s="6" t="s">
-        <v>3128</v>
+        <v>3127</v>
       </c>
       <c r="H168" s="16" t="s">
         <v>506</v>
@@ -25442,7 +25442,7 @@
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
       <c r="G169" s="6" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="H169" s="16" t="s">
         <v>506</v>
@@ -25473,7 +25473,7 @@
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
       <c r="G170" s="6" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="H170" s="16" t="s">
         <v>506</v>
@@ -25504,7 +25504,7 @@
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
       <c r="G171" s="6" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="H171" s="16" t="s">
         <v>506</v>
@@ -25535,7 +25535,7 @@
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
       <c r="G172" s="6" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="H172" s="16" t="s">
         <v>506</v>
@@ -25566,7 +25566,7 @@
       <c r="E173" s="6"/>
       <c r="F173" s="10"/>
       <c r="G173" s="6" t="s">
-        <v>3134</v>
+        <v>3133</v>
       </c>
       <c r="H173" s="16" t="s">
         <v>506</v>
@@ -25597,7 +25597,7 @@
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
       <c r="G174" s="6" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="H174" s="16" t="s">
         <v>506</v>
@@ -25628,7 +25628,7 @@
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
       <c r="G175" s="6" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="H175" s="16" t="s">
         <v>506</v>
@@ -25659,7 +25659,7 @@
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
       <c r="G176" s="6" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="H176" s="16" t="s">
         <v>506</v>
@@ -25690,7 +25690,7 @@
       <c r="E177" s="6"/>
       <c r="F177" s="6"/>
       <c r="G177" s="6" t="s">
-        <v>3135</v>
+        <v>3134</v>
       </c>
       <c r="H177" s="16" t="s">
         <v>506</v>
@@ -25721,7 +25721,7 @@
       <c r="E178" s="6"/>
       <c r="F178" s="6"/>
       <c r="G178" s="6" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="H178" s="16" t="s">
         <v>506</v>
@@ -25752,7 +25752,7 @@
       <c r="E179" s="6"/>
       <c r="F179" s="6"/>
       <c r="G179" s="6" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="H179" s="16" t="s">
         <v>506</v>
@@ -25783,7 +25783,7 @@
       <c r="E180" s="6"/>
       <c r="F180" s="6"/>
       <c r="G180" s="6" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="H180" s="16" t="s">
         <v>506</v>
@@ -25814,7 +25814,7 @@
       <c r="E181" s="6"/>
       <c r="F181" s="6"/>
       <c r="G181" s="6" t="s">
-        <v>3136</v>
+        <v>3135</v>
       </c>
       <c r="H181" s="16" t="s">
         <v>506</v>
@@ -25845,7 +25845,7 @@
       <c r="E182" s="6"/>
       <c r="F182" s="10"/>
       <c r="G182" s="6" t="s">
-        <v>3137</v>
+        <v>3136</v>
       </c>
       <c r="H182" s="16" t="s">
         <v>506</v>
@@ -25876,7 +25876,7 @@
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
       <c r="G183" s="6" t="s">
-        <v>3138</v>
+        <v>3137</v>
       </c>
       <c r="H183" s="16" t="s">
         <v>506</v>
@@ -25907,7 +25907,7 @@
       <c r="E184" s="6"/>
       <c r="F184" s="10"/>
       <c r="G184" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H184" s="16" t="s">
         <v>506</v>
@@ -25930,7 +25930,7 @@
         <v>323</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>3187</v>
+        <v>3186</v>
       </c>
       <c r="D185" s="6" t="s">
         <v>1159</v>
@@ -25938,7 +25938,7 @@
       <c r="E185" s="6"/>
       <c r="F185" s="10"/>
       <c r="G185" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H185" s="16" t="s">
         <v>506</v>
@@ -25969,7 +25969,7 @@
       <c r="E186" s="6"/>
       <c r="F186" s="6"/>
       <c r="G186" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H186" s="16" t="s">
         <v>506</v>
@@ -26000,7 +26000,7 @@
       <c r="E187" s="6"/>
       <c r="F187" s="6"/>
       <c r="G187" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H187" s="16" t="s">
         <v>506</v>
@@ -26031,7 +26031,7 @@
       <c r="E188" s="6"/>
       <c r="F188" s="6"/>
       <c r="G188" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H188" s="16" t="s">
         <v>506</v>
@@ -26054,7 +26054,7 @@
         <v>2225</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>3188</v>
+        <v>3187</v>
       </c>
       <c r="D189" s="6" t="s">
         <v>1159</v>
@@ -26062,7 +26062,7 @@
       <c r="E189" s="6"/>
       <c r="F189" s="6"/>
       <c r="G189" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H189" s="16" t="s">
         <v>506</v>
@@ -26085,7 +26085,7 @@
         <v>2226</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="D190" s="6" t="s">
         <v>1159</v>
@@ -26093,7 +26093,7 @@
       <c r="E190" s="6"/>
       <c r="F190" s="6"/>
       <c r="G190" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H190" s="16" t="s">
         <v>506</v>
@@ -26124,7 +26124,7 @@
       <c r="E191" s="6"/>
       <c r="F191" s="6"/>
       <c r="G191" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H191" s="16" t="s">
         <v>506</v>
@@ -26147,7 +26147,7 @@
         <v>332</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>3190</v>
+        <v>3189</v>
       </c>
       <c r="D192" s="6" t="s">
         <v>1159</v>
@@ -26155,7 +26155,7 @@
       <c r="E192" s="6"/>
       <c r="F192" s="6"/>
       <c r="G192" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H192" s="16" t="s">
         <v>506</v>
@@ -26186,7 +26186,7 @@
       <c r="E193" s="6"/>
       <c r="F193" s="6"/>
       <c r="G193" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H193" s="16" t="s">
         <v>506</v>
@@ -26217,7 +26217,7 @@
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
       <c r="G194" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H194" s="16" t="s">
         <v>506</v>
@@ -26248,7 +26248,7 @@
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
       <c r="G195" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H195" s="16" t="s">
         <v>506</v>
@@ -26279,7 +26279,7 @@
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
       <c r="G196" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H196" s="16" t="s">
         <v>506</v>
@@ -30403,7 +30403,7 @@
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
       <c r="G197" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H197" s="16" t="s">
         <v>506</v>
@@ -34527,7 +34527,7 @@
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
       <c r="G198" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H198" s="16" t="s">
         <v>506</v>
@@ -34558,7 +34558,7 @@
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
       <c r="G199" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H199" s="16" t="s">
         <v>506</v>
@@ -34589,7 +34589,7 @@
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
       <c r="G200" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H200" s="16" t="s">
         <v>506</v>
@@ -34620,7 +34620,7 @@
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
       <c r="G201" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H201" s="16" t="s">
         <v>506</v>
@@ -34651,7 +34651,7 @@
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
       <c r="G202" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H202" s="16" t="s">
         <v>506</v>
@@ -34682,7 +34682,7 @@
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
       <c r="G203" s="6" t="s">
-        <v>3139</v>
+        <v>3138</v>
       </c>
       <c r="H203" s="16" t="s">
         <v>506</v>
@@ -34705,7 +34705,7 @@
         <v>355</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>3191</v>
+        <v>3190</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>1159</v>
@@ -34767,7 +34767,7 @@
         <v>358</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>3192</v>
+        <v>3191</v>
       </c>
       <c r="D206" s="6" t="s">
         <v>1159</v>
@@ -34829,7 +34829,7 @@
         <v>2481</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>3193</v>
+        <v>3192</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>1159</v>
@@ -34953,7 +34953,7 @@
         <v>501</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>1159</v>
@@ -35042,7 +35042,7 @@
         <v>430</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>1159</v>
@@ -35276,7 +35276,7 @@
         <v>432</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="D223" s="6" t="s">
         <v>1159</v>
@@ -35363,7 +35363,7 @@
         <v>427</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>3197</v>
+        <v>3196</v>
       </c>
       <c r="D226" s="6" t="s">
         <v>1159</v>
@@ -35483,7 +35483,7 @@
         <v>383</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>3198</v>
+        <v>3197</v>
       </c>
       <c r="D230" s="6" t="s">
         <v>1159</v>
@@ -35572,7 +35572,7 @@
         <v>391</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
       <c r="D233" s="6" t="s">
         <v>1159</v>
@@ -35630,7 +35630,7 @@
         <v>421</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="D235" s="6" t="s">
         <v>1159</v>
@@ -35659,7 +35659,7 @@
         <v>418</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="D236" s="6" t="s">
         <v>1159</v>
@@ -35893,7 +35893,7 @@
         <v>413</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D244" s="6" t="s">
         <v>1159</v>
@@ -35922,7 +35922,7 @@
         <v>495</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D245" s="6" t="s">
         <v>1159</v>
@@ -35951,7 +35951,7 @@
         <v>380</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D246" s="6" t="s">
         <v>1159</v>
@@ -35959,7 +35959,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
       <c r="G246" s="6" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="H246" s="17" t="s">
         <v>507</v>
@@ -36133,7 +36133,7 @@
         <v>497</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D252" s="6" t="s">
         <v>1159</v>
@@ -36220,7 +36220,7 @@
         <v>435</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="D255" s="6" t="s">
         <v>1159</v>
@@ -36249,7 +36249,7 @@
         <v>414</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="D256" s="6" t="s">
         <v>1159</v>
@@ -36679,7 +36679,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
       <c r="G270" s="6" t="s">
-        <v>3234</v>
+        <v>3233</v>
       </c>
       <c r="H270" s="14" t="s">
         <v>508</v>
@@ -36702,7 +36702,7 @@
         <v>452</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="D271" s="6" t="s">
         <v>1159</v>
@@ -37439,7 +37439,7 @@
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
       <c r="G296" s="6" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="H296" s="6"/>
       <c r="I296" s="6"/>
@@ -37514,7 +37514,7 @@
         <v>368</v>
       </c>
       <c r="B300" s="6" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>993</v>
@@ -37634,7 +37634,7 @@
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
       <c r="G305" s="6" t="s">
-        <v>3142</v>
+        <v>3141</v>
       </c>
       <c r="H305" s="6"/>
       <c r="I305" s="6"/>
@@ -37649,7 +37649,7 @@
         <v>2385</v>
       </c>
       <c r="C306" s="6" t="s">
-        <v>3145</v>
+        <v>3144</v>
       </c>
       <c r="D306" s="6" t="s">
         <v>22</v>
@@ -37657,7 +37657,7 @@
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
       <c r="G306" s="6" t="s">
-        <v>3143</v>
+        <v>3142</v>
       </c>
       <c r="H306" s="6"/>
       <c r="I306" s="6"/>
@@ -37680,7 +37680,7 @@
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
       <c r="G307" s="6" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
       <c r="H307" s="6"/>
       <c r="I307" s="6"/>
@@ -37692,7 +37692,7 @@
         <v>376</v>
       </c>
       <c r="B308" s="6" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>1646</v>
@@ -37713,10 +37713,10 @@
         <v>377</v>
       </c>
       <c r="B309" s="6" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C309" s="6" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="D309" s="6" t="s">
         <v>22</v>
@@ -37778,10 +37778,10 @@
         <v>380</v>
       </c>
       <c r="B312" s="6" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="C312" s="6" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
       <c r="D312" s="6" t="s">
         <v>22</v>
@@ -37862,10 +37862,10 @@
         <v>384</v>
       </c>
       <c r="B316" s="6" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C316" s="6" t="s">
         <v>2892</v>
-      </c>
-      <c r="C316" s="6" t="s">
-        <v>2893</v>
       </c>
       <c r="D316" s="6" t="s">
         <v>22</v>
@@ -37883,10 +37883,10 @@
         <v>385</v>
       </c>
       <c r="B317" s="6" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C317" s="6" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="D317" s="6" t="s">
         <v>22</v>
@@ -37925,7 +37925,7 @@
         <v>387</v>
       </c>
       <c r="B319" s="6" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>1635</v>
@@ -37967,10 +37967,10 @@
         <v>389</v>
       </c>
       <c r="B321" s="6" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C321" s="6" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="D321" s="6" t="s">
         <v>22</v>
@@ -38022,7 +38022,7 @@
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6" t="s">
-        <v>3140</v>
+        <v>3139</v>
       </c>
       <c r="H323" s="6"/>
       <c r="I323" s="6"/>
@@ -38068,7 +38068,7 @@
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="H325" s="6"/>
       <c r="I325" s="6"/>
@@ -38106,7 +38106,7 @@
         <v>724</v>
       </c>
       <c r="C327" s="6" t="s">
-        <v>3141</v>
+        <v>3140</v>
       </c>
       <c r="D327" s="6" t="s">
         <v>22</v>
@@ -38255,7 +38255,7 @@
         <v>1869</v>
       </c>
       <c r="C334" s="6" t="s">
-        <v>3144</v>
+        <v>3143</v>
       </c>
       <c r="D334" s="6" t="s">
         <v>22</v>
@@ -38305,7 +38305,7 @@
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
       <c r="G336" s="6" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="H336" s="6"/>
       <c r="I336" s="6"/>
@@ -38401,7 +38401,7 @@
         <v>409</v>
       </c>
       <c r="B341" s="6" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>905</v>
@@ -38447,10 +38447,10 @@
         <v>411</v>
       </c>
       <c r="B343" s="6" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
       <c r="C343" s="6" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D343" s="6" t="s">
         <v>22</v>
@@ -38554,10 +38554,10 @@
         <v>416</v>
       </c>
       <c r="B348" s="6" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C348" s="6" t="s">
         <v>2962</v>
-      </c>
-      <c r="C348" s="6" t="s">
-        <v>2963</v>
       </c>
       <c r="D348" s="6" t="s">
         <v>22</v>
@@ -38764,10 +38764,10 @@
         <v>426</v>
       </c>
       <c r="B358" s="6" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C358" s="6" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="D358" s="6" t="s">
         <v>22</v>
@@ -38785,10 +38785,10 @@
         <v>427</v>
       </c>
       <c r="B359" s="6" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C359" s="6" t="s">
         <v>2912</v>
-      </c>
-      <c r="C359" s="6" t="s">
-        <v>2913</v>
       </c>
       <c r="D359" s="6" t="s">
         <v>22</v>
@@ -38806,10 +38806,10 @@
         <v>428</v>
       </c>
       <c r="B360" s="6" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C360" s="6" t="s">
         <v>2992</v>
-      </c>
-      <c r="C360" s="6" t="s">
-        <v>2993</v>
       </c>
       <c r="D360" s="6" t="s">
         <v>22</v>
@@ -38850,10 +38850,10 @@
         <v>430</v>
       </c>
       <c r="B362" s="6" t="s">
+        <v>2530</v>
+      </c>
+      <c r="C362" s="6" t="s">
         <v>2531</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>2532</v>
       </c>
       <c r="D362" s="6" t="s">
         <v>22</v>
@@ -38871,7 +38871,7 @@
         <v>431</v>
       </c>
       <c r="B363" s="6" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>79</v>
@@ -38892,7 +38892,7 @@
         <v>432</v>
       </c>
       <c r="B364" s="6" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>79</v>
@@ -38938,10 +38938,10 @@
         <v>434</v>
       </c>
       <c r="B366" s="6" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C366" s="6" t="s">
         <v>2885</v>
-      </c>
-      <c r="C366" s="6" t="s">
-        <v>2886</v>
       </c>
       <c r="D366" s="6" t="s">
         <v>22</v>
@@ -38964,7 +38964,7 @@
         <v>1242</v>
       </c>
       <c r="C367" s="6" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="D367" s="6" t="s">
         <v>22</v>
@@ -38984,10 +38984,10 @@
         <v>436</v>
       </c>
       <c r="B368" s="6" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C368" s="6" t="s">
         <v>3163</v>
-      </c>
-      <c r="C368" s="6" t="s">
-        <v>3164</v>
       </c>
       <c r="D368" s="6" t="s">
         <v>558</v>
@@ -38995,7 +38995,7 @@
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
       <c r="G368" s="6" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="H368" s="6"/>
       <c r="I368" s="6"/>
@@ -39007,7 +39007,7 @@
         <v>437</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>610</v>
@@ -39018,7 +39018,7 @@
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="H369" s="6"/>
       <c r="I369" s="6"/>
@@ -39030,10 +39030,10 @@
         <v>438</v>
       </c>
       <c r="B370" s="6" t="s">
+        <v>3156</v>
+      </c>
+      <c r="C370" s="6" t="s">
         <v>3157</v>
-      </c>
-      <c r="C370" s="6" t="s">
-        <v>3158</v>
       </c>
       <c r="D370" s="6" t="s">
         <v>558</v>
@@ -39041,7 +39041,7 @@
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
       <c r="G370" s="6" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="H370" s="6"/>
       <c r="I370" s="6"/>
@@ -39053,7 +39053,7 @@
         <v>439</v>
       </c>
       <c r="B371" s="6" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>1903</v>
@@ -39074,10 +39074,10 @@
         <v>440</v>
       </c>
       <c r="B372" s="6" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="C372" s="6" t="s">
-        <v>3159</v>
+        <v>3158</v>
       </c>
       <c r="D372" s="6" t="s">
         <v>558</v>
@@ -39095,10 +39095,10 @@
         <v>441</v>
       </c>
       <c r="B373" s="6" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C373" s="6" t="s">
         <v>3160</v>
-      </c>
-      <c r="C373" s="6" t="s">
-        <v>3161</v>
       </c>
       <c r="D373" s="6" t="s">
         <v>558</v>
@@ -39118,7 +39118,7 @@
         <v>442</v>
       </c>
       <c r="B374" s="6" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>506</v>
@@ -39129,7 +39129,7 @@
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
       <c r="G374" s="6" t="s">
-        <v>3167</v>
+        <v>3166</v>
       </c>
       <c r="H374" s="6"/>
       <c r="I374" s="6"/>
@@ -39141,10 +39141,10 @@
         <v>443</v>
       </c>
       <c r="B375" s="6" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="C375" s="6" t="s">
-        <v>3274</v>
+        <v>3272</v>
       </c>
       <c r="D375" s="6" t="s">
         <v>558</v>
@@ -39185,7 +39185,7 @@
         <v>445</v>
       </c>
       <c r="B377" s="6" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>895</v>
@@ -39450,10 +39450,10 @@
         <v>457</v>
       </c>
       <c r="B389" s="6" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
       <c r="C389" s="6" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
       <c r="D389" s="6" t="s">
         <v>524</v>
@@ -39594,10 +39594,10 @@
         <v>463</v>
       </c>
       <c r="B395" s="6" t="s">
-        <v>3381</v>
+        <v>3379</v>
       </c>
       <c r="C395" s="6" t="s">
-        <v>3382</v>
+        <v>3380</v>
       </c>
       <c r="D395" s="6" t="s">
         <v>524</v>
@@ -40314,10 +40314,10 @@
         <v>493</v>
       </c>
       <c r="B425" s="6" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C425" s="6" t="s">
         <v>2832</v>
-      </c>
-      <c r="C425" s="6" t="s">
-        <v>2833</v>
       </c>
       <c r="D425" s="6" t="s">
         <v>524</v>
@@ -41025,7 +41025,7 @@
         <v>27</v>
       </c>
       <c r="G454" s="6" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="I454" s="6"/>
       <c r="J454" s="6"/>
@@ -41516,10 +41516,10 @@
         <v>543</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="D475" s="10" t="s">
         <v>524</v>
@@ -41540,10 +41540,10 @@
         <v>544</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="D476" s="10" t="s">
         <v>524</v>
@@ -41564,10 +41564,10 @@
         <v>545</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="D477" s="10" t="s">
         <v>524</v>
@@ -42020,10 +42020,10 @@
         <v>564</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="C496" s="6" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="D496" s="6" t="s">
         <v>524</v>
@@ -42308,10 +42308,10 @@
         <v>576</v>
       </c>
       <c r="B508" s="6" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="C508" s="6" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="D508" s="10" t="s">
         <v>524</v>
@@ -42380,10 +42380,10 @@
         <v>579</v>
       </c>
       <c r="B511" s="6" t="s">
+        <v>2546</v>
+      </c>
+      <c r="C511" s="6" t="s">
         <v>2547</v>
-      </c>
-      <c r="C511" s="6" t="s">
-        <v>2548</v>
       </c>
       <c r="D511" s="10" t="s">
         <v>524</v>
@@ -42404,10 +42404,10 @@
         <v>580</v>
       </c>
       <c r="B512" s="6" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="C512" s="6" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="D512" s="10" t="s">
         <v>524</v>
@@ -42428,10 +42428,10 @@
         <v>581</v>
       </c>
       <c r="B513" s="6" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C513" s="6" t="s">
         <v>2554</v>
-      </c>
-      <c r="C513" s="6" t="s">
-        <v>2555</v>
       </c>
       <c r="D513" s="10" t="s">
         <v>524</v>
@@ -42452,10 +42452,10 @@
         <v>582</v>
       </c>
       <c r="B514" s="6" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C514" s="6" t="s">
         <v>2562</v>
-      </c>
-      <c r="C514" s="6" t="s">
-        <v>2563</v>
       </c>
       <c r="D514" s="10" t="s">
         <v>524</v>
@@ -42476,10 +42476,10 @@
         <v>583</v>
       </c>
       <c r="B515" s="6" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C515" s="6" t="s">
         <v>2566</v>
-      </c>
-      <c r="C515" s="6" t="s">
-        <v>2567</v>
       </c>
       <c r="D515" s="10" t="s">
         <v>524</v>
@@ -42500,10 +42500,10 @@
         <v>584</v>
       </c>
       <c r="B516" s="6" t="s">
+        <v>2587</v>
+      </c>
+      <c r="C516" s="6" t="s">
         <v>2588</v>
-      </c>
-      <c r="C516" s="6" t="s">
-        <v>2589</v>
       </c>
       <c r="D516" s="10" t="s">
         <v>524</v>
@@ -42524,10 +42524,10 @@
         <v>585</v>
       </c>
       <c r="B517" s="6" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C517" s="6" t="s">
         <v>2602</v>
-      </c>
-      <c r="C517" s="6" t="s">
-        <v>2603</v>
       </c>
       <c r="D517" s="10" t="s">
         <v>524</v>
@@ -42550,10 +42550,10 @@
         <v>586</v>
       </c>
       <c r="B518" s="6" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="C518" s="6" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="D518" s="10" t="s">
         <v>524</v>
@@ -42574,10 +42574,10 @@
         <v>587</v>
       </c>
       <c r="B519" s="6" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="C519" s="6" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="D519" s="10" t="s">
         <v>524</v>
@@ -42598,10 +42598,10 @@
         <v>588</v>
       </c>
       <c r="B520" s="6" t="s">
+        <v>2618</v>
+      </c>
+      <c r="C520" s="6" t="s">
         <v>2619</v>
-      </c>
-      <c r="C520" s="6" t="s">
-        <v>2620</v>
       </c>
       <c r="D520" s="10" t="s">
         <v>524</v>
@@ -42613,7 +42613,7 @@
         <v>27</v>
       </c>
       <c r="G520" s="10" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="I520" s="6"/>
       <c r="J520" s="6"/>
@@ -42624,10 +42624,10 @@
         <v>589</v>
       </c>
       <c r="B521" s="6" t="s">
+        <v>2620</v>
+      </c>
+      <c r="C521" s="6" t="s">
         <v>2621</v>
-      </c>
-      <c r="C521" s="6" t="s">
-        <v>2622</v>
       </c>
       <c r="D521" s="10" t="s">
         <v>524</v>
@@ -42648,10 +42648,10 @@
         <v>590</v>
       </c>
       <c r="B522" s="6" t="s">
+        <v>2627</v>
+      </c>
+      <c r="C522" s="6" t="s">
         <v>2628</v>
-      </c>
-      <c r="C522" s="6" t="s">
-        <v>2629</v>
       </c>
       <c r="D522" s="10" t="s">
         <v>524</v>
@@ -42672,10 +42672,10 @@
         <v>591</v>
       </c>
       <c r="B523" s="6" t="s">
+        <v>2629</v>
+      </c>
+      <c r="C523" s="6" t="s">
         <v>2630</v>
-      </c>
-      <c r="C523" s="6" t="s">
-        <v>2631</v>
       </c>
       <c r="D523" s="10" t="s">
         <v>524</v>
@@ -42696,10 +42696,10 @@
         <v>592</v>
       </c>
       <c r="B524" s="6" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="C524" s="6" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="D524" s="10" t="s">
         <v>524</v>
@@ -42720,10 +42720,10 @@
         <v>593</v>
       </c>
       <c r="B525" s="6" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C525" s="6" t="s">
         <v>2634</v>
-      </c>
-      <c r="C525" s="6" t="s">
-        <v>2635</v>
       </c>
       <c r="D525" s="10" t="s">
         <v>524</v>
@@ -42744,10 +42744,10 @@
         <v>594</v>
       </c>
       <c r="B526" s="6" t="s">
+        <v>2646</v>
+      </c>
+      <c r="C526" s="6" t="s">
         <v>2647</v>
-      </c>
-      <c r="C526" s="6" t="s">
-        <v>2648</v>
       </c>
       <c r="D526" s="10" t="s">
         <v>524</v>
@@ -42768,10 +42768,10 @@
         <v>595</v>
       </c>
       <c r="B527" s="6" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C527" s="6" t="s">
         <v>2651</v>
-      </c>
-      <c r="C527" s="6" t="s">
-        <v>2652</v>
       </c>
       <c r="D527" s="10" t="s">
         <v>524</v>
@@ -42792,10 +42792,10 @@
         <v>596</v>
       </c>
       <c r="B528" s="6" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C528" s="6" t="s">
         <v>3239</v>
-      </c>
-      <c r="C528" s="6" t="s">
-        <v>3240</v>
       </c>
       <c r="D528" s="10" t="s">
         <v>524</v>
@@ -42816,10 +42816,10 @@
         <v>597</v>
       </c>
       <c r="B529" s="6" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C529" s="6" t="s">
         <v>2659</v>
-      </c>
-      <c r="C529" s="6" t="s">
-        <v>2660</v>
       </c>
       <c r="D529" s="10" t="s">
         <v>524</v>
@@ -42840,10 +42840,10 @@
         <v>598</v>
       </c>
       <c r="B530" s="6" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C530" s="6" t="s">
         <v>2663</v>
-      </c>
-      <c r="C530" s="6" t="s">
-        <v>2664</v>
       </c>
       <c r="D530" s="10" t="s">
         <v>524</v>
@@ -42864,10 +42864,10 @@
         <v>599</v>
       </c>
       <c r="B531" s="6" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="C531" s="6" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
       <c r="D531" s="10" t="s">
         <v>524</v>
@@ -42888,10 +42888,10 @@
         <v>600</v>
       </c>
       <c r="B532" s="6" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="C532" s="6" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
       <c r="D532" s="10" t="s">
         <v>524</v>
@@ -42912,10 +42912,10 @@
         <v>601</v>
       </c>
       <c r="B533" s="6" t="s">
+        <v>2672</v>
+      </c>
+      <c r="C533" s="6" t="s">
         <v>2673</v>
-      </c>
-      <c r="C533" s="6" t="s">
-        <v>2674</v>
       </c>
       <c r="D533" s="10" t="s">
         <v>524</v>
@@ -42936,10 +42936,10 @@
         <v>602</v>
       </c>
       <c r="B534" s="6" t="s">
+        <v>2677</v>
+      </c>
+      <c r="C534" s="6" t="s">
         <v>2678</v>
-      </c>
-      <c r="C534" s="6" t="s">
-        <v>2679</v>
       </c>
       <c r="D534" s="10" t="s">
         <v>524</v>
@@ -42960,10 +42960,10 @@
         <v>603</v>
       </c>
       <c r="B535" s="6" t="s">
+        <v>2681</v>
+      </c>
+      <c r="C535" s="6" t="s">
         <v>2682</v>
-      </c>
-      <c r="C535" s="6" t="s">
-        <v>2683</v>
       </c>
       <c r="D535" s="10" t="s">
         <v>524</v>
@@ -42984,10 +42984,10 @@
         <v>604</v>
       </c>
       <c r="B536" s="6" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C536" s="6" t="s">
         <v>2773</v>
-      </c>
-      <c r="C536" s="6" t="s">
-        <v>2774</v>
       </c>
       <c r="D536" s="10" t="s">
         <v>524</v>
@@ -43008,10 +43008,10 @@
         <v>605</v>
       </c>
       <c r="B537" s="6" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C537" s="6" t="s">
         <v>2781</v>
-      </c>
-      <c r="C537" s="6" t="s">
-        <v>2782</v>
       </c>
       <c r="D537" s="10" t="s">
         <v>524</v>
@@ -43032,10 +43032,10 @@
         <v>606</v>
       </c>
       <c r="B538" s="6" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C538" s="6" t="s">
         <v>2789</v>
-      </c>
-      <c r="C538" s="6" t="s">
-        <v>2790</v>
       </c>
       <c r="D538" s="10" t="s">
         <v>524</v>
@@ -43056,10 +43056,10 @@
         <v>607</v>
       </c>
       <c r="B539" s="6" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C539" s="6" t="s">
         <v>2800</v>
-      </c>
-      <c r="C539" s="6" t="s">
-        <v>2801</v>
       </c>
       <c r="D539" s="10" t="s">
         <v>524</v>
@@ -43080,10 +43080,10 @@
         <v>608</v>
       </c>
       <c r="B540" s="6" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="C540" s="6" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="D540" s="6" t="s">
         <v>524</v>
@@ -43104,10 +43104,10 @@
         <v>609</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="C541" s="6" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="D541" s="6" t="s">
         <v>524</v>
@@ -43128,10 +43128,10 @@
         <v>610</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C542" s="6" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="D542" s="6" t="s">
         <v>524</v>
@@ -43152,10 +43152,10 @@
         <v>611</v>
       </c>
       <c r="B543" s="6" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C543" s="6" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="D543" s="6" t="s">
         <v>524</v>
@@ -43176,10 +43176,10 @@
         <v>612</v>
       </c>
       <c r="B544" s="6" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C544" s="6" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D544" s="6" t="s">
         <v>524</v>
@@ -43200,10 +43200,10 @@
         <v>613</v>
       </c>
       <c r="B545" s="6" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C545" s="6" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="D545" s="6" t="s">
         <v>524</v>
@@ -43224,10 +43224,10 @@
         <v>614</v>
       </c>
       <c r="B546" s="6" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C546" s="6" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="D546" s="6" t="s">
         <v>524</v>
@@ -43248,10 +43248,10 @@
         <v>615</v>
       </c>
       <c r="B547" s="6" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C547" s="6" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="D547" s="6" t="s">
         <v>524</v>
@@ -43272,10 +43272,10 @@
         <v>616</v>
       </c>
       <c r="B548" s="6" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C548" s="6" t="s">
-        <v>3241</v>
+        <v>3240</v>
       </c>
       <c r="D548" s="6" t="s">
         <v>524</v>
@@ -43296,10 +43296,10 @@
         <v>617</v>
       </c>
       <c r="B549" s="6" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C549" s="6" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="D549" s="6" t="s">
         <v>524</v>
@@ -43320,10 +43320,10 @@
         <v>618</v>
       </c>
       <c r="B550" s="6" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C550" s="6" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="D550" s="6" t="s">
         <v>524</v>
@@ -43344,10 +43344,10 @@
         <v>619</v>
       </c>
       <c r="B551" s="6" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="C551" s="6" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="D551" s="6" t="s">
         <v>524</v>
@@ -43368,10 +43368,10 @@
         <v>620</v>
       </c>
       <c r="B552" s="6" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C552" s="6" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="D552" s="6" t="s">
         <v>524</v>
@@ -43392,10 +43392,10 @@
         <v>621</v>
       </c>
       <c r="B553" s="6" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C553" s="6" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="D553" s="6" t="s">
         <v>524</v>
@@ -43416,10 +43416,10 @@
         <v>622</v>
       </c>
       <c r="B554" s="6" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="C554" s="6" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="D554" s="6" t="s">
         <v>524</v>
@@ -43440,10 +43440,10 @@
         <v>623</v>
       </c>
       <c r="B555" s="6" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="C555" s="6" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="D555" s="6" t="s">
         <v>524</v>
@@ -43464,10 +43464,10 @@
         <v>624</v>
       </c>
       <c r="B556" s="6" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="C556" s="6" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="D556" s="6" t="s">
         <v>524</v>
@@ -43488,10 +43488,10 @@
         <v>625</v>
       </c>
       <c r="B557" s="6" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="C557" s="6" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="D557" s="6" t="s">
         <v>524</v>
@@ -43512,10 +43512,10 @@
         <v>626</v>
       </c>
       <c r="B558" s="6" t="s">
-        <v>3295</v>
+        <v>3293</v>
       </c>
       <c r="C558" s="6" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="D558" s="6" t="s">
         <v>524</v>
@@ -43536,10 +43536,10 @@
         <v>627</v>
       </c>
       <c r="B559" s="6" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="C559" s="6" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="D559" s="6" t="s">
         <v>524</v>
@@ -43560,10 +43560,10 @@
         <v>628</v>
       </c>
       <c r="B560" s="6" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C560" s="6" t="s">
         <v>2939</v>
-      </c>
-      <c r="C560" s="6" t="s">
-        <v>2940</v>
       </c>
       <c r="D560" s="6" t="s">
         <v>524</v>
@@ -43586,10 +43586,10 @@
         <v>629</v>
       </c>
       <c r="B561" s="6" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="C561" s="6" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="D561" s="6" t="s">
         <v>524</v>
@@ -43610,10 +43610,10 @@
         <v>630</v>
       </c>
       <c r="B562" s="6" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="C562" s="6" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="D562" s="6" t="s">
         <v>524</v>
@@ -43634,10 +43634,10 @@
         <v>631</v>
       </c>
       <c r="B563" s="6" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="C563" s="6" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="D563" s="6" t="s">
         <v>524</v>
@@ -43658,10 +43658,10 @@
         <v>632</v>
       </c>
       <c r="B564" s="6" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C564" s="6" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="D564" s="6" t="s">
         <v>524</v>
@@ -43682,10 +43682,10 @@
         <v>633</v>
       </c>
       <c r="B565" s="6" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="C565" s="6" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="D565" s="6" t="s">
         <v>524</v>
@@ -43706,10 +43706,10 @@
         <v>634</v>
       </c>
       <c r="B566" s="6" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C566" s="6" t="s">
         <v>2983</v>
-      </c>
-      <c r="C566" s="6" t="s">
-        <v>2984</v>
       </c>
       <c r="D566" s="6" t="s">
         <v>524</v>
@@ -43730,10 +43730,10 @@
         <v>635</v>
       </c>
       <c r="B567" s="6" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="C567" s="6" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="D567" s="6" t="s">
         <v>524</v>
@@ -43754,10 +43754,10 @@
         <v>636</v>
       </c>
       <c r="B568" s="6" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="C568" s="6" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="D568" s="6" t="s">
         <v>524</v>
@@ -43778,10 +43778,10 @@
         <v>637</v>
       </c>
       <c r="B569" s="6" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="C569" s="6" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="D569" s="6" t="s">
         <v>524</v>
@@ -43802,10 +43802,10 @@
         <v>638</v>
       </c>
       <c r="B570" s="6" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="C570" s="6" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="D570" s="6" t="s">
         <v>524</v>
@@ -43826,10 +43826,10 @@
         <v>639</v>
       </c>
       <c r="B571" s="6" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C571" s="6" t="s">
         <v>3014</v>
-      </c>
-      <c r="C571" s="6" t="s">
-        <v>3015</v>
       </c>
       <c r="D571" s="6" t="s">
         <v>524</v>
@@ -43850,10 +43850,10 @@
         <v>640</v>
       </c>
       <c r="B572" s="6" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="C572" s="6" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="D572" s="6" t="s">
         <v>524</v>
@@ -43874,10 +43874,10 @@
         <v>641</v>
       </c>
       <c r="B573" s="6" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="C573" s="6" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="D573" s="6" t="s">
         <v>524</v>
@@ -43898,10 +43898,10 @@
         <v>642</v>
       </c>
       <c r="B574" s="6" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C574" s="6" t="s">
         <v>3082</v>
-      </c>
-      <c r="C574" s="6" t="s">
-        <v>3083</v>
       </c>
       <c r="D574" s="6" t="s">
         <v>524</v>
@@ -43922,10 +43922,10 @@
         <v>643</v>
       </c>
       <c r="B575" s="6" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
       <c r="C575" s="6" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="D575" s="6" t="s">
         <v>524</v>
@@ -43946,10 +43946,10 @@
         <v>644</v>
       </c>
       <c r="B576" s="6" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="C576" s="6" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="D576" s="6" t="s">
         <v>524</v>
@@ -43970,10 +43970,10 @@
         <v>645</v>
       </c>
       <c r="B577" s="6" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C577" s="6" t="s">
         <v>3089</v>
-      </c>
-      <c r="C577" s="6" t="s">
-        <v>3090</v>
       </c>
       <c r="D577" s="6" t="s">
         <v>524</v>
@@ -43994,10 +43994,10 @@
         <v>646</v>
       </c>
       <c r="B578" s="6" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C578" s="6" t="s">
         <v>3091</v>
-      </c>
-      <c r="C578" s="6" t="s">
-        <v>3092</v>
       </c>
       <c r="D578" s="6" t="s">
         <v>524</v>
@@ -44018,10 +44018,10 @@
         <v>647</v>
       </c>
       <c r="B579" s="6" t="s">
+        <v>3280</v>
+      </c>
+      <c r="C579" s="6" t="s">
         <v>3282</v>
-      </c>
-      <c r="C579" s="6" t="s">
-        <v>3284</v>
       </c>
       <c r="D579" s="6" t="s">
         <v>524</v>
@@ -44042,10 +44042,10 @@
         <v>648</v>
       </c>
       <c r="B580" s="6" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C580" s="6" t="s">
         <v>3283</v>
-      </c>
-      <c r="C580" s="6" t="s">
-        <v>3285</v>
       </c>
       <c r="D580" s="6" t="s">
         <v>524</v>
@@ -44066,10 +44066,10 @@
         <v>649</v>
       </c>
       <c r="B581" s="6" t="s">
+        <v>3097</v>
+      </c>
+      <c r="C581" s="6" t="s">
         <v>3098</v>
-      </c>
-      <c r="C581" s="6" t="s">
-        <v>3099</v>
       </c>
       <c r="D581" s="6" t="s">
         <v>524</v>
@@ -44114,10 +44114,10 @@
         <v>651</v>
       </c>
       <c r="B583" s="6" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C583" s="6" t="s">
         <v>2763</v>
-      </c>
-      <c r="C583" s="6" t="s">
-        <v>2764</v>
       </c>
       <c r="D583" s="10" t="s">
         <v>524</v>
@@ -44138,7 +44138,7 @@
         <v>652</v>
       </c>
       <c r="B584" s="6" t="s">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="C584" s="6" t="s">
         <v>1530</v>
@@ -44186,7 +44186,7 @@
         <v>654</v>
       </c>
       <c r="B586" s="6" t="s">
-        <v>3149</v>
+        <v>3148</v>
       </c>
       <c r="C586" s="6" t="s">
         <v>1026</v>
@@ -44402,7 +44402,7 @@
         <v>663</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>3150</v>
+        <v>3149</v>
       </c>
       <c r="C595" s="6" t="s">
         <v>1664</v>
@@ -44426,10 +44426,10 @@
         <v>664</v>
       </c>
       <c r="B596" s="6" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C596" s="6" t="s">
         <v>2592</v>
-      </c>
-      <c r="C596" s="6" t="s">
-        <v>2593</v>
       </c>
       <c r="D596" s="10" t="s">
         <v>524</v>
@@ -44450,10 +44450,10 @@
         <v>665</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="C597" s="6" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="D597" s="10" t="s">
         <v>524</v>
@@ -44474,10 +44474,10 @@
         <v>666</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="C598" s="6" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="D598" s="10" t="s">
         <v>524</v>
@@ -44498,10 +44498,10 @@
         <v>667</v>
       </c>
       <c r="B599" s="6" t="s">
+        <v>2631</v>
+      </c>
+      <c r="C599" s="6" t="s">
         <v>2632</v>
-      </c>
-      <c r="C599" s="6" t="s">
-        <v>2633</v>
       </c>
       <c r="D599" s="10" t="s">
         <v>524</v>
@@ -44522,10 +44522,10 @@
         <v>668</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>3151</v>
+        <v>3150</v>
       </c>
       <c r="C600" s="6" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="D600" s="10" t="s">
         <v>524</v>
@@ -44546,10 +44546,10 @@
         <v>669</v>
       </c>
       <c r="B601" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C601" s="6" t="s">
         <v>2661</v>
-      </c>
-      <c r="C601" s="6" t="s">
-        <v>2662</v>
       </c>
       <c r="D601" s="10" t="s">
         <v>524</v>
@@ -44570,10 +44570,10 @@
         <v>670</v>
       </c>
       <c r="B602" s="6" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="C602" s="6" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="D602" s="6" t="s">
         <v>524</v>
@@ -44594,10 +44594,10 @@
         <v>671</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>3152</v>
+        <v>3151</v>
       </c>
       <c r="C603" s="6" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="D603" s="6" t="s">
         <v>524</v>
@@ -44618,10 +44618,10 @@
         <v>672</v>
       </c>
       <c r="B604" s="6" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C604" s="6" t="s">
         <v>2903</v>
-      </c>
-      <c r="C604" s="6" t="s">
-        <v>2904</v>
       </c>
       <c r="D604" s="6" t="s">
         <v>524</v>
@@ -44642,10 +44642,10 @@
         <v>673</v>
       </c>
       <c r="B605" s="6" t="s">
+        <v>2923</v>
+      </c>
+      <c r="C605" s="6" t="s">
         <v>2924</v>
-      </c>
-      <c r="C605" s="6" t="s">
-        <v>2925</v>
       </c>
       <c r="D605" s="6" t="s">
         <v>524</v>
@@ -44666,10 +44666,10 @@
         <v>674</v>
       </c>
       <c r="B606" s="6" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="C606" s="6" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="D606" s="6" t="s">
         <v>524</v>
@@ -44690,10 +44690,10 @@
         <v>675</v>
       </c>
       <c r="B607" s="6" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="C607" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="D607" s="6" t="s">
         <v>524</v>
@@ -44714,10 +44714,10 @@
         <v>676</v>
       </c>
       <c r="B608" s="6" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="C608" s="10" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="D608" s="6" t="s">
         <v>524</v>
@@ -44738,10 +44738,10 @@
         <v>677</v>
       </c>
       <c r="B609" s="6" t="s">
-        <v>3153</v>
+        <v>3152</v>
       </c>
       <c r="C609" s="10" t="s">
-        <v>3147</v>
+        <v>3146</v>
       </c>
       <c r="D609" s="6" t="s">
         <v>524</v>
@@ -44762,10 +44762,10 @@
         <v>678</v>
       </c>
       <c r="B610" s="6" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="C610" s="6" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="D610" s="6" t="s">
         <v>524</v>
@@ -44786,10 +44786,10 @@
         <v>679</v>
       </c>
       <c r="B611" s="6" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C611" s="6" t="s">
         <v>2986</v>
-      </c>
-      <c r="C611" s="6" t="s">
-        <v>2987</v>
       </c>
       <c r="D611" s="6" t="s">
         <v>524</v>
@@ -44810,10 +44810,10 @@
         <v>680</v>
       </c>
       <c r="B612" s="6" t="s">
-        <v>3154</v>
+        <v>3153</v>
       </c>
       <c r="C612" s="6" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="D612" s="6" t="s">
         <v>524</v>
@@ -44834,7 +44834,7 @@
         <v>681</v>
       </c>
       <c r="B613" s="6" t="s">
-        <v>3242</v>
+        <v>3241</v>
       </c>
       <c r="C613" s="6" t="s">
         <v>1739</v>
@@ -45410,10 +45410,10 @@
         <v>707</v>
       </c>
       <c r="B639" s="6" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
       <c r="C639" s="6" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="D639" s="10" t="s">
         <v>524</v>
@@ -45434,10 +45434,10 @@
         <v>708</v>
       </c>
       <c r="B640" s="6" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
       <c r="C640" s="6" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="D640" s="10" t="s">
         <v>524</v>
@@ -45458,10 +45458,10 @@
         <v>709</v>
       </c>
       <c r="B641" s="6" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="C641" s="6" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="D641" s="10" t="s">
         <v>524</v>
@@ -45482,10 +45482,10 @@
         <v>710</v>
       </c>
       <c r="B642" s="6" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="C642" s="6" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
       <c r="D642" s="10" t="s">
         <v>524</v>
@@ -45554,10 +45554,10 @@
         <v>713</v>
       </c>
       <c r="B645" s="6" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
       <c r="C645" s="6" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="D645" s="6" t="s">
         <v>602</v>
@@ -45754,10 +45754,10 @@
         <v>721</v>
       </c>
       <c r="B653" s="6" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="C653" s="6" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="D653" s="6" t="s">
         <v>602</v>
@@ -45902,7 +45902,7 @@
         <v>727</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="C659" s="6" t="s">
         <v>79</v>
@@ -46048,10 +46048,10 @@
         <v>733</v>
       </c>
       <c r="B665" s="6" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C665" s="6" t="s">
         <v>2676</v>
-      </c>
-      <c r="C665" s="6" t="s">
-        <v>2677</v>
       </c>
       <c r="D665" s="6" t="s">
         <v>602</v>
@@ -46073,10 +46073,10 @@
         <v>734</v>
       </c>
       <c r="B666" s="6" t="s">
+        <v>2683</v>
+      </c>
+      <c r="C666" s="6" t="s">
         <v>2684</v>
-      </c>
-      <c r="C666" s="6" t="s">
-        <v>2685</v>
       </c>
       <c r="D666" s="6" t="s">
         <v>602</v>
@@ -46098,10 +46098,10 @@
         <v>735</v>
       </c>
       <c r="B667" s="6" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="C667" s="6" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
       <c r="D667" s="6" t="s">
         <v>602</v>
@@ -46578,7 +46578,7 @@
         <v>2328</v>
       </c>
       <c r="C686" s="6" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="D686" s="6" t="s">
         <v>602</v>
@@ -46588,7 +46588,7 @@
       </c>
       <c r="F686" s="6"/>
       <c r="G686" s="6" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="H686" s="6"/>
       <c r="I686" s="6"/>
@@ -46625,7 +46625,7 @@
         <v>756</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C688" s="6" t="s">
         <v>1129</v>
@@ -46650,10 +46650,10 @@
         <v>757</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="C689" s="6" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="D689" s="6" t="s">
         <v>602</v>
@@ -46673,10 +46673,10 @@
         <v>758</v>
       </c>
       <c r="B690" s="6" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="C690" s="6" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
       <c r="D690" s="6" t="s">
         <v>602</v>
@@ -47058,7 +47058,7 @@
         <v>1848</v>
       </c>
       <c r="C706" s="6" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="D706" s="6" t="s">
         <v>666</v>
@@ -47082,7 +47082,7 @@
         <v>775</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>3122</v>
+        <v>3121</v>
       </c>
       <c r="C707" s="6" t="s">
         <v>1678</v>
@@ -47170,7 +47170,7 @@
         <v>27</v>
       </c>
       <c r="G710" s="9" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="H710" s="6"/>
       <c r="I710" s="6"/>
@@ -47253,10 +47253,10 @@
         <v>782</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
       <c r="C714" s="6" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
       <c r="D714" s="6" t="s">
         <v>666</v>
@@ -47477,10 +47477,10 @@
         <v>792</v>
       </c>
       <c r="B724" s="6" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
       <c r="C724" s="6" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="D724" s="6" t="s">
         <v>666</v>
@@ -47502,10 +47502,10 @@
         <v>793</v>
       </c>
       <c r="B725" s="6" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="C725" s="6" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="D725" s="6" t="s">
         <v>666</v>
@@ -47668,7 +47668,7 @@
         <v>2471</v>
       </c>
       <c r="C732" s="6" t="s">
-        <v>3243</v>
+        <v>3242</v>
       </c>
       <c r="D732" s="6" t="s">
         <v>666</v>
@@ -47705,7 +47705,7 @@
       </c>
       <c r="F733" s="6"/>
       <c r="G733" s="6" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="H733" s="6"/>
       <c r="I733" s="6"/>
@@ -47730,7 +47730,7 @@
       </c>
       <c r="F734" s="6"/>
       <c r="G734" s="6" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="H734" s="6"/>
       <c r="I734" s="6"/>
@@ -48134,7 +48134,7 @@
         <v>27</v>
       </c>
       <c r="G750" s="6" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
       <c r="H750" s="6"/>
       <c r="I750" s="6"/>
@@ -48242,7 +48242,7 @@
         <v>27</v>
       </c>
       <c r="G754" s="6" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="H754" s="6"/>
       <c r="I754" s="6"/>
@@ -48254,7 +48254,7 @@
         <v>823</v>
       </c>
       <c r="B755" s="6" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="C755" s="6" t="s">
         <v>640</v>
@@ -48277,10 +48277,10 @@
         <v>824</v>
       </c>
       <c r="B756" s="6" t="s">
+        <v>2522</v>
+      </c>
+      <c r="C756" s="6" t="s">
         <v>2523</v>
-      </c>
-      <c r="C756" s="6" t="s">
-        <v>2524</v>
       </c>
       <c r="D756" s="6" t="s">
         <v>666</v>
@@ -48300,10 +48300,10 @@
         <v>825</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="C757" s="6" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="D757" s="6" t="s">
         <v>666</v>
@@ -48504,10 +48504,10 @@
         <v>833</v>
       </c>
       <c r="B765" s="6" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
       <c r="C765" s="6" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
       <c r="D765" s="6" t="s">
         <v>666</v>
@@ -48527,10 +48527,10 @@
         <v>834</v>
       </c>
       <c r="B766" s="6" t="s">
+        <v>2572</v>
+      </c>
+      <c r="C766" s="6" t="s">
         <v>2573</v>
-      </c>
-      <c r="C766" s="6" t="s">
-        <v>2574</v>
       </c>
       <c r="D766" s="6" t="s">
         <v>666</v>
@@ -48550,10 +48550,10 @@
         <v>835</v>
       </c>
       <c r="B767" s="6" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="C767" s="6" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="D767" s="6" t="s">
         <v>666</v>
@@ -48575,10 +48575,10 @@
         <v>836</v>
       </c>
       <c r="B768" s="6" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="C768" s="6" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="D768" s="6" t="s">
         <v>666</v>
@@ -48600,10 +48600,10 @@
         <v>837</v>
       </c>
       <c r="B769" s="6" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C769" s="6" t="s">
         <v>2609</v>
-      </c>
-      <c r="C769" s="6" t="s">
-        <v>2610</v>
       </c>
       <c r="D769" s="6" t="s">
         <v>666</v>
@@ -48625,10 +48625,10 @@
         <v>838</v>
       </c>
       <c r="B770" s="6" t="s">
+        <v>2624</v>
+      </c>
+      <c r="C770" s="6" t="s">
         <v>2625</v>
-      </c>
-      <c r="C770" s="6" t="s">
-        <v>2626</v>
       </c>
       <c r="D770" s="6" t="s">
         <v>666</v>
@@ -48650,10 +48650,10 @@
         <v>839</v>
       </c>
       <c r="B771" s="6" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="C771" s="6" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
       <c r="D771" s="6" t="s">
         <v>666</v>
@@ -48675,10 +48675,10 @@
         <v>840</v>
       </c>
       <c r="B772" s="6" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C772" s="6" t="s">
         <v>2771</v>
-      </c>
-      <c r="C772" s="6" t="s">
-        <v>2772</v>
       </c>
       <c r="D772" s="6" t="s">
         <v>666</v>
@@ -48700,10 +48700,10 @@
         <v>841</v>
       </c>
       <c r="B773" s="6" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C773" s="6" t="s">
         <v>2814</v>
-      </c>
-      <c r="C773" s="6" t="s">
-        <v>2815</v>
       </c>
       <c r="D773" s="6" t="s">
         <v>666</v>
@@ -48723,10 +48723,10 @@
         <v>842</v>
       </c>
       <c r="B774" s="6" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C774" s="6" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D774" s="6" t="s">
         <v>666</v>
@@ -48746,10 +48746,10 @@
         <v>843</v>
       </c>
       <c r="B775" s="6" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C775" s="6" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
       <c r="D775" s="6" t="s">
         <v>666</v>
@@ -48769,10 +48769,10 @@
         <v>844</v>
       </c>
       <c r="B776" s="6" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C776" s="6" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="D776" s="6" t="s">
         <v>666</v>
@@ -48819,10 +48819,10 @@
         <v>846</v>
       </c>
       <c r="B778" s="6" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="C778" s="6" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="D778" s="6" t="s">
         <v>666</v>
@@ -48961,10 +48961,10 @@
         <v>852</v>
       </c>
       <c r="B784" s="6" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="C784" s="6" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="D784" s="9" t="s">
         <v>17</v>
@@ -49020,7 +49020,7 @@
       </c>
       <c r="F786" s="9"/>
       <c r="G786" s="9" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="H786" s="6"/>
       <c r="I786" s="6"/>
@@ -49130,10 +49130,10 @@
         <v>859</v>
       </c>
       <c r="B791" s="6" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="C791" s="6" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="D791" s="9" t="s">
         <v>17</v>
@@ -49141,7 +49141,7 @@
       <c r="E791" s="6"/>
       <c r="F791" s="6"/>
       <c r="G791" s="6" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="H791" s="6"/>
       <c r="I791" s="6"/>
@@ -49272,7 +49272,7 @@
         <v>865</v>
       </c>
       <c r="B797" s="9" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="C797" s="9" t="s">
         <v>40</v>
@@ -49306,7 +49306,7 @@
         <v>27</v>
       </c>
       <c r="G798" s="6" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="H798" s="6"/>
       <c r="I798" s="6"/>
@@ -49444,7 +49444,7 @@
         <v>27</v>
       </c>
       <c r="G804" s="6" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="H804" s="6"/>
       <c r="I804" s="6"/>
@@ -49565,7 +49565,7 @@
         <v>27</v>
       </c>
       <c r="G809" s="6" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="H809" s="6"/>
       <c r="I809" s="6"/>
@@ -49680,7 +49680,7 @@
       </c>
       <c r="F814" s="9"/>
       <c r="G814" s="9" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="H814" s="6"/>
       <c r="I814" s="6"/>
@@ -49782,7 +49782,7 @@
         <v>887</v>
       </c>
       <c r="B819" s="9" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
       <c r="C819" s="9" t="s">
         <v>902</v>
@@ -49803,7 +49803,7 @@
         <v>888</v>
       </c>
       <c r="B820" s="9" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="C820" s="9" t="s">
         <v>902</v>
@@ -49984,7 +49984,7 @@
         <v>982</v>
       </c>
       <c r="C828" s="9" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="D828" s="9" t="s">
         <v>17</v>
@@ -50048,10 +50048,10 @@
         <v>899</v>
       </c>
       <c r="B831" s="9" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="C831" s="9" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="D831" s="9" t="s">
         <v>17</v>
@@ -50289,7 +50289,7 @@
         <v>27</v>
       </c>
       <c r="G841" s="6" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="H841" s="6"/>
       <c r="I841" s="6"/>
@@ -50394,7 +50394,7 @@
         <v>1636</v>
       </c>
       <c r="C846" s="6" t="s">
-        <v>3246</v>
+        <v>3245</v>
       </c>
       <c r="D846" s="9" t="s">
         <v>17</v>
@@ -50752,7 +50752,7 @@
       <c r="E862" s="6"/>
       <c r="F862" s="6"/>
       <c r="G862" s="6" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="H862" s="6"/>
       <c r="I862" s="6"/>
@@ -51131,7 +51131,7 @@
         <v>27</v>
       </c>
       <c r="G879" s="6" t="s">
-        <v>3107</v>
+        <v>3106</v>
       </c>
       <c r="H879" s="6"/>
       <c r="I879" s="6"/>
@@ -51196,7 +51196,7 @@
       <c r="E882" s="6"/>
       <c r="F882" s="6"/>
       <c r="G882" s="6" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="H882" s="6"/>
       <c r="I882" s="6"/>
@@ -51250,10 +51250,10 @@
         <v>953</v>
       </c>
       <c r="B885" s="6" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="C885" s="6" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="D885" s="9" t="s">
         <v>17</v>
@@ -51512,10 +51512,10 @@
         <v>965</v>
       </c>
       <c r="B897" s="6" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="C897" s="6" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="D897" s="9" t="s">
         <v>17</v>
@@ -51598,7 +51598,7 @@
         <v>969</v>
       </c>
       <c r="B901" s="6" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="C901" s="6" t="s">
         <v>2169</v>
@@ -51845,10 +51845,10 @@
         <v>980</v>
       </c>
       <c r="B912" s="6" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
       <c r="C912" s="6" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="D912" s="9" t="s">
         <v>17</v>
@@ -51868,10 +51868,10 @@
         <v>981</v>
       </c>
       <c r="B913" s="6" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="C913" s="6" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
       <c r="D913" s="9" t="s">
         <v>17</v>
@@ -51914,7 +51914,7 @@
         <v>983</v>
       </c>
       <c r="B915" s="6" t="s">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="C915" s="6" t="s">
         <v>1199</v>
@@ -52166,7 +52166,7 @@
       </c>
       <c r="F926" s="6"/>
       <c r="G926" s="6" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="H926" s="6"/>
       <c r="I926" s="6"/>
@@ -52396,10 +52396,10 @@
         <v>1005</v>
       </c>
       <c r="B937" s="10" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="C937" s="6" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="D937" s="6" t="s">
         <v>17</v>
@@ -52417,10 +52417,10 @@
         <v>1006</v>
       </c>
       <c r="B938" s="6" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C938" s="6" t="s">
         <v>2512</v>
-      </c>
-      <c r="C938" s="6" t="s">
-        <v>2513</v>
       </c>
       <c r="D938" s="6" t="s">
         <v>17</v>
@@ -52438,10 +52438,10 @@
         <v>1007</v>
       </c>
       <c r="B939" s="6" t="s">
+        <v>2516</v>
+      </c>
+      <c r="C939" s="6" t="s">
         <v>2517</v>
-      </c>
-      <c r="C939" s="6" t="s">
-        <v>2518</v>
       </c>
       <c r="D939" s="6" t="s">
         <v>17</v>
@@ -52459,10 +52459,10 @@
         <v>1008</v>
       </c>
       <c r="B940" s="6" t="s">
+        <v>2519</v>
+      </c>
+      <c r="C940" s="6" t="s">
         <v>2520</v>
-      </c>
-      <c r="C940" s="6" t="s">
-        <v>2521</v>
       </c>
       <c r="D940" s="6" t="s">
         <v>17</v>
@@ -52472,7 +52472,7 @@
         <v>27</v>
       </c>
       <c r="G940" s="6" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="H940" s="6"/>
       <c r="I940" s="6"/>
@@ -52484,10 +52484,10 @@
         <v>1009</v>
       </c>
       <c r="B941" s="10" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="C941" s="6" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D941" s="6" t="s">
         <v>17</v>
@@ -52505,7 +52505,7 @@
         <v>1010</v>
       </c>
       <c r="B942" s="6" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="C942" s="6" t="s">
         <v>302</v>
@@ -52526,10 +52526,10 @@
         <v>1011</v>
       </c>
       <c r="B943" s="6" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C943" s="6" t="s">
         <v>2671</v>
-      </c>
-      <c r="C943" s="6" t="s">
-        <v>2672</v>
       </c>
       <c r="D943" s="6" t="s">
         <v>17</v>
@@ -52549,10 +52549,10 @@
         <v>1012</v>
       </c>
       <c r="B944" s="6" t="s">
+        <v>2686</v>
+      </c>
+      <c r="C944" s="6" t="s">
         <v>2687</v>
-      </c>
-      <c r="C944" s="6" t="s">
-        <v>2688</v>
       </c>
       <c r="D944" s="6" t="s">
         <v>17</v>
@@ -52573,7 +52573,7 @@
         <v>854</v>
       </c>
       <c r="C945" s="6" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
       <c r="D945" s="6" t="s">
         <v>17</v>
@@ -52591,7 +52591,7 @@
         <v>1014</v>
       </c>
       <c r="B946" s="6" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="C946" s="6" t="s">
         <v>79</v>
@@ -52612,10 +52612,10 @@
         <v>1015</v>
       </c>
       <c r="B947" s="6" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="C947" s="6" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="D947" s="6" t="s">
         <v>17</v>
@@ -52635,10 +52635,10 @@
         <v>1016</v>
       </c>
       <c r="B948" s="6" t="s">
+        <v>2695</v>
+      </c>
+      <c r="C948" s="6" t="s">
         <v>2696</v>
-      </c>
-      <c r="C948" s="6" t="s">
-        <v>2697</v>
       </c>
       <c r="D948" s="6" t="s">
         <v>17</v>
@@ -52656,7 +52656,7 @@
         <v>1017</v>
       </c>
       <c r="B949" s="6" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="C949" s="6" t="s">
         <v>1383</v>
@@ -52677,7 +52677,7 @@
         <v>1018</v>
       </c>
       <c r="B950" s="6" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="C950" s="6" t="s">
         <v>79</v>
@@ -52698,10 +52698,10 @@
         <v>1019</v>
       </c>
       <c r="B951" s="6" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C951" s="6" t="s">
         <v>2776</v>
-      </c>
-      <c r="C951" s="6" t="s">
-        <v>2777</v>
       </c>
       <c r="D951" s="6" t="s">
         <v>17</v>
@@ -52719,10 +52719,10 @@
         <v>1020</v>
       </c>
       <c r="B952" s="6" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C952" s="6" t="s">
         <v>2778</v>
-      </c>
-      <c r="C952" s="6" t="s">
-        <v>2779</v>
       </c>
       <c r="D952" s="6" t="s">
         <v>17</v>
@@ -52742,10 +52742,10 @@
         <v>1021</v>
       </c>
       <c r="B953" s="6" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C953" s="6" t="s">
         <v>2787</v>
-      </c>
-      <c r="C953" s="6" t="s">
-        <v>2788</v>
       </c>
       <c r="D953" s="6" t="s">
         <v>17</v>
@@ -52763,10 +52763,10 @@
         <v>1022</v>
       </c>
       <c r="B954" s="6" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C954" s="6" t="s">
         <v>2791</v>
-      </c>
-      <c r="C954" s="6" t="s">
-        <v>2792</v>
       </c>
       <c r="D954" s="6" t="s">
         <v>17</v>
@@ -52786,10 +52786,10 @@
         <v>1023</v>
       </c>
       <c r="B955" s="6" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C955" s="6" t="s">
         <v>2798</v>
-      </c>
-      <c r="C955" s="6" t="s">
-        <v>2799</v>
       </c>
       <c r="D955" s="6" t="s">
         <v>17</v>
@@ -52807,10 +52807,10 @@
         <v>1024</v>
       </c>
       <c r="B956" s="6" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C956" s="6" t="s">
         <v>2805</v>
-      </c>
-      <c r="C956" s="6" t="s">
-        <v>2806</v>
       </c>
       <c r="D956" s="6" t="s">
         <v>17</v>
@@ -52828,10 +52828,10 @@
         <v>1025</v>
       </c>
       <c r="B957" s="6" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="C957" s="6" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="D957" s="6" t="s">
         <v>17</v>
@@ -52849,7 +52849,7 @@
         <v>1026</v>
       </c>
       <c r="B958" s="6" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C958" s="6" t="s">
         <v>79</v>
@@ -52870,10 +52870,10 @@
         <v>1027</v>
       </c>
       <c r="B959" s="6" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C959" s="6" t="s">
         <v>2818</v>
-      </c>
-      <c r="C959" s="6" t="s">
-        <v>2819</v>
       </c>
       <c r="D959" s="6" t="s">
         <v>17</v>
@@ -52891,10 +52891,10 @@
         <v>1028</v>
       </c>
       <c r="B960" s="6" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C960" s="6" t="s">
         <v>2820</v>
-      </c>
-      <c r="C960" s="6" t="s">
-        <v>2821</v>
       </c>
       <c r="D960" s="6" t="s">
         <v>17</v>
@@ -52912,7 +52912,7 @@
         <v>1029</v>
       </c>
       <c r="B961" s="6" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C961" s="6" t="s">
         <v>79</v>
@@ -52935,10 +52935,10 @@
         <v>1030</v>
       </c>
       <c r="B962" s="6" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C962" s="6" t="s">
         <v>2849</v>
-      </c>
-      <c r="C962" s="6" t="s">
-        <v>2850</v>
       </c>
       <c r="D962" s="6" t="s">
         <v>17</v>
@@ -52956,7 +52956,7 @@
         <v>1031</v>
       </c>
       <c r="B963" s="6" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C963" s="6" t="s">
         <v>1680</v>
@@ -52977,7 +52977,7 @@
         <v>1032</v>
       </c>
       <c r="B964" s="6" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C964" s="6" t="s">
         <v>79</v>
@@ -52998,7 +52998,7 @@
         <v>1033</v>
       </c>
       <c r="B965" s="6" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C965" s="6" t="s">
         <v>79</v>
@@ -53021,10 +53021,10 @@
         <v>1034</v>
       </c>
       <c r="B966" s="6" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C966" s="6" t="s">
         <v>2895</v>
-      </c>
-      <c r="C966" s="6" t="s">
-        <v>2896</v>
       </c>
       <c r="D966" s="6" t="s">
         <v>17</v>
@@ -53044,10 +53044,10 @@
         <v>1035</v>
       </c>
       <c r="B967" s="6" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="C967" s="6" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="D967" s="6" t="s">
         <v>17</v>
@@ -53067,10 +53067,10 @@
         <v>1036</v>
       </c>
       <c r="B968" s="6" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C968" s="6" t="s">
         <v>2905</v>
-      </c>
-      <c r="C968" s="6" t="s">
-        <v>2906</v>
       </c>
       <c r="D968" s="6" t="s">
         <v>17</v>
@@ -53088,10 +53088,10 @@
         <v>1037</v>
       </c>
       <c r="B969" s="6" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C969" s="6" t="s">
         <v>2908</v>
-      </c>
-      <c r="C969" s="6" t="s">
-        <v>2909</v>
       </c>
       <c r="D969" s="6" t="s">
         <v>17</v>
@@ -53109,10 +53109,10 @@
         <v>1038</v>
       </c>
       <c r="B970" s="6" t="s">
-        <v>3123</v>
+        <v>3122</v>
       </c>
       <c r="C970" s="6" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="D970" s="6" t="s">
         <v>17</v>
@@ -53130,10 +53130,10 @@
         <v>1039</v>
       </c>
       <c r="B971" s="6" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C971" s="6" t="s">
         <v>2917</v>
-      </c>
-      <c r="C971" s="6" t="s">
-        <v>2918</v>
       </c>
       <c r="D971" s="6" t="s">
         <v>17</v>
@@ -53151,10 +53151,10 @@
         <v>1040</v>
       </c>
       <c r="B972" s="6" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C972" s="6" t="s">
         <v>2947</v>
-      </c>
-      <c r="C972" s="6" t="s">
-        <v>2948</v>
       </c>
       <c r="D972" s="6" t="s">
         <v>17</v>
@@ -53172,7 +53172,7 @@
         <v>1041</v>
       </c>
       <c r="B973" s="6" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="C973" s="6" t="s">
         <v>79</v>
@@ -53193,10 +53193,10 @@
         <v>1042</v>
       </c>
       <c r="B974" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C974" s="6" t="s">
         <v>2955</v>
-      </c>
-      <c r="C974" s="6" t="s">
-        <v>2956</v>
       </c>
       <c r="D974" s="6" t="s">
         <v>17</v>
@@ -53214,10 +53214,10 @@
         <v>1043</v>
       </c>
       <c r="B975" s="6" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="C975" s="6" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="D975" s="6" t="s">
         <v>17</v>
@@ -53235,10 +53235,10 @@
         <v>1044</v>
       </c>
       <c r="B976" s="6" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C976" s="6" t="s">
         <v>2977</v>
-      </c>
-      <c r="C976" s="6" t="s">
-        <v>2978</v>
       </c>
       <c r="D976" s="6" t="s">
         <v>17</v>
@@ -53256,10 +53256,10 @@
         <v>1045</v>
       </c>
       <c r="B977" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C977" s="6" t="s">
         <v>2988</v>
-      </c>
-      <c r="C977" s="6" t="s">
-        <v>2989</v>
       </c>
       <c r="D977" s="6" t="s">
         <v>17</v>
@@ -53277,10 +53277,10 @@
         <v>1046</v>
       </c>
       <c r="B978" s="6" t="s">
-        <v>3248</v>
+        <v>3449</v>
       </c>
       <c r="C978" s="6" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="D978" s="6" t="s">
         <v>17</v>
@@ -53298,10 +53298,10 @@
         <v>1047</v>
       </c>
       <c r="B979" s="6" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C979" s="6" t="s">
         <v>2998</v>
-      </c>
-      <c r="C979" s="6" t="s">
-        <v>2999</v>
       </c>
       <c r="D979" s="6" t="s">
         <v>17</v>
@@ -53321,7 +53321,7 @@
         <v>1048</v>
       </c>
       <c r="B980" s="6" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="C980" s="6" t="s">
         <v>79</v>
@@ -53342,7 +53342,7 @@
         <v>1049</v>
       </c>
       <c r="B981" s="6" t="s">
-        <v>3247</v>
+        <v>3246</v>
       </c>
       <c r="C981" s="6" t="s">
         <v>79</v>
@@ -53363,10 +53363,10 @@
         <v>1050</v>
       </c>
       <c r="B982" s="6" t="s">
+        <v>3001</v>
+      </c>
+      <c r="C982" s="6" t="s">
         <v>3002</v>
-      </c>
-      <c r="C982" s="6" t="s">
-        <v>3003</v>
       </c>
       <c r="D982" s="6" t="s">
         <v>17</v>
@@ -53384,10 +53384,10 @@
         <v>1051</v>
       </c>
       <c r="B983" s="6" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C983" s="6" t="s">
         <v>3005</v>
-      </c>
-      <c r="C983" s="6" t="s">
-        <v>3006</v>
       </c>
       <c r="D983" s="6" t="s">
         <v>17</v>
@@ -53405,7 +53405,7 @@
         <v>1052</v>
       </c>
       <c r="B984" s="6" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="C984" s="6" t="s">
         <v>79</v>
@@ -53426,10 +53426,10 @@
         <v>1053</v>
       </c>
       <c r="B985" s="6" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="C985" s="6" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="D985" s="6" t="s">
         <v>17</v>
@@ -53447,10 +53447,10 @@
         <v>1054</v>
       </c>
       <c r="B986" s="6" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C986" s="6" t="s">
         <v>3016</v>
-      </c>
-      <c r="C986" s="6" t="s">
-        <v>3017</v>
       </c>
       <c r="D986" s="6" t="s">
         <v>17</v>
@@ -53468,10 +53468,10 @@
         <v>1055</v>
       </c>
       <c r="B987" s="6" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C987" s="6" t="s">
         <v>3021</v>
-      </c>
-      <c r="C987" s="6" t="s">
-        <v>3022</v>
       </c>
       <c r="D987" s="6" t="s">
         <v>17</v>
@@ -53489,10 +53489,10 @@
         <v>1056</v>
       </c>
       <c r="B988" s="6" t="s">
+        <v>3095</v>
+      </c>
+      <c r="C988" s="6" t="s">
         <v>3096</v>
-      </c>
-      <c r="C988" s="6" t="s">
-        <v>3097</v>
       </c>
       <c r="D988" s="6" t="s">
         <v>17</v>
@@ -53535,10 +53535,10 @@
         <v>1058</v>
       </c>
       <c r="B990" s="6" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C990" s="6" t="s">
         <v>2810</v>
-      </c>
-      <c r="C990" s="6" t="s">
-        <v>2811</v>
       </c>
       <c r="D990" s="6" t="s">
         <v>17</v>
@@ -53617,7 +53617,7 @@
       </c>
       <c r="F993" s="6"/>
       <c r="G993" s="6" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="H993" s="6"/>
       <c r="I993" s="6"/>
@@ -53667,7 +53667,7 @@
       </c>
       <c r="F995" s="6"/>
       <c r="G995" s="6" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="H995" s="6"/>
       <c r="I995" s="6"/>
@@ -53692,7 +53692,7 @@
       </c>
       <c r="F996" s="6"/>
       <c r="G996" s="6" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="H996" s="6"/>
       <c r="I996" s="6"/>
@@ -53846,7 +53846,7 @@
         <v>1071</v>
       </c>
       <c r="B1003" s="6" t="s">
-        <v>3244</v>
+        <v>3243</v>
       </c>
       <c r="C1003" s="6" t="s">
         <v>1903</v>
@@ -53892,10 +53892,10 @@
         <v>1073</v>
       </c>
       <c r="B1005" s="6" t="s">
+        <v>2574</v>
+      </c>
+      <c r="C1005" s="6" t="s">
         <v>2575</v>
-      </c>
-      <c r="C1005" s="6" t="s">
-        <v>2576</v>
       </c>
       <c r="D1005" s="6" t="s">
         <v>1410</v>
@@ -53915,10 +53915,10 @@
         <v>1074</v>
       </c>
       <c r="B1006" s="6" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C1006" s="6" t="s">
         <v>2822</v>
-      </c>
-      <c r="C1006" s="6" t="s">
-        <v>2823</v>
       </c>
       <c r="D1006" s="6" t="s">
         <v>1410</v>
@@ -53938,10 +53938,10 @@
         <v>1075</v>
       </c>
       <c r="B1007" s="6" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C1007" s="6" t="s">
         <v>2826</v>
-      </c>
-      <c r="C1007" s="6" t="s">
-        <v>2827</v>
       </c>
       <c r="D1007" s="6" t="s">
         <v>1410</v>
@@ -53961,7 +53961,7 @@
         <v>1076</v>
       </c>
       <c r="B1008" s="6" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="C1008" s="6" t="s">
         <v>79</v>
@@ -53984,10 +53984,10 @@
         <v>1077</v>
       </c>
       <c r="B1009" s="6" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="C1009" s="6" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="D1009" s="6" t="s">
         <v>1410</v>
@@ -54007,10 +54007,10 @@
         <v>1078</v>
       </c>
       <c r="B1010" s="6" t="s">
-        <v>3275</v>
+        <v>3273</v>
       </c>
       <c r="C1010" s="6" t="s">
-        <v>3276</v>
+        <v>3274</v>
       </c>
       <c r="D1010" s="9" t="s">
         <v>8</v>
@@ -54051,10 +54051,10 @@
         <v>1080</v>
       </c>
       <c r="B1012" s="9" t="s">
-        <v>3383</v>
+        <v>3381</v>
       </c>
       <c r="C1012" s="9" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="D1012" s="9" t="s">
         <v>8</v>
@@ -54526,7 +54526,7 @@
     <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1033" s="6"/>
       <c r="B1033" s="9" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="C1033" s="9" t="s">
         <v>557</v>
@@ -54558,7 +54558,7 @@
       <c r="E1034" s="9"/>
       <c r="F1034" s="9"/>
       <c r="G1034" s="6" t="s">
-        <v>3106</v>
+        <v>3105</v>
       </c>
       <c r="H1034" s="6"/>
       <c r="I1034" s="6"/>
@@ -54596,7 +54596,7 @@
         <v>470</v>
       </c>
       <c r="C1036" s="6" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
       <c r="D1036" s="9" t="s">
         <v>8</v>
@@ -54939,7 +54939,7 @@
         <v>1118</v>
       </c>
       <c r="B1051" s="6" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="C1051" s="6" t="s">
         <v>1266</v>
@@ -55609,7 +55609,7 @@
         <v>1148</v>
       </c>
       <c r="B1081" s="6" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="C1081" s="6" t="s">
         <v>1625</v>
@@ -55678,10 +55678,10 @@
         <v>1151</v>
       </c>
       <c r="B1084" s="6" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="C1084" s="6" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
       <c r="D1084" s="9" t="s">
         <v>8</v>
@@ -55766,7 +55766,7 @@
         <v>1155</v>
       </c>
       <c r="B1088" s="6" t="s">
-        <v>3116</v>
+        <v>3115</v>
       </c>
       <c r="C1088" s="6" t="s">
         <v>1620</v>
@@ -56348,7 +56348,7 @@
         <v>1181</v>
       </c>
       <c r="B1114" s="6" t="s">
-        <v>3112</v>
+        <v>3111</v>
       </c>
       <c r="C1114" s="6" t="s">
         <v>1386</v>
@@ -56438,7 +56438,7 @@
         <v>1185</v>
       </c>
       <c r="B1118" s="6" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C1118" s="6" t="s">
         <v>1396</v>
@@ -56470,7 +56470,7 @@
       <c r="E1119" s="6"/>
       <c r="F1119" s="6"/>
       <c r="G1119" s="6" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="H1119" s="6"/>
       <c r="I1119" s="6"/>
@@ -57049,7 +57049,7 @@
         <v>1212</v>
       </c>
       <c r="B1145" s="6" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="C1145" s="6" t="s">
         <v>2045</v>
@@ -57095,10 +57095,10 @@
         <v>1214</v>
       </c>
       <c r="B1147" s="6" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C1147" s="6" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="D1147" s="9" t="s">
         <v>8</v>
@@ -57213,7 +57213,7 @@
         <v>2049</v>
       </c>
       <c r="C1152" s="6" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="D1152" s="9" t="s">
         <v>8</v>
@@ -57262,7 +57262,7 @@
         <v>1900</v>
       </c>
       <c r="C1154" s="6" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="D1154" s="9" t="s">
         <v>8</v>
@@ -57310,7 +57310,7 @@
         <v>1923</v>
       </c>
       <c r="C1156" s="6" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="D1156" s="9" t="s">
         <v>8</v>
@@ -57399,10 +57399,10 @@
         <v>1227</v>
       </c>
       <c r="B1160" s="6" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
       <c r="C1160" s="6" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="D1160" s="9" t="s">
         <v>8</v>
@@ -57531,10 +57531,10 @@
         <v>1233</v>
       </c>
       <c r="B1166" s="6" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="C1166" s="6" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="D1166" s="9" t="s">
         <v>8</v>
@@ -57720,7 +57720,7 @@
       </c>
       <c r="F1174" s="6"/>
       <c r="G1174" s="10" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="H1174" s="6"/>
       <c r="I1174" s="6"/>
@@ -57768,7 +57768,7 @@
         <v>27</v>
       </c>
       <c r="G1176" s="6" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="H1176" s="6"/>
       <c r="I1176" s="6"/>
@@ -57860,7 +57860,7 @@
       </c>
       <c r="F1180" s="6"/>
       <c r="G1180" s="6" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="H1180" s="6"/>
       <c r="I1180" s="6"/>
@@ -57893,7 +57893,7 @@
         <v>1249</v>
       </c>
       <c r="B1182" s="6" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="C1182" s="6" t="s">
         <v>2102</v>
@@ -57939,10 +57939,10 @@
         <v>1251</v>
       </c>
       <c r="B1184" s="6" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="C1184" s="6" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="D1184" s="9" t="s">
         <v>8</v>
@@ -58006,10 +58006,10 @@
         <v>1254</v>
       </c>
       <c r="B1187" s="9" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="C1187" s="9" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="D1187" s="9" t="s">
         <v>8</v>
@@ -58189,10 +58189,10 @@
         <v>1262</v>
       </c>
       <c r="B1195" s="9" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
       <c r="C1195" s="9" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="D1195" s="9" t="s">
         <v>8</v>
@@ -58233,10 +58233,10 @@
         <v>1264</v>
       </c>
       <c r="B1197" s="6" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="C1197" s="6" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="D1197" s="9" t="s">
         <v>8</v>
@@ -58256,10 +58256,10 @@
         <v>1265</v>
       </c>
       <c r="B1198" s="6" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="C1198" s="6" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="D1198" s="9" t="s">
         <v>8</v>
@@ -58279,10 +58279,10 @@
         <v>1266</v>
       </c>
       <c r="B1199" s="6" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
       <c r="C1199" s="6" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="D1199" s="9" t="s">
         <v>8</v>
@@ -58382,7 +58382,7 @@
       <c r="E1203" s="6"/>
       <c r="F1203" s="6"/>
       <c r="G1203" s="6" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="H1203" s="6"/>
       <c r="I1203" s="6"/>
@@ -58436,7 +58436,7 @@
         <v>1273</v>
       </c>
       <c r="B1206" s="6" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="C1206" s="6" t="s">
         <v>1821</v>
@@ -58460,7 +58460,7 @@
         <v>1274</v>
       </c>
       <c r="B1207" s="6" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="C1207" s="6" t="s">
         <v>1822</v>
@@ -58481,10 +58481,10 @@
         <v>1275</v>
       </c>
       <c r="B1208" s="6" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="C1208" s="6" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="D1208" s="9" t="s">
         <v>8</v>
@@ -58571,7 +58571,7 @@
         <v>1279</v>
       </c>
       <c r="B1212" s="6" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="C1212" s="6" t="s">
         <v>1855</v>
@@ -58720,7 +58720,7 @@
       </c>
       <c r="F1218" s="6"/>
       <c r="G1218" s="6" t="s">
-        <v>2503</v>
+        <v>3450</v>
       </c>
       <c r="H1218" s="6"/>
       <c r="I1218" s="6"/>
@@ -58851,10 +58851,10 @@
         <v>1291</v>
       </c>
       <c r="B1224" s="6" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
       <c r="C1224" s="6" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
       <c r="D1224" s="9" t="s">
         <v>8</v>
@@ -58874,10 +58874,10 @@
         <v>1292</v>
       </c>
       <c r="B1225" s="6" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
       <c r="C1225" s="6" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="D1225" s="9" t="s">
         <v>8</v>
@@ -58961,7 +58961,7 @@
         <v>1686</v>
       </c>
       <c r="C1229" s="6" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="D1229" s="9" t="s">
         <v>8</v>
@@ -59073,10 +59073,10 @@
         <v>1301</v>
       </c>
       <c r="B1234" s="6" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="C1234" s="6" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="D1234" s="9" t="s">
         <v>8</v>
@@ -59238,10 +59238,10 @@
         <v>1308</v>
       </c>
       <c r="B1241" s="6" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="C1241" s="6" t="s">
-        <v>3390</v>
+        <v>3388</v>
       </c>
       <c r="D1241" s="6" t="s">
         <v>8</v>
@@ -59402,7 +59402,7 @@
       <c r="E1248" s="6"/>
       <c r="F1248" s="6"/>
       <c r="G1248" s="6" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="H1248" s="6"/>
       <c r="I1248" s="6"/>
@@ -59435,7 +59435,7 @@
         <v>1317</v>
       </c>
       <c r="B1250" s="6" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="C1250" s="6" t="s">
         <v>1780</v>
@@ -59456,10 +59456,10 @@
         <v>1318</v>
       </c>
       <c r="B1251" s="6" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="C1251" s="6" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="D1251" s="6" t="s">
         <v>8</v>
@@ -59494,7 +59494,7 @@
         <v>27</v>
       </c>
       <c r="G1252" s="9" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
       <c r="H1252" s="6"/>
       <c r="I1252" s="6"/>
@@ -59575,10 +59575,10 @@
         <v>1323</v>
       </c>
       <c r="B1256" s="6" t="s">
+        <v>2503</v>
+      </c>
+      <c r="C1256" s="6" t="s">
         <v>2504</v>
-      </c>
-      <c r="C1256" s="6" t="s">
-        <v>2505</v>
       </c>
       <c r="D1256" s="6" t="s">
         <v>8</v>
@@ -59598,10 +59598,10 @@
         <v>1324</v>
       </c>
       <c r="B1257" s="6" t="s">
+        <v>2509</v>
+      </c>
+      <c r="C1257" s="6" t="s">
         <v>2510</v>
-      </c>
-      <c r="C1257" s="6" t="s">
-        <v>2511</v>
       </c>
       <c r="D1257" s="6" t="s">
         <v>8</v>
@@ -59619,7 +59619,7 @@
         <v>1325</v>
       </c>
       <c r="B1258" s="6" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="C1258" s="6" t="s">
         <v>917</v>
@@ -59640,10 +59640,10 @@
         <v>1326</v>
       </c>
       <c r="B1259" s="6" t="s">
+        <v>2527</v>
+      </c>
+      <c r="C1259" s="6" t="s">
         <v>2528</v>
-      </c>
-      <c r="C1259" s="6" t="s">
-        <v>2529</v>
       </c>
       <c r="D1259" s="9" t="s">
         <v>8</v>
@@ -59661,10 +59661,10 @@
         <v>1327</v>
       </c>
       <c r="B1260" s="6" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="C1260" s="6" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="D1260" s="6" t="s">
         <v>8</v>
@@ -59682,10 +59682,10 @@
         <v>1328</v>
       </c>
       <c r="B1261" s="6" t="s">
+        <v>2535</v>
+      </c>
+      <c r="C1261" s="6" t="s">
         <v>2536</v>
-      </c>
-      <c r="C1261" s="6" t="s">
-        <v>2537</v>
       </c>
       <c r="D1261" s="6" t="s">
         <v>8</v>
@@ -59726,10 +59726,10 @@
         <v>1330</v>
       </c>
       <c r="B1263" s="9" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="C1263" s="9" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="D1263" s="9" t="s">
         <v>8</v>
@@ -59752,7 +59752,7 @@
         <v>1345</v>
       </c>
       <c r="C1264" s="6" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D1264" s="6" t="s">
         <v>8</v>
@@ -59770,10 +59770,10 @@
         <v>1332</v>
       </c>
       <c r="B1265" s="6" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C1265" s="6" t="s">
         <v>2544</v>
-      </c>
-      <c r="C1265" s="6" t="s">
-        <v>2545</v>
       </c>
       <c r="D1265" s="6" t="s">
         <v>8</v>
@@ -59791,10 +59791,10 @@
         <v>1333</v>
       </c>
       <c r="B1266" s="6" t="s">
+        <v>2548</v>
+      </c>
+      <c r="C1266" s="6" t="s">
         <v>2549</v>
-      </c>
-      <c r="C1266" s="6" t="s">
-        <v>2550</v>
       </c>
       <c r="D1266" s="6" t="s">
         <v>8</v>
@@ -59812,10 +59812,10 @@
         <v>1334</v>
       </c>
       <c r="B1267" s="6" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C1267" s="6" t="s">
         <v>2560</v>
-      </c>
-      <c r="C1267" s="6" t="s">
-        <v>2561</v>
       </c>
       <c r="D1267" s="6" t="s">
         <v>8</v>
@@ -59833,10 +59833,10 @@
         <v>1335</v>
       </c>
       <c r="B1268" s="6" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C1268" s="6" t="s">
         <v>2564</v>
-      </c>
-      <c r="C1268" s="6" t="s">
-        <v>2565</v>
       </c>
       <c r="D1268" s="6" t="s">
         <v>8</v>
@@ -59856,7 +59856,7 @@
         <v>1336</v>
       </c>
       <c r="B1269" s="6" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="C1269" s="6" t="s">
         <v>1546</v>
@@ -59879,10 +59879,10 @@
         <v>1337</v>
       </c>
       <c r="B1270" s="6" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="C1270" s="6" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="D1270" s="6" t="s">
         <v>8</v>
@@ -59892,7 +59892,7 @@
         <v>27</v>
       </c>
       <c r="G1270" s="6" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="H1270" s="6"/>
       <c r="I1270" s="6"/>
@@ -59904,10 +59904,10 @@
         <v>1338</v>
       </c>
       <c r="B1271" s="6" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="C1271" s="6" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="D1271" s="6" t="s">
         <v>8</v>
@@ -59927,10 +59927,10 @@
         <v>1339</v>
       </c>
       <c r="B1272" s="6" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
       <c r="C1272" s="6" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D1272" s="6" t="s">
         <v>8</v>
@@ -59950,10 +59950,10 @@
         <v>1340</v>
       </c>
       <c r="B1273" s="6" t="s">
+        <v>2582</v>
+      </c>
+      <c r="C1273" s="6" t="s">
         <v>2583</v>
-      </c>
-      <c r="C1273" s="6" t="s">
-        <v>2584</v>
       </c>
       <c r="D1273" s="6" t="s">
         <v>8</v>
@@ -59971,10 +59971,10 @@
         <v>1341</v>
       </c>
       <c r="B1274" s="6" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C1274" s="6" t="s">
         <v>2586</v>
-      </c>
-      <c r="C1274" s="6" t="s">
-        <v>2587</v>
       </c>
       <c r="D1274" s="6" t="s">
         <v>8</v>
@@ -59994,10 +59994,10 @@
         <v>1342</v>
       </c>
       <c r="B1275" s="6" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C1275" s="6" t="s">
         <v>2594</v>
-      </c>
-      <c r="C1275" s="6" t="s">
-        <v>2595</v>
       </c>
       <c r="D1275" s="6" t="s">
         <v>8</v>
@@ -60017,10 +60017,10 @@
         <v>1343</v>
       </c>
       <c r="B1276" s="6" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C1276" s="6" t="s">
         <v>2596</v>
-      </c>
-      <c r="C1276" s="6" t="s">
-        <v>2597</v>
       </c>
       <c r="D1276" s="6" t="s">
         <v>8</v>
@@ -60040,10 +60040,10 @@
         <v>1344</v>
       </c>
       <c r="B1277" s="6" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C1277" s="6" t="s">
         <v>2598</v>
-      </c>
-      <c r="C1277" s="6" t="s">
-        <v>2599</v>
       </c>
       <c r="D1277" s="6" t="s">
         <v>8</v>
@@ -60063,10 +60063,10 @@
         <v>1345</v>
       </c>
       <c r="B1278" s="6" t="s">
+        <v>2642</v>
+      </c>
+      <c r="C1278" s="6" t="s">
         <v>2643</v>
-      </c>
-      <c r="C1278" s="6" t="s">
-        <v>2644</v>
       </c>
       <c r="D1278" s="6" t="s">
         <v>8</v>
@@ -60086,10 +60086,10 @@
         <v>1346</v>
       </c>
       <c r="B1279" s="6" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="C1279" s="6" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="D1279" s="6" t="s">
         <v>8</v>
@@ -60109,10 +60109,10 @@
         <v>1347</v>
       </c>
       <c r="B1280" s="6" t="s">
+        <v>2648</v>
+      </c>
+      <c r="C1280" s="6" t="s">
         <v>2649</v>
-      </c>
-      <c r="C1280" s="6" t="s">
-        <v>2650</v>
       </c>
       <c r="D1280" s="6" t="s">
         <v>8</v>
@@ -60132,10 +60132,10 @@
         <v>1348</v>
       </c>
       <c r="B1281" s="6" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C1281" s="6" t="s">
         <v>2653</v>
-      </c>
-      <c r="C1281" s="6" t="s">
-        <v>2654</v>
       </c>
       <c r="D1281" s="6" t="s">
         <v>8</v>
@@ -60155,10 +60155,10 @@
         <v>1349</v>
       </c>
       <c r="B1282" s="6" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="C1282" s="6" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="D1282" s="6" t="s">
         <v>8</v>
@@ -60178,7 +60178,7 @@
         <v>1350</v>
       </c>
       <c r="B1283" s="6" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
       <c r="C1283" s="6" t="s">
         <v>79</v>
@@ -60203,7 +60203,7 @@
         <v>1351</v>
       </c>
       <c r="B1284" s="6" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="C1284" s="6" t="s">
         <v>1549</v>
@@ -60216,7 +60216,7 @@
         <v>27</v>
       </c>
       <c r="G1284" s="6" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="H1284" s="6"/>
       <c r="I1284" s="6"/>
@@ -60251,7 +60251,7 @@
         <v>1353</v>
       </c>
       <c r="B1286" s="6" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="C1286" s="6" t="s">
         <v>1790</v>
@@ -60320,10 +60320,10 @@
         <v>1356</v>
       </c>
       <c r="B1289" s="6" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="C1289" s="6" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="D1289" s="6" t="s">
         <v>8</v>
@@ -60343,10 +60343,10 @@
         <v>1357</v>
       </c>
       <c r="B1290" s="6" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C1290" s="6" t="s">
         <v>2571</v>
-      </c>
-      <c r="C1290" s="6" t="s">
-        <v>2572</v>
       </c>
       <c r="D1290" s="6" t="s">
         <v>8</v>
@@ -60366,10 +60366,10 @@
         <v>1358</v>
       </c>
       <c r="B1291" s="6" t="s">
+        <v>3117</v>
+      </c>
+      <c r="C1291" s="6" t="s">
         <v>3118</v>
-      </c>
-      <c r="C1291" s="6" t="s">
-        <v>3119</v>
       </c>
       <c r="D1291" s="6" t="s">
         <v>8</v>
@@ -60389,7 +60389,7 @@
         <v>1359</v>
       </c>
       <c r="B1292" s="6" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="C1292" s="6" t="s">
         <v>2132</v>
@@ -60550,7 +60550,7 @@
         <v>1366</v>
       </c>
       <c r="B1299" s="6" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
       <c r="C1299" s="6" t="s">
         <v>1336</v>
@@ -60734,7 +60734,7 @@
         <v>1374</v>
       </c>
       <c r="B1307" s="6" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
       <c r="C1307" s="6" t="s">
         <v>1807</v>
@@ -60806,7 +60806,7 @@
         <v>2467</v>
       </c>
       <c r="C1310" s="6" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="D1310" s="6" t="s">
         <v>8</v>
@@ -60872,7 +60872,7 @@
         <v>1380</v>
       </c>
       <c r="B1313" s="6" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="C1313" s="6" t="s">
         <v>79</v>
@@ -60893,10 +60893,10 @@
         <v>1381</v>
       </c>
       <c r="B1314" s="6" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C1314" s="6" t="s">
         <v>2761</v>
-      </c>
-      <c r="C1314" s="6" t="s">
-        <v>2762</v>
       </c>
       <c r="D1314" s="9" t="s">
         <v>8</v>
@@ -60914,10 +60914,10 @@
         <v>1382</v>
       </c>
       <c r="B1315" s="6" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C1315" s="6" t="s">
         <v>2783</v>
-      </c>
-      <c r="C1315" s="6" t="s">
-        <v>2784</v>
       </c>
       <c r="D1315" s="9" t="s">
         <v>8</v>
@@ -60939,10 +60939,10 @@
         <v>1383</v>
       </c>
       <c r="B1316" s="6" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1316" s="6" t="s">
         <v>2785</v>
-      </c>
-      <c r="C1316" s="6" t="s">
-        <v>2786</v>
       </c>
       <c r="D1316" s="9" t="s">
         <v>8</v>
@@ -60960,10 +60960,10 @@
         <v>1384</v>
       </c>
       <c r="B1317" s="6" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C1317" s="6" t="s">
         <v>2793</v>
-      </c>
-      <c r="C1317" s="6" t="s">
-        <v>2794</v>
       </c>
       <c r="D1317" s="9" t="s">
         <v>8</v>
@@ -60983,10 +60983,10 @@
         <v>1385</v>
       </c>
       <c r="B1318" s="6" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C1318" s="6" t="s">
         <v>2795</v>
-      </c>
-      <c r="C1318" s="6" t="s">
-        <v>2796</v>
       </c>
       <c r="D1318" s="9" t="s">
         <v>8</v>
@@ -61006,10 +61006,10 @@
         <v>1386</v>
       </c>
       <c r="B1319" s="6" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C1319" s="6" t="s">
         <v>2803</v>
-      </c>
-      <c r="C1319" s="6" t="s">
-        <v>2804</v>
       </c>
       <c r="D1319" s="9" t="s">
         <v>8</v>
@@ -61027,10 +61027,10 @@
         <v>1387</v>
       </c>
       <c r="B1320" s="6" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C1320" s="6" t="s">
         <v>2816</v>
-      </c>
-      <c r="C1320" s="6" t="s">
-        <v>2817</v>
       </c>
       <c r="D1320" s="9" t="s">
         <v>8</v>
@@ -61050,10 +61050,10 @@
         <v>1388</v>
       </c>
       <c r="B1321" s="6" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C1321" s="6" t="s">
         <v>2829</v>
-      </c>
-      <c r="C1321" s="6" t="s">
-        <v>2830</v>
       </c>
       <c r="D1321" s="9" t="s">
         <v>8</v>
@@ -61073,10 +61073,10 @@
         <v>1389</v>
       </c>
       <c r="B1322" s="6" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1322" s="6" t="s">
         <v>2839</v>
-      </c>
-      <c r="C1322" s="6" t="s">
-        <v>2840</v>
       </c>
       <c r="D1322" s="9" t="s">
         <v>8</v>
@@ -61096,10 +61096,10 @@
         <v>1390</v>
       </c>
       <c r="B1323" s="6" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C1323" s="6" t="s">
         <v>2843</v>
-      </c>
-      <c r="C1323" s="6" t="s">
-        <v>2844</v>
       </c>
       <c r="D1323" s="9" t="s">
         <v>8</v>
@@ -61117,10 +61117,10 @@
         <v>1391</v>
       </c>
       <c r="B1324" s="6" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1324" s="6" t="s">
         <v>2855</v>
-      </c>
-      <c r="C1324" s="6" t="s">
-        <v>2856</v>
       </c>
       <c r="D1324" s="9" t="s">
         <v>8</v>
@@ -61140,10 +61140,10 @@
         <v>1392</v>
       </c>
       <c r="B1325" s="6" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C1325" s="6" t="s">
         <v>2857</v>
-      </c>
-      <c r="C1325" s="6" t="s">
-        <v>2858</v>
       </c>
       <c r="D1325" s="9" t="s">
         <v>8</v>
@@ -61161,10 +61161,10 @@
         <v>1393</v>
       </c>
       <c r="B1326" s="6" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C1326" s="6" t="s">
         <v>2860</v>
-      </c>
-      <c r="C1326" s="6" t="s">
-        <v>2861</v>
       </c>
       <c r="D1326" s="9" t="s">
         <v>8</v>
@@ -61182,10 +61182,10 @@
         <v>1394</v>
       </c>
       <c r="B1327" s="6" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="C1327" s="6" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="D1327" s="9" t="s">
         <v>8</v>
@@ -61205,10 +61205,10 @@
         <v>1395</v>
       </c>
       <c r="B1328" s="6" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C1328" s="6" t="s">
         <v>2872</v>
-      </c>
-      <c r="C1328" s="6" t="s">
-        <v>2873</v>
       </c>
       <c r="D1328" s="9" t="s">
         <v>8</v>
@@ -61228,10 +61228,10 @@
         <v>1396</v>
       </c>
       <c r="B1329" s="6" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C1329" s="6" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="D1329" s="9" t="s">
         <v>8</v>
@@ -61249,10 +61249,10 @@
         <v>1397</v>
       </c>
       <c r="B1330" s="6" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C1330" s="6" t="s">
         <v>2879</v>
-      </c>
-      <c r="C1330" s="6" t="s">
-        <v>2880</v>
       </c>
       <c r="D1330" s="9" t="s">
         <v>8</v>
@@ -61272,10 +61272,10 @@
         <v>1398</v>
       </c>
       <c r="B1331" s="6" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="C1331" s="6" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="D1331" s="9" t="s">
         <v>8</v>
@@ -61293,10 +61293,10 @@
         <v>1399</v>
       </c>
       <c r="B1332" s="6" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
       <c r="C1332" s="6" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="D1332" s="9" t="s">
         <v>8</v>
@@ -61314,10 +61314,10 @@
         <v>1400</v>
       </c>
       <c r="B1333" s="6" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1333" s="6" t="s">
         <v>2888</v>
-      </c>
-      <c r="C1333" s="6" t="s">
-        <v>2889</v>
       </c>
       <c r="D1333" s="9" t="s">
         <v>8</v>
@@ -61337,10 +61337,10 @@
         <v>1401</v>
       </c>
       <c r="B1334" s="6" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1334" s="6" t="s">
         <v>2890</v>
-      </c>
-      <c r="C1334" s="6" t="s">
-        <v>2891</v>
       </c>
       <c r="D1334" s="9" t="s">
         <v>8</v>
@@ -61361,7 +61361,7 @@
         <v>1395</v>
       </c>
       <c r="C1335" s="6" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="D1335" s="9" t="s">
         <v>8</v>
@@ -61379,10 +61379,10 @@
         <v>1403</v>
       </c>
       <c r="B1336" s="6" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C1336" s="6" t="s">
         <v>2899</v>
-      </c>
-      <c r="C1336" s="6" t="s">
-        <v>2900</v>
       </c>
       <c r="D1336" s="9" t="s">
         <v>8</v>
@@ -61402,10 +61402,10 @@
         <v>1404</v>
       </c>
       <c r="B1337" s="6" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="C1337" s="6" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
       <c r="D1337" s="9" t="s">
         <v>8</v>
@@ -61423,10 +61423,10 @@
         <v>1405</v>
       </c>
       <c r="B1338" s="6" t="s">
+        <v>2909</v>
+      </c>
+      <c r="C1338" s="6" t="s">
         <v>2910</v>
-      </c>
-      <c r="C1338" s="6" t="s">
-        <v>2911</v>
       </c>
       <c r="D1338" s="9" t="s">
         <v>8</v>
@@ -61446,10 +61446,10 @@
         <v>1406</v>
       </c>
       <c r="B1339" s="6" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1339" s="6" t="s">
         <v>2922</v>
-      </c>
-      <c r="C1339" s="6" t="s">
-        <v>2923</v>
       </c>
       <c r="D1339" s="9" t="s">
         <v>8</v>
@@ -61469,10 +61469,10 @@
         <v>1407</v>
       </c>
       <c r="B1340" s="6" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C1340" s="6" t="s">
         <v>2927</v>
-      </c>
-      <c r="C1340" s="6" t="s">
-        <v>2928</v>
       </c>
       <c r="D1340" s="9" t="s">
         <v>8</v>
@@ -61490,10 +61490,10 @@
         <v>1408</v>
       </c>
       <c r="B1341" s="6" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C1341" s="6" t="s">
         <v>2932</v>
-      </c>
-      <c r="C1341" s="6" t="s">
-        <v>2933</v>
       </c>
       <c r="D1341" s="9" t="s">
         <v>8</v>
@@ -61513,10 +61513,10 @@
         <v>1409</v>
       </c>
       <c r="B1342" s="6" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C1342" s="6" t="s">
         <v>2937</v>
-      </c>
-      <c r="C1342" s="6" t="s">
-        <v>2938</v>
       </c>
       <c r="D1342" s="9" t="s">
         <v>8</v>
@@ -61536,10 +61536,10 @@
         <v>1410</v>
       </c>
       <c r="B1343" s="6" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C1343" s="6" t="s">
         <v>2951</v>
-      </c>
-      <c r="C1343" s="6" t="s">
-        <v>2952</v>
       </c>
       <c r="D1343" s="9" t="s">
         <v>8</v>
@@ -61559,10 +61559,10 @@
         <v>1411</v>
       </c>
       <c r="B1344" s="6" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C1344" s="6" t="s">
         <v>2953</v>
-      </c>
-      <c r="C1344" s="6" t="s">
-        <v>2954</v>
       </c>
       <c r="D1344" s="9" t="s">
         <v>8</v>
@@ -61582,10 +61582,10 @@
         <v>1412</v>
       </c>
       <c r="B1345" s="6" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="C1345" s="6" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D1345" s="9" t="s">
         <v>8</v>
@@ -61603,10 +61603,10 @@
         <v>1413</v>
       </c>
       <c r="B1346" s="6" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C1346" s="6" t="s">
         <v>2964</v>
-      </c>
-      <c r="C1346" s="6" t="s">
-        <v>2965</v>
       </c>
       <c r="D1346" s="9" t="s">
         <v>8</v>
@@ -61626,10 +61626,10 @@
         <v>1414</v>
       </c>
       <c r="B1347" s="6" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1347" s="6" t="s">
         <v>2973</v>
-      </c>
-      <c r="C1347" s="6" t="s">
-        <v>2974</v>
       </c>
       <c r="D1347" s="9" t="s">
         <v>8</v>
@@ -61649,10 +61649,10 @@
         <v>1415</v>
       </c>
       <c r="B1348" s="6" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1348" s="6" t="s">
         <v>2975</v>
-      </c>
-      <c r="C1348" s="6" t="s">
-        <v>2976</v>
       </c>
       <c r="D1348" s="9" t="s">
         <v>8</v>
@@ -61670,7 +61670,7 @@
         <v>1416</v>
       </c>
       <c r="B1349" s="6" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="C1349" s="6" t="s">
         <v>1917</v>
@@ -61693,10 +61693,10 @@
         <v>1417</v>
       </c>
       <c r="B1350" s="6" t="s">
+        <v>2980</v>
+      </c>
+      <c r="C1350" s="6" t="s">
         <v>2981</v>
-      </c>
-      <c r="C1350" s="6" t="s">
-        <v>2982</v>
       </c>
       <c r="D1350" s="9" t="s">
         <v>8</v>
@@ -61714,10 +61714,10 @@
         <v>1418</v>
       </c>
       <c r="B1351" s="6" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="C1351" s="6" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="D1351" s="9" t="s">
         <v>8</v>
@@ -61740,7 +61740,7 @@
         <v>1952</v>
       </c>
       <c r="C1352" s="6" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="D1352" s="9" t="s">
         <v>8</v>
@@ -61758,10 +61758,10 @@
         <v>1420</v>
       </c>
       <c r="B1353" s="6" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="C1353" s="6" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="D1353" s="9" t="s">
         <v>8</v>
@@ -61781,7 +61781,7 @@
         <v>1421</v>
       </c>
       <c r="B1354" s="6" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="C1354" s="6" t="s">
         <v>1138</v>
@@ -61804,10 +61804,10 @@
         <v>1422</v>
       </c>
       <c r="B1355" s="6" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C1355" s="6" t="s">
         <v>3093</v>
-      </c>
-      <c r="C1355" s="6" t="s">
-        <v>3094</v>
       </c>
       <c r="D1355" s="6" t="s">
         <v>8</v>
@@ -61815,7 +61815,7 @@
       <c r="E1355" s="6"/>
       <c r="F1355" s="6"/>
       <c r="G1355" s="6" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="H1355" s="6"/>
       <c r="I1355" s="6"/>
@@ -61827,10 +61827,10 @@
         <v>1423</v>
       </c>
       <c r="B1356" s="6" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="C1356" s="6" t="s">
-        <v>3103</v>
+        <v>3102</v>
       </c>
       <c r="D1356" s="6" t="s">
         <v>8</v>
@@ -61850,10 +61850,10 @@
         <v>1424</v>
       </c>
       <c r="B1357" s="9" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="C1357" s="9" t="s">
-        <v>3104</v>
+        <v>3103</v>
       </c>
       <c r="D1357" s="6" t="s">
         <v>8</v>
@@ -61865,7 +61865,7 @@
         <v>27</v>
       </c>
       <c r="G1357" s="6" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="H1357" s="6"/>
       <c r="I1357" s="6"/>
@@ -61877,10 +61877,10 @@
         <v>1425</v>
       </c>
       <c r="B1358" s="6" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C1358" s="6" t="s">
         <v>3109</v>
-      </c>
-      <c r="C1358" s="6" t="s">
-        <v>3110</v>
       </c>
       <c r="D1358" s="6" t="s">
         <v>8</v>
@@ -61888,7 +61888,7 @@
       <c r="E1358" s="6"/>
       <c r="F1358" s="6"/>
       <c r="G1358" s="6" t="s">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="H1358" s="6"/>
       <c r="I1358" s="6"/>
@@ -61900,7 +61900,7 @@
         <v>1426</v>
       </c>
       <c r="B1359" s="6" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="C1359" s="6" t="s">
         <v>79</v>
@@ -61953,7 +61953,7 @@
       </c>
       <c r="F1361" s="6"/>
       <c r="G1361" s="6" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="H1361" s="6"/>
       <c r="I1361" s="6"/>
@@ -62102,7 +62102,7 @@
         <v>1435</v>
       </c>
       <c r="B1368" s="6" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="C1368" s="6" t="s">
         <v>515</v>
@@ -62201,7 +62201,7 @@
       <c r="E1372" s="6"/>
       <c r="F1372" s="6"/>
       <c r="G1372" s="6" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="H1372" s="6"/>
       <c r="I1372" s="6"/>
@@ -62258,7 +62258,7 @@
         <v>2461</v>
       </c>
       <c r="C1375" s="6" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="D1375" s="6" t="s">
         <v>32</v>
@@ -62367,7 +62367,7 @@
         <v>2434</v>
       </c>
       <c r="C1380" s="6" t="s">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="D1380" s="6" t="s">
         <v>32</v>
@@ -62480,7 +62480,7 @@
       <c r="E1385" s="6"/>
       <c r="F1385" s="6"/>
       <c r="G1385" s="6" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="H1385" s="6"/>
       <c r="I1385" s="6"/>
@@ -62534,7 +62534,7 @@
         <v>1455</v>
       </c>
       <c r="B1388" s="6" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="C1388" s="6" t="s">
         <v>79</v>
@@ -62620,10 +62620,10 @@
         <v>1459</v>
       </c>
       <c r="B1392" s="6" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
       <c r="C1392" s="6" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
       <c r="D1392" s="6" t="s">
         <v>32</v>
@@ -62673,7 +62673,7 @@
       <c r="E1394" s="6"/>
       <c r="F1394" s="6"/>
       <c r="G1394" s="6" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
       <c r="H1394" s="6"/>
       <c r="I1394" s="6"/>
@@ -62688,7 +62688,7 @@
         <v>581</v>
       </c>
       <c r="C1395" s="6" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="D1395" s="6" t="s">
         <v>32</v>
@@ -62730,7 +62730,7 @@
         <v>582</v>
       </c>
       <c r="C1397" s="6" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="D1397" s="6" t="s">
         <v>32</v>
@@ -62840,7 +62840,7 @@
         <v>1469</v>
       </c>
       <c r="B1402" s="6" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
       <c r="C1402" s="6" t="s">
         <v>742</v>
@@ -62851,7 +62851,7 @@
       <c r="E1402" s="6"/>
       <c r="F1402" s="6"/>
       <c r="G1402" s="6" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="H1402" s="6"/>
       <c r="I1402" s="6"/>
@@ -63386,7 +63386,7 @@
       <c r="E1427" s="6"/>
       <c r="F1427" s="6"/>
       <c r="G1427" s="6" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="H1427" s="6"/>
       <c r="I1427" s="6"/>
@@ -63795,7 +63795,7 @@
       <c r="E1446" s="6"/>
       <c r="F1446" s="6"/>
       <c r="G1446" s="6" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="H1446" s="6"/>
       <c r="I1446" s="6"/>
@@ -64086,7 +64086,7 @@
         <v>1527</v>
       </c>
       <c r="B1460" s="6" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="C1460" s="6" t="s">
         <v>1454</v>
@@ -64097,7 +64097,7 @@
       <c r="E1460" s="6"/>
       <c r="F1460" s="6"/>
       <c r="G1460" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="H1460" s="6"/>
       <c r="I1460" s="6"/>
@@ -64292,7 +64292,7 @@
       <c r="E1469" s="6"/>
       <c r="F1469" s="6"/>
       <c r="G1469" s="6" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="H1469" s="6"/>
       <c r="I1469" s="6"/>
@@ -64336,7 +64336,7 @@
       <c r="E1471" s="6"/>
       <c r="F1471" s="6"/>
       <c r="G1471" s="6" t="s">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="H1471" s="6"/>
       <c r="I1471" s="6"/>
@@ -64498,7 +64498,7 @@
         <v>1992</v>
       </c>
       <c r="C1479" s="6" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="D1479" s="6" t="s">
         <v>32</v>
@@ -64550,7 +64550,7 @@
       <c r="E1481" s="6"/>
       <c r="F1481" s="6"/>
       <c r="G1481" s="6" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
       <c r="H1481" s="6"/>
       <c r="I1481" s="6"/>
@@ -64953,7 +64953,7 @@
       <c r="E1500" s="6"/>
       <c r="F1500" s="6"/>
       <c r="G1500" s="6" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="H1500" s="6"/>
       <c r="I1500" s="6"/>
@@ -65030,7 +65030,7 @@
         <v>1571</v>
       </c>
       <c r="B1504" s="6" t="s">
-        <v>3245</v>
+        <v>3244</v>
       </c>
       <c r="C1504" s="6" t="s">
         <v>1863</v>
@@ -65135,10 +65135,10 @@
         <v>1576</v>
       </c>
       <c r="B1509" s="6" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="C1509" s="6" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="D1509" s="6" t="s">
         <v>32</v>
@@ -65158,7 +65158,7 @@
         <v>1577</v>
       </c>
       <c r="B1510" s="6" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="C1510" s="6" t="s">
         <v>897</v>
@@ -65169,7 +65169,7 @@
       <c r="E1510" s="6"/>
       <c r="F1510" s="6"/>
       <c r="G1510" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="H1510" s="6"/>
       <c r="I1510" s="6"/>
@@ -65299,7 +65299,7 @@
       <c r="E1516" s="6"/>
       <c r="F1516" s="6"/>
       <c r="G1516" s="10" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="H1516" s="6"/>
       <c r="I1516" s="6"/>
@@ -65496,7 +65496,7 @@
       <c r="E1525" s="6"/>
       <c r="F1525" s="6"/>
       <c r="G1525" s="6" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="H1525" s="6"/>
       <c r="I1525" s="6"/>
@@ -65519,7 +65519,7 @@
       <c r="E1526" s="6"/>
       <c r="F1526" s="6"/>
       <c r="G1526" s="6" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="H1526" s="6"/>
       <c r="I1526" s="6"/>
@@ -65563,7 +65563,7 @@
       <c r="E1528" s="6"/>
       <c r="F1528" s="6"/>
       <c r="G1528" s="6" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="H1528" s="6"/>
       <c r="I1528" s="6"/>
@@ -65586,7 +65586,7 @@
       <c r="E1529" s="6"/>
       <c r="F1529" s="6"/>
       <c r="G1529" s="6" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="H1529" s="6"/>
       <c r="I1529" s="6"/>
@@ -65626,7 +65626,7 @@
         <v>2494</v>
       </c>
       <c r="C1531" s="6" t="s">
-        <v>3230</v>
+        <v>3229</v>
       </c>
       <c r="D1531" s="6" t="s">
         <v>32</v>
@@ -65648,10 +65648,10 @@
         <v>1599</v>
       </c>
       <c r="B1532" s="6" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="C1532" s="6" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="D1532" s="6" t="s">
         <v>32</v>
@@ -65669,10 +65669,10 @@
         <v>1600</v>
       </c>
       <c r="B1533" s="6" t="s">
+        <v>2505</v>
+      </c>
+      <c r="C1533" s="6" t="s">
         <v>2506</v>
-      </c>
-      <c r="C1533" s="6" t="s">
-        <v>2507</v>
       </c>
       <c r="D1533" s="6" t="s">
         <v>32</v>
@@ -65694,10 +65694,10 @@
         <v>1601</v>
       </c>
       <c r="B1534" s="6" t="s">
+        <v>2525</v>
+      </c>
+      <c r="C1534" s="6" t="s">
         <v>2526</v>
-      </c>
-      <c r="C1534" s="6" t="s">
-        <v>2527</v>
       </c>
       <c r="D1534" s="6" t="s">
         <v>32</v>
@@ -65719,7 +65719,7 @@
         <v>1602</v>
       </c>
       <c r="B1535" s="6" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="C1535" s="6" t="s">
         <v>749</v>
@@ -65740,7 +65740,7 @@
         <v>1603</v>
       </c>
       <c r="B1536" s="6" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C1536" s="6" t="s">
         <v>772</v>
@@ -65761,10 +65761,10 @@
         <v>1604</v>
       </c>
       <c r="B1537" s="6" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C1537" s="6" t="s">
         <v>2556</v>
-      </c>
-      <c r="C1537" s="6" t="s">
-        <v>2557</v>
       </c>
       <c r="D1537" s="6" t="s">
         <v>32</v>
@@ -65782,10 +65782,10 @@
         <v>1605</v>
       </c>
       <c r="B1538" s="6" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C1538" s="6" t="s">
         <v>2568</v>
-      </c>
-      <c r="C1538" s="6" t="s">
-        <v>2569</v>
       </c>
       <c r="D1538" s="6" t="s">
         <v>32</v>
@@ -65805,10 +65805,10 @@
         <v>1606</v>
       </c>
       <c r="B1539" s="6" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C1539" s="6" t="s">
         <v>2615</v>
-      </c>
-      <c r="C1539" s="6" t="s">
-        <v>2616</v>
       </c>
       <c r="D1539" s="6" t="s">
         <v>32</v>
@@ -65828,10 +65828,10 @@
         <v>1607</v>
       </c>
       <c r="B1540" s="6" t="s">
+        <v>2635</v>
+      </c>
+      <c r="C1540" s="6" t="s">
         <v>2636</v>
-      </c>
-      <c r="C1540" s="6" t="s">
-        <v>2637</v>
       </c>
       <c r="D1540" s="6" t="s">
         <v>32</v>
@@ -65851,10 +65851,10 @@
         <v>1608</v>
       </c>
       <c r="B1541" s="6" t="s">
+        <v>2638</v>
+      </c>
+      <c r="C1541" s="6" t="s">
         <v>2639</v>
-      </c>
-      <c r="C1541" s="6" t="s">
-        <v>2640</v>
       </c>
       <c r="D1541" s="6" t="s">
         <v>32</v>
@@ -65872,10 +65872,10 @@
         <v>1609</v>
       </c>
       <c r="B1542" s="6" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="C1542" s="6" t="s">
-        <v>3231</v>
+        <v>3230</v>
       </c>
       <c r="D1542" s="6" t="s">
         <v>32</v>
@@ -65898,7 +65898,7 @@
         <v>868</v>
       </c>
       <c r="C1543" s="6" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="D1543" s="6" t="s">
         <v>32</v>
@@ -65906,7 +65906,7 @@
       <c r="E1543" s="6"/>
       <c r="F1543" s="6"/>
       <c r="G1543" s="6" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="H1543" s="6"/>
       <c r="I1543" s="6"/>
@@ -65964,7 +65964,7 @@
         <v>1613</v>
       </c>
       <c r="B1546" s="9" t="s">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="C1546" s="9" t="s">
         <v>1030</v>
@@ -66033,10 +66033,10 @@
         <v>1616</v>
       </c>
       <c r="B1549" s="6" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="C1549" s="6" t="s">
-        <v>3232</v>
+        <v>3231</v>
       </c>
       <c r="D1549" s="6" t="s">
         <v>32</v>
@@ -66121,10 +66121,10 @@
         <v>1620</v>
       </c>
       <c r="B1553" s="6" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C1553" s="6" t="s">
         <v>2747</v>
-      </c>
-      <c r="C1553" s="6" t="s">
-        <v>2748</v>
       </c>
       <c r="D1553" s="6" t="s">
         <v>32</v>
@@ -66146,7 +66146,7 @@
         <v>1621</v>
       </c>
       <c r="B1554" s="6" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="C1554" s="6" t="s">
         <v>79</v>
@@ -66192,10 +66192,10 @@
         <v>1623</v>
       </c>
       <c r="B1556" s="6" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C1556" s="6" t="s">
         <v>2765</v>
-      </c>
-      <c r="C1556" s="6" t="s">
-        <v>2766</v>
       </c>
       <c r="D1556" s="6" t="s">
         <v>32</v>
@@ -66213,10 +66213,10 @@
         <v>1624</v>
       </c>
       <c r="B1557" s="6" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1557" s="6" t="s">
         <v>2767</v>
-      </c>
-      <c r="C1557" s="6" t="s">
-        <v>2768</v>
       </c>
       <c r="D1557" s="6" t="s">
         <v>32</v>
@@ -66234,10 +66234,10 @@
         <v>1625</v>
       </c>
       <c r="B1558" s="6" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1558" s="6" t="s">
         <v>2769</v>
-      </c>
-      <c r="C1558" s="6" t="s">
-        <v>2770</v>
       </c>
       <c r="D1558" s="6" t="s">
         <v>32</v>
@@ -66255,7 +66255,7 @@
         <v>1626</v>
       </c>
       <c r="B1559" s="6" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="C1559" s="6" t="s">
         <v>79</v>
@@ -66276,7 +66276,7 @@
         <v>1627</v>
       </c>
       <c r="B1560" s="6" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C1560" s="6" t="s">
         <v>370</v>
@@ -66297,10 +66297,10 @@
         <v>1628</v>
       </c>
       <c r="B1561" s="6" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C1561" s="6" t="s">
         <v>2864</v>
-      </c>
-      <c r="C1561" s="6" t="s">
-        <v>2865</v>
       </c>
       <c r="D1561" s="6" t="s">
         <v>32</v>
@@ -66320,10 +66320,10 @@
         <v>1629</v>
       </c>
       <c r="B1562" s="6" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1562" s="6" t="s">
         <v>2866</v>
-      </c>
-      <c r="C1562" s="6" t="s">
-        <v>2867</v>
       </c>
       <c r="D1562" s="6" t="s">
         <v>32</v>
@@ -66343,7 +66343,7 @@
         <v>1630</v>
       </c>
       <c r="B1563" s="6" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C1563" s="6" t="s">
         <v>772</v>
@@ -66364,7 +66364,7 @@
         <v>1631</v>
       </c>
       <c r="B1564" s="6" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C1564" s="6" t="s">
         <v>2153</v>
@@ -66385,10 +66385,10 @@
         <v>1632</v>
       </c>
       <c r="B1565" s="6" t="s">
+        <v>2968</v>
+      </c>
+      <c r="C1565" s="6" t="s">
         <v>2969</v>
-      </c>
-      <c r="C1565" s="6" t="s">
-        <v>2970</v>
       </c>
       <c r="D1565" s="6" t="s">
         <v>32</v>
@@ -66406,7 +66406,7 @@
         <v>1633</v>
       </c>
       <c r="B1566" s="6" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="C1566" s="6" t="s">
         <v>79</v>
@@ -66427,10 +66427,10 @@
         <v>1634</v>
       </c>
       <c r="B1567" s="6" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1567" s="6" t="s">
         <v>3018</v>
-      </c>
-      <c r="C1567" s="6" t="s">
-        <v>3019</v>
       </c>
       <c r="D1567" s="6" t="s">
         <v>32</v>
@@ -66448,7 +66448,7 @@
         <v>1635</v>
       </c>
       <c r="B1568" s="6" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="C1568" s="6" t="s">
         <v>370</v>
@@ -66469,10 +66469,10 @@
         <v>1636</v>
       </c>
       <c r="B1569" s="6" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1569" s="6" t="s">
         <v>3023</v>
-      </c>
-      <c r="C1569" s="6" t="s">
-        <v>3024</v>
       </c>
       <c r="D1569" s="6" t="s">
         <v>32</v>
@@ -66516,7 +66516,7 @@
         <v>1150</v>
       </c>
       <c r="C1571" s="9" t="s">
-        <v>3233</v>
+        <v>3232</v>
       </c>
       <c r="D1571" s="6" t="s">
         <v>32</v>
@@ -66557,10 +66557,10 @@
         <v>1640</v>
       </c>
       <c r="B1573" s="6" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C1573" s="6" t="s">
         <v>2737</v>
-      </c>
-      <c r="C1573" s="6" t="s">
-        <v>2738</v>
       </c>
       <c r="D1573" s="6" t="s">
         <v>32</v>
@@ -66580,10 +66580,10 @@
         <v>1641</v>
       </c>
       <c r="B1574" s="6" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C1574" s="6" t="s">
         <v>2606</v>
-      </c>
-      <c r="C1574" s="6" t="s">
-        <v>2607</v>
       </c>
       <c r="D1574" s="6" t="s">
         <v>32</v>
@@ -66603,7 +66603,7 @@
         <v>1642</v>
       </c>
       <c r="B1575" s="6" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="C1575" s="6" t="s">
         <v>1516</v>
@@ -66616,7 +66616,7 @@
         <v>27</v>
       </c>
       <c r="G1575" s="10" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="H1575" s="6"/>
       <c r="I1575" s="6"/>
@@ -66628,7 +66628,7 @@
         <v>1643</v>
       </c>
       <c r="B1576" s="9" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="C1576" s="9" t="s">
         <v>965</v>
@@ -66641,7 +66641,7 @@
         <v>27</v>
       </c>
       <c r="G1576" s="6" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H1576" s="6"/>
       <c r="I1576" s="6"/>
@@ -66653,7 +66653,7 @@
         <v>1644</v>
       </c>
       <c r="B1577" s="9" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="C1577" s="9" t="s">
         <v>814</v>
@@ -66676,10 +66676,10 @@
         <v>1645</v>
       </c>
       <c r="B1578" s="6" t="s">
+        <v>2589</v>
+      </c>
+      <c r="C1578" s="6" t="s">
         <v>2590</v>
-      </c>
-      <c r="C1578" s="6" t="s">
-        <v>2591</v>
       </c>
       <c r="D1578" s="6" t="s">
         <v>32</v>
@@ -66699,7 +66699,7 @@
         <v>1646</v>
       </c>
       <c r="B1579" s="6" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="C1579" s="6" t="s">
         <v>2106</v>
@@ -66722,10 +66722,10 @@
         <v>1647</v>
       </c>
       <c r="B1580" s="6" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="C1580" s="6" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D1580" s="6" t="s">
         <v>32</v>
@@ -66745,10 +66745,10 @@
         <v>1648</v>
       </c>
       <c r="B1581" s="6" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="C1581" s="6" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D1581" s="6" t="s">
         <v>32</v>
@@ -66768,10 +66768,10 @@
         <v>1649</v>
       </c>
       <c r="B1582" s="6" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="C1582" s="6" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D1582" s="6" t="s">
         <v>32</v>
@@ -66791,10 +66791,10 @@
         <v>1650</v>
       </c>
       <c r="B1583" s="6" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="C1583" s="6" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="D1583" s="6" t="s">
         <v>8</v>
@@ -66804,7 +66804,7 @@
         <v>27</v>
       </c>
       <c r="G1583" s="6" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H1583" s="6"/>
       <c r="I1583" s="6"/>
@@ -66816,10 +66816,10 @@
         <v>1651</v>
       </c>
       <c r="B1584" s="6" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="C1584" s="6" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D1584" s="6" t="s">
         <v>8</v>
@@ -66829,7 +66829,7 @@
         <v>27</v>
       </c>
       <c r="G1584" s="6" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="H1584" s="6"/>
       <c r="I1584" s="6"/>
@@ -66841,10 +66841,10 @@
         <v>1652</v>
       </c>
       <c r="B1585" s="6" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="C1585" s="6" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="D1585" s="6" t="s">
         <v>32</v>
@@ -66866,10 +66866,10 @@
         <v>1653</v>
       </c>
       <c r="B1586" s="6" t="s">
+        <v>2622</v>
+      </c>
+      <c r="C1586" s="6" t="s">
         <v>2623</v>
-      </c>
-      <c r="C1586" s="6" t="s">
-        <v>2624</v>
       </c>
       <c r="D1586" s="6" t="s">
         <v>32</v>
@@ -66902,7 +66902,7 @@
         <v>27</v>
       </c>
       <c r="G1587" s="6" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
       <c r="H1587" s="6"/>
       <c r="I1587" s="6"/>
@@ -66929,7 +66929,7 @@
         <v>27</v>
       </c>
       <c r="G1588" s="10" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H1588" s="6"/>
       <c r="I1588" s="6"/>
@@ -66966,10 +66966,10 @@
         <v>1657</v>
       </c>
       <c r="B1590" s="6" t="s">
+        <v>2640</v>
+      </c>
+      <c r="C1590" s="6" t="s">
         <v>2641</v>
-      </c>
-      <c r="C1590" s="6" t="s">
-        <v>2642</v>
       </c>
       <c r="D1590" s="6" t="s">
         <v>8</v>
@@ -66979,7 +66979,7 @@
         <v>27</v>
       </c>
       <c r="G1590" s="6" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="H1590" s="6"/>
       <c r="I1590" s="6"/>
@@ -67004,7 +67004,7 @@
         <v>27</v>
       </c>
       <c r="G1591" s="10" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H1591" s="6"/>
       <c r="I1591" s="6"/>
@@ -67131,7 +67131,7 @@
         <v>1664</v>
       </c>
       <c r="B1597" s="6" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="C1597" s="6" t="s">
         <v>1742</v>
@@ -67144,7 +67144,7 @@
         <v>27</v>
       </c>
       <c r="G1597" s="6" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H1597" s="6"/>
       <c r="I1597" s="6"/>
@@ -67179,10 +67179,10 @@
         <v>1666</v>
       </c>
       <c r="B1599" s="6" t="s">
+        <v>2666</v>
+      </c>
+      <c r="C1599" s="6" t="s">
         <v>2667</v>
-      </c>
-      <c r="C1599" s="6" t="s">
-        <v>2668</v>
       </c>
       <c r="D1599" s="6" t="s">
         <v>32</v>
@@ -67215,7 +67215,7 @@
         <v>27</v>
       </c>
       <c r="G1600" s="6" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H1600" s="6"/>
       <c r="I1600" s="6"/>
@@ -67240,7 +67240,7 @@
         <v>27</v>
       </c>
       <c r="G1601" s="6" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="H1601" s="6"/>
       <c r="I1601" s="6"/>
@@ -67321,10 +67321,10 @@
         <v>1672</v>
       </c>
       <c r="B1605" s="6" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C1605" s="6" t="s">
         <v>2680</v>
-      </c>
-      <c r="C1605" s="6" t="s">
-        <v>2681</v>
       </c>
       <c r="D1605" s="6" t="s">
         <v>32</v>
@@ -67392,10 +67392,10 @@
         <v>1675</v>
       </c>
       <c r="B1608" s="6" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1608" s="6" t="s">
         <v>2740</v>
-      </c>
-      <c r="C1608" s="6" t="s">
-        <v>2741</v>
       </c>
       <c r="D1608" s="6" t="s">
         <v>32</v>
@@ -67415,7 +67415,7 @@
         <v>1676</v>
       </c>
       <c r="B1609" s="6" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="C1609" s="6" t="s">
         <v>2040</v>
@@ -67438,7 +67438,7 @@
         <v>1677</v>
       </c>
       <c r="B1610" s="6" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="C1610" s="6" t="s">
         <v>2042</v>
@@ -67553,7 +67553,7 @@
         <v>1682</v>
       </c>
       <c r="B1615" s="6" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="C1615" s="6" t="s">
         <v>2178</v>
@@ -67576,10 +67576,10 @@
         <v>1683</v>
       </c>
       <c r="B1616" s="6" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="C1616" s="6" t="s">
-        <v>3291</v>
+        <v>3289</v>
       </c>
       <c r="D1616" s="6" t="s">
         <v>32</v>
@@ -67622,7 +67622,7 @@
         <v>1685</v>
       </c>
       <c r="B1618" s="9" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="C1618" s="9" t="s">
         <v>712</v>
@@ -67645,10 +67645,10 @@
         <v>1686</v>
       </c>
       <c r="B1619" s="6" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
       <c r="C1619" s="6" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D1619" s="6" t="s">
         <v>32</v>
@@ -67691,10 +67691,10 @@
         <v>1688</v>
       </c>
       <c r="B1621" s="6" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="C1621" s="6" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="D1621" s="6" t="s">
         <v>32</v>
@@ -67737,10 +67737,10 @@
         <v>1690</v>
       </c>
       <c r="B1623" s="6" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C1623" s="6" t="s">
         <v>2645</v>
-      </c>
-      <c r="C1623" s="6" t="s">
-        <v>2646</v>
       </c>
       <c r="D1623" s="6" t="s">
         <v>32</v>
@@ -67806,10 +67806,10 @@
         <v>1693</v>
       </c>
       <c r="B1626" s="20" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="C1626" s="6" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="D1626" s="6" t="s">
         <v>32</v>
@@ -67819,7 +67819,7 @@
         <v>27</v>
       </c>
       <c r="G1626" s="6" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
       <c r="H1626" s="6"/>
       <c r="I1626" s="6"/>
@@ -67831,10 +67831,10 @@
         <v>1694</v>
       </c>
       <c r="B1627" s="20" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="C1627" s="6" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="D1627" s="6" t="s">
         <v>32</v>
@@ -67856,10 +67856,10 @@
         <v>1695</v>
       </c>
       <c r="B1628" s="6" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="C1628" s="6" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D1628" s="6" t="s">
         <v>32</v>
@@ -67879,10 +67879,10 @@
         <v>1696</v>
       </c>
       <c r="B1629" s="6" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="C1629" s="6" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D1629" s="6" t="s">
         <v>32</v>
@@ -67902,10 +67902,10 @@
         <v>1697</v>
       </c>
       <c r="B1630" s="6" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="C1630" s="6" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D1630" s="6" t="s">
         <v>32</v>
@@ -67925,10 +67925,10 @@
         <v>1698</v>
       </c>
       <c r="B1631" s="6" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="C1631" s="6" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D1631" s="6" t="s">
         <v>32</v>
@@ -67948,10 +67948,10 @@
         <v>1699</v>
       </c>
       <c r="B1632" s="6" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="C1632" s="6" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D1632" s="6" t="s">
         <v>32</v>
@@ -67971,7 +67971,7 @@
         <v>1700</v>
       </c>
       <c r="B1633" s="6" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="C1633" s="6" t="s">
         <v>1578</v>
@@ -67994,10 +67994,10 @@
         <v>1701</v>
       </c>
       <c r="B1634" s="6" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C1634" s="6" t="s">
         <v>2731</v>
-      </c>
-      <c r="C1634" s="6" t="s">
-        <v>2732</v>
       </c>
       <c r="D1634" s="6" t="s">
         <v>32</v>
@@ -68017,10 +68017,10 @@
         <v>1702</v>
       </c>
       <c r="B1635" s="6" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C1635" s="6" t="s">
         <v>2733</v>
-      </c>
-      <c r="C1635" s="6" t="s">
-        <v>2734</v>
       </c>
       <c r="D1635" s="6" t="s">
         <v>32</v>
@@ -68040,10 +68040,10 @@
         <v>1703</v>
       </c>
       <c r="B1636" s="6" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="C1636" s="6" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D1636" s="6" t="s">
         <v>32</v>
@@ -68063,10 +68063,10 @@
         <v>1704</v>
       </c>
       <c r="B1637" s="6" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="C1637" s="6" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D1637" s="6" t="s">
         <v>32</v>
@@ -68086,10 +68086,10 @@
         <v>1705</v>
       </c>
       <c r="B1638" s="6" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C1638" s="6" t="s">
         <v>2617</v>
-      </c>
-      <c r="C1638" s="6" t="s">
-        <v>2618</v>
       </c>
       <c r="D1638" s="6" t="s">
         <v>32</v>
@@ -68107,10 +68107,10 @@
     <row r="1639" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1639" s="6"/>
       <c r="B1639" s="6" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="C1639" s="6" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
       <c r="D1639" s="6" t="s">
         <v>32</v>
@@ -68130,10 +68130,10 @@
         <v>1706</v>
       </c>
       <c r="B1640" s="6" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="C1640" s="6" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D1640" s="6" t="s">
         <v>32</v>
@@ -68153,10 +68153,10 @@
         <v>1707</v>
       </c>
       <c r="B1641" s="6" t="s">
+        <v>2702</v>
+      </c>
+      <c r="C1641" s="6" t="s">
         <v>2703</v>
-      </c>
-      <c r="C1641" s="6" t="s">
-        <v>2704</v>
       </c>
       <c r="D1641" s="6" t="s">
         <v>32</v>
@@ -68176,10 +68176,10 @@
         <v>1708</v>
       </c>
       <c r="B1642" s="6" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="C1642" s="6" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D1642" s="6" t="s">
         <v>32</v>
@@ -68212,7 +68212,7 @@
         <v>27</v>
       </c>
       <c r="G1643" s="6" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="H1643" s="6"/>
       <c r="I1643" s="6"/>
@@ -68247,10 +68247,10 @@
         <v>1711</v>
       </c>
       <c r="B1645" s="6" t="s">
+        <v>2705</v>
+      </c>
+      <c r="C1645" s="6" t="s">
         <v>2706</v>
-      </c>
-      <c r="C1645" s="6" t="s">
-        <v>2707</v>
       </c>
       <c r="D1645" s="6" t="s">
         <v>32</v>
@@ -68270,10 +68270,10 @@
         <v>1712</v>
       </c>
       <c r="B1646" s="6" t="s">
+        <v>2692</v>
+      </c>
+      <c r="C1646" s="6" t="s">
         <v>2693</v>
-      </c>
-      <c r="C1646" s="6" t="s">
-        <v>2694</v>
       </c>
       <c r="D1646" s="6" t="s">
         <v>32</v>
@@ -68343,10 +68343,10 @@
         <v>1715</v>
       </c>
       <c r="B1649" s="6" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1649" s="6" t="s">
         <v>2914</v>
-      </c>
-      <c r="C1649" s="6" t="s">
-        <v>2915</v>
       </c>
       <c r="D1649" s="6" t="s">
         <v>32</v>
@@ -68366,10 +68366,10 @@
         <v>1716</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="C1650" s="1" t="s">
-        <v>3392</v>
+        <v>3390</v>
       </c>
       <c r="D1650" s="6" t="s">
         <v>32</v>
@@ -68384,10 +68384,10 @@
         <v>1717</v>
       </c>
       <c r="B1651" s="1" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="C1651" s="1" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="D1651" s="1" t="s">
         <v>8</v>
@@ -68398,10 +68398,10 @@
     </row>
     <row r="1652" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1652" s="1" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="C1652" s="1" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="D1652" s="1" t="s">
         <v>524</v>
@@ -68415,10 +68415,10 @@
     </row>
     <row r="1653" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1653" s="1" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="C1653" s="1" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="D1653" s="6" t="s">
         <v>32</v>
@@ -68429,10 +68429,10 @@
     </row>
     <row r="1654" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1654" s="1" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="C1654" s="1" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="D1654" s="6" t="s">
         <v>32</v>
@@ -68440,7 +68440,7 @@
     </row>
     <row r="1655" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1655" s="1" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="C1655" s="1" t="s">
         <v>44</v>
@@ -68449,15 +68449,15 @@
         <v>8</v>
       </c>
       <c r="G1655" s="1" t="s">
-        <v>3105</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="1656" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1656" s="1" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="C1656" s="1" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="D1656" s="1" t="s">
         <v>8</v>
@@ -68468,10 +68468,10 @@
     </row>
     <row r="1657" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1657" s="1" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="C1657" s="1" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="D1657" s="6" t="s">
         <v>32</v>
@@ -68482,10 +68482,10 @@
     </row>
     <row r="1658" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1658" s="1" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="C1658" s="1" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="D1658" s="1" t="s">
         <v>8</v>
@@ -68496,10 +68496,10 @@
     </row>
     <row r="1659" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1659" s="1" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="C1659" s="1" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="D1659" s="1" t="s">
         <v>8</v>
@@ -68510,10 +68510,10 @@
     </row>
     <row r="1660" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1660" s="1" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="C1660" s="1" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
       <c r="D1660" s="1" t="s">
         <v>8</v>
@@ -68524,10 +68524,10 @@
     </row>
     <row r="1661" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1661" s="1" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
       <c r="C1661" s="1" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="D1661" s="1" t="s">
         <v>602</v>
@@ -68538,10 +68538,10 @@
     </row>
     <row r="1662" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1662" s="1" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="C1662" s="1" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="D1662" s="1" t="s">
         <v>602</v>
@@ -68552,10 +68552,10 @@
     </row>
     <row r="1663" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1663" s="1" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="C1663" s="1" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="D1663" s="1" t="s">
         <v>8</v>
@@ -68564,15 +68564,15 @@
         <v>27</v>
       </c>
       <c r="G1663" s="1" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="1664" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1664" s="1" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="C1664" s="1" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="D1664" s="1" t="s">
         <v>32</v>
@@ -68580,10 +68580,10 @@
     </row>
     <row r="1665" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1665" s="1" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="C1665" s="1" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="D1665" s="1" t="s">
         <v>32</v>
@@ -68594,10 +68594,10 @@
     </row>
     <row r="1666" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1666" s="1" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="C1666" s="1" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="D1666" s="1" t="s">
         <v>8</v>
@@ -68608,10 +68608,10 @@
     </row>
     <row r="1667" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1667" s="1" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="C1667" s="1" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="D1667" s="1" t="s">
         <v>524</v>
@@ -68625,10 +68625,10 @@
     </row>
     <row r="1668" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1668" s="1" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="C1668" s="1" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="D1668" s="1" t="s">
         <v>524</v>
@@ -68639,10 +68639,10 @@
     </row>
     <row r="1669" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1669" s="1" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="C1669" s="1" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="D1669" s="1" t="s">
         <v>32</v>
@@ -68650,10 +68650,10 @@
     </row>
     <row r="1670" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1670" s="1" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="C1670" s="1" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="D1670" s="1" t="s">
         <v>32</v>
@@ -68664,10 +68664,10 @@
     </row>
     <row r="1671" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1671" s="1" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="C1671" s="1" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="D1671" s="1" t="s">
         <v>32</v>
@@ -68675,7 +68675,7 @@
     </row>
     <row r="1672" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1672" s="1" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="C1672" s="1" t="s">
         <v>79</v>
@@ -68689,7 +68689,7 @@
     </row>
     <row r="1673" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B1673" s="1" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="C1673" s="1" t="s">
         <v>344</v>

--- a/data/morphemes.xlsx
+++ b/data/morphemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E0596-E710-0F4F-A7DF-91A76681CD31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE98C04-31DF-814D-83EF-290FB2CD0810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2880" windowWidth="29920" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="0" yWindow="2800" windowWidth="29920" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflection" sheetId="8" r:id="rId1"/>
@@ -11526,7 +11526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E437AF6-2D36-3446-8B18-FBDCA10DEF20}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="176" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="176" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -12158,8 +12158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE25BEAE-ECB0-3E42-A39B-2C15C3BB1FB8}">
   <dimension ref="A1:XFB1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1312" zoomScale="200" workbookViewId="0">
-      <selection activeCell="G1320" sqref="G1320"/>
+    <sheetView tabSelected="1" topLeftCell="A1659" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A1673" sqref="A1673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -53651,7 +53651,7 @@
     </row>
     <row r="995" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A995" s="6">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="B995" s="6" t="s">
         <v>2459</v>
@@ -53676,7 +53676,7 @@
     </row>
     <row r="996" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A996" s="6">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B996" s="6" t="s">
         <v>812</v>
@@ -53701,7 +53701,7 @@
     </row>
     <row r="997" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A997" s="6">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B997" s="6" t="s">
         <v>1505</v>
@@ -53724,7 +53724,7 @@
     </row>
     <row r="998" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A998" s="6">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B998" s="6" t="s">
         <v>1437</v>
@@ -53749,7 +53749,7 @@
     </row>
     <row r="999" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A999" s="6">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B999" s="6" t="s">
         <v>2188</v>
@@ -53774,7 +53774,7 @@
     </row>
     <row r="1000" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1000" s="6">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B1000" s="6" t="s">
         <v>2257</v>
@@ -53797,7 +53797,7 @@
     </row>
     <row r="1001" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1001" s="6">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B1001" s="6" t="s">
         <v>1408</v>
@@ -54524,7 +54524,9 @@
       <c r="K1032" s="6"/>
     </row>
     <row r="1033" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1033" s="6"/>
+      <c r="A1033" s="6">
+        <v>1101</v>
+      </c>
       <c r="B1033" s="9" t="s">
         <v>3399</v>
       </c>
@@ -54544,7 +54546,7 @@
     </row>
     <row r="1034" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1034" s="6">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B1034" s="9" t="s">
         <v>556</v>
@@ -54567,7 +54569,7 @@
     </row>
     <row r="1035" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1035" s="6">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B1035" s="9" t="s">
         <v>654</v>
@@ -54590,7 +54592,7 @@
     </row>
     <row r="1036" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1036" s="6">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B1036" s="6" t="s">
         <v>470</v>
@@ -54614,7 +54616,7 @@
     </row>
     <row r="1037" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1037" s="6">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B1037" s="9" t="s">
         <v>560</v>
@@ -54641,7 +54643,7 @@
     </row>
     <row r="1038" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1038" s="6">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B1038" s="9" t="s">
         <v>2337</v>
@@ -54666,7 +54668,7 @@
     </row>
     <row r="1039" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1039" s="6">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="B1039" s="9" t="s">
         <v>673</v>
@@ -54689,7 +54691,7 @@
     </row>
     <row r="1040" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1040" s="6">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="B1040" s="9" t="s">
         <v>675</v>
@@ -54712,7 +54714,7 @@
     </row>
     <row r="1041" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1041" s="6">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="B1041" s="9" t="s">
         <v>2213</v>
@@ -54735,7 +54737,7 @@
     </row>
     <row r="1042" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1042" s="6">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B1042" s="9" t="s">
         <v>1044</v>
@@ -54756,7 +54758,7 @@
     </row>
     <row r="1043" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1043" s="6">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B1043" s="9" t="s">
         <v>1035</v>
@@ -54779,7 +54781,7 @@
     </row>
     <row r="1044" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1044" s="6">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B1044" s="9" t="s">
         <v>1056</v>
@@ -54800,7 +54802,7 @@
     </row>
     <row r="1045" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1045" s="6">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="B1045" s="9" t="s">
         <v>1053</v>
@@ -54821,7 +54823,7 @@
     </row>
     <row r="1046" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1046" s="6">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="B1046" s="9" t="s">
         <v>1062</v>
@@ -54842,7 +54844,7 @@
     </row>
     <row r="1047" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1047" s="6">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B1047" s="6" t="s">
         <v>1246</v>
@@ -54865,7 +54867,7 @@
     </row>
     <row r="1048" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1048" s="6">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B1048" s="6" t="s">
         <v>1264</v>
@@ -54888,7 +54890,7 @@
     </row>
     <row r="1049" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1049" s="6">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B1049" s="6" t="s">
         <v>1262</v>
@@ -54911,7 +54913,7 @@
     </row>
     <row r="1050" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1050" s="6">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="B1050" s="6" t="s">
         <v>1269</v>
@@ -54936,7 +54938,7 @@
     </row>
     <row r="1051" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1051" s="6">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B1051" s="6" t="s">
         <v>2664</v>
@@ -54961,7 +54963,7 @@
     </row>
     <row r="1052" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1052" s="6">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B1052" s="9" t="s">
         <v>731</v>
@@ -54982,7 +54984,7 @@
     </row>
     <row r="1053" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1053" s="6">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B1053" s="9" t="s">
         <v>734</v>
@@ -55005,7 +55007,7 @@
     </row>
     <row r="1054" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1054" s="6">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B1054" s="9" t="s">
         <v>1023</v>
@@ -55030,7 +55032,7 @@
     </row>
     <row r="1055" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1055" s="6">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B1055" s="9" t="s">
         <v>1028</v>
@@ -55053,7 +55055,7 @@
     </row>
     <row r="1056" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1056" s="6">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B1056" s="9" t="s">
         <v>701</v>
@@ -55076,7 +55078,7 @@
     </row>
     <row r="1057" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1057" s="6">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B1057" s="9" t="s">
         <v>703</v>
@@ -55099,7 +55101,7 @@
     </row>
     <row r="1058" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1058" s="6">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="B1058" s="9" t="s">
         <v>844</v>
@@ -55120,7 +55122,7 @@
     </row>
     <row r="1059" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1059" s="6">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="B1059" s="9" t="s">
         <v>831</v>
@@ -55143,7 +55145,7 @@
     </row>
     <row r="1060" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1060" s="6">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B1060" s="9" t="s">
         <v>857</v>
@@ -55166,7 +55168,7 @@
     </row>
     <row r="1061" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1061" s="6">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B1061" s="9" t="s">
         <v>807</v>
@@ -55189,7 +55191,7 @@
     </row>
     <row r="1062" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1062" s="6">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="B1062" s="9" t="s">
         <v>862</v>
@@ -55210,7 +55212,7 @@
     </row>
     <row r="1063" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1063" s="6">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B1063" s="9" t="s">
         <v>2488</v>
@@ -55231,7 +55233,7 @@
     </row>
     <row r="1064" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1064" s="6">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="B1064" s="9" t="s">
         <v>826</v>
@@ -55254,7 +55256,7 @@
     </row>
     <row r="1065" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1065" s="6">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="B1065" s="9" t="s">
         <v>828</v>
@@ -55277,7 +55279,7 @@
     </row>
     <row r="1066" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1066" s="6">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B1066" s="9" t="s">
         <v>903</v>
@@ -55300,7 +55302,7 @@
     </row>
     <row r="1067" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1067" s="6">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B1067" s="9" t="s">
         <v>865</v>
@@ -55323,7 +55325,7 @@
     </row>
     <row r="1068" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1068" s="6">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B1068" s="9" t="s">
         <v>869</v>
@@ -55344,7 +55346,7 @@
     </row>
     <row r="1069" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1069" s="6">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B1069" s="9" t="s">
         <v>836</v>
@@ -55365,7 +55367,7 @@
     </row>
     <row r="1070" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1070" s="6">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B1070" s="9" t="s">
         <v>2462</v>
@@ -55388,7 +55390,7 @@
     </row>
     <row r="1071" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1071" s="6">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B1071" s="9" t="s">
         <v>842</v>
@@ -55409,7 +55411,7 @@
     </row>
     <row r="1072" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1072" s="6">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B1072" s="9" t="s">
         <v>872</v>
@@ -55432,7 +55434,7 @@
     </row>
     <row r="1073" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1073" s="6">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B1073" s="9" t="s">
         <v>958</v>
@@ -55453,7 +55455,7 @@
     </row>
     <row r="1074" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1074" s="6">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B1074" s="9" t="s">
         <v>916</v>
@@ -55474,7 +55476,7 @@
     </row>
     <row r="1075" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1075" s="6">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B1075" s="9" t="s">
         <v>19</v>
@@ -55495,7 +55497,7 @@
     </row>
     <row r="1076" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1076" s="6">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B1076" s="9" t="s">
         <v>947</v>
@@ -55516,7 +55518,7 @@
     </row>
     <row r="1077" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1077" s="6">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B1077" s="9" t="s">
         <v>952</v>
@@ -55537,7 +55539,7 @@
     </row>
     <row r="1078" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1078" s="6">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B1078" s="6" t="s">
         <v>1745</v>
@@ -55558,7 +55560,7 @@
     </row>
     <row r="1079" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1079" s="6">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B1079" s="6" t="s">
         <v>1769</v>
@@ -55581,7 +55583,7 @@
     </row>
     <row r="1080" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1080" s="6">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B1080" s="6" t="s">
         <v>2220</v>
@@ -55606,7 +55608,7 @@
     </row>
     <row r="1081" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1081" s="6">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="B1081" s="6" t="s">
         <v>3442</v>
@@ -55631,7 +55633,7 @@
     </row>
     <row r="1082" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1082" s="6">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B1082" s="6" t="s">
         <v>1647</v>
@@ -55652,7 +55654,7 @@
     </row>
     <row r="1083" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1083" s="6">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B1083" s="6" t="s">
         <v>1545</v>
@@ -55675,7 +55677,7 @@
     </row>
     <row r="1084" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1084" s="6">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="B1084" s="6" t="s">
         <v>3372</v>
@@ -55698,7 +55700,7 @@
     </row>
     <row r="1085" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1085" s="6">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B1085" s="6" t="s">
         <v>2314</v>
@@ -55721,7 +55723,7 @@
     </row>
     <row r="1086" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1086" s="6">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="B1086" s="6" t="s">
         <v>1644</v>
@@ -55742,7 +55744,7 @@
     </row>
     <row r="1087" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1087" s="6">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B1087" s="6" t="s">
         <v>1637</v>
@@ -55763,7 +55765,7 @@
     </row>
     <row r="1088" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1088" s="6">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="B1088" s="6" t="s">
         <v>3115</v>
@@ -55786,7 +55788,7 @@
     </row>
     <row r="1089" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1089" s="6">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B1089" s="9" t="s">
         <v>1082</v>
@@ -55809,7 +55811,7 @@
     </row>
     <row r="1090" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1090" s="6">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B1090" s="6" t="s">
         <v>1290</v>
@@ -55830,7 +55832,7 @@
     </row>
     <row r="1091" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1091" s="6">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B1091" s="9" t="s">
         <v>1088</v>
@@ -55853,7 +55855,7 @@
     </row>
     <row r="1092" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1092" s="6">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B1092" s="6" t="s">
         <v>1279</v>
@@ -55876,7 +55878,7 @@
     </row>
     <row r="1093" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1093" s="6">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B1093" s="9" t="s">
         <v>1090</v>
@@ -55899,7 +55901,7 @@
     </row>
     <row r="1094" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1094" s="6">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B1094" s="9" t="s">
         <v>1095</v>
@@ -55922,7 +55924,7 @@
     </row>
     <row r="1095" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1095" s="6">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B1095" s="6" t="s">
         <v>1322</v>
@@ -55945,7 +55947,7 @@
     </row>
     <row r="1096" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1096" s="6">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B1096" s="6" t="s">
         <v>1302</v>
@@ -55968,7 +55970,7 @@
     </row>
     <row r="1097" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1097" s="6">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B1097" s="6" t="s">
         <v>1310</v>
@@ -55991,7 +55993,7 @@
     </row>
     <row r="1098" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1098" s="6">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B1098" s="6" t="s">
         <v>1312</v>
@@ -56014,7 +56016,7 @@
     </row>
     <row r="1099" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1099" s="6">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="B1099" s="6" t="s">
         <v>1328</v>
@@ -56035,7 +56037,7 @@
     </row>
     <row r="1100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1100" s="6">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B1100" s="6" t="s">
         <v>1330</v>
@@ -56056,7 +56058,7 @@
     </row>
     <row r="1101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1101" s="6">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="B1101" s="9" t="s">
         <v>1097</v>
@@ -56079,7 +56081,7 @@
     </row>
     <row r="1102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1102" s="6">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="B1102" s="9" t="s">
         <v>758</v>
@@ -56100,7 +56102,7 @@
     </row>
     <row r="1103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1103" s="6">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="B1103" s="9" t="s">
         <v>789</v>
@@ -56121,7 +56123,7 @@
     </row>
     <row r="1104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1104" s="6">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="B1104" s="9" t="s">
         <v>775</v>
@@ -56144,7 +56146,7 @@
     </row>
     <row r="1105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1105" s="6">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B1105" s="9" t="s">
         <v>784</v>
@@ -56165,7 +56167,7 @@
     </row>
     <row r="1106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1106" s="6">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B1106" s="9" t="s">
         <v>791</v>
@@ -56186,7 +56188,7 @@
     </row>
     <row r="1107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1107" s="6">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B1107" s="9" t="s">
         <v>803</v>
@@ -56207,7 +56209,7 @@
     </row>
     <row r="1108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1108" s="6">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="B1108" s="6" t="s">
         <v>1371</v>
@@ -56228,7 +56230,7 @@
     </row>
     <row r="1109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1109" s="6">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="B1109" s="6" t="s">
         <v>1338</v>
@@ -56251,7 +56253,7 @@
     </row>
     <row r="1110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1110" s="6">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B1110" s="6" t="s">
         <v>1455</v>
@@ -56274,7 +56276,7 @@
     </row>
     <row r="1111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1111" s="6">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="B1111" s="6" t="s">
         <v>2221</v>
@@ -56299,7 +56301,7 @@
     </row>
     <row r="1112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1112" s="6">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B1112" s="6" t="s">
         <v>1354</v>
@@ -56322,7 +56324,7 @@
     </row>
     <row r="1113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1113" s="6">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="B1113" s="6" t="s">
         <v>1359</v>
@@ -56345,7 +56347,7 @@
     </row>
     <row r="1114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1114" s="6">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="B1114" s="6" t="s">
         <v>3111</v>
@@ -56366,7 +56368,7 @@
     </row>
     <row r="1115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1115" s="6">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="B1115" s="6" t="s">
         <v>1402</v>
@@ -56387,7 +56389,7 @@
     </row>
     <row r="1116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1116" s="6">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B1116" s="9" t="s">
         <v>652</v>
@@ -56410,7 +56412,7 @@
     </row>
     <row r="1117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1117" s="6">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B1117" s="6" t="s">
         <v>1367</v>
@@ -56435,7 +56437,7 @@
     </row>
     <row r="1118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1118" s="6">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B1118" s="6" t="s">
         <v>2896</v>
@@ -56456,7 +56458,7 @@
     </row>
     <row r="1119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1119" s="6">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B1119" s="6" t="s">
         <v>1397</v>
@@ -56479,7 +56481,7 @@
     </row>
     <row r="1120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1120" s="6">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B1120" s="6" t="s">
         <v>1512</v>
@@ -56500,7 +56502,7 @@
     </row>
     <row r="1121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1121" s="6">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B1121" s="6" t="s">
         <v>1416</v>
@@ -56521,7 +56523,7 @@
     </row>
     <row r="1122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1122" s="6">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B1122" s="6" t="s">
         <v>1417</v>
@@ -56544,7 +56546,7 @@
     </row>
     <row r="1123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1123" s="6">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B1123" s="6" t="s">
         <v>1510</v>
@@ -56569,7 +56571,7 @@
     </row>
     <row r="1124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1124" s="6">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B1124" s="6" t="s">
         <v>1448</v>
@@ -56594,7 +56596,7 @@
     </row>
     <row r="1125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1125" s="6">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B1125" s="6" t="s">
         <v>1461</v>
@@ -56615,7 +56617,7 @@
     </row>
     <row r="1126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1126" s="6">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B1126" s="6" t="s">
         <v>1472</v>
@@ -56638,7 +56640,7 @@
     </row>
     <row r="1127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1127" s="6">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B1127" s="6" t="s">
         <v>1465</v>
@@ -56659,7 +56661,7 @@
     </row>
     <row r="1128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1128" s="6">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B1128" s="6" t="s">
         <v>1494</v>
@@ -56684,7 +56686,7 @@
     </row>
     <row r="1129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1129" s="6">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B1129" s="6" t="s">
         <v>1489</v>
@@ -56707,7 +56709,7 @@
     </row>
     <row r="1130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1130" s="6">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B1130" s="6" t="s">
         <v>1477</v>
@@ -56732,7 +56734,7 @@
     </row>
     <row r="1131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1131" s="6">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B1131" s="6" t="s">
         <v>1476</v>
@@ -56755,7 +56757,7 @@
     </row>
     <row r="1132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1132" s="6">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B1132" s="6" t="s">
         <v>1496</v>
@@ -56776,7 +56778,7 @@
     </row>
     <row r="1133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1133" s="6">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="B1133" s="6" t="s">
         <v>1483</v>
@@ -56799,7 +56801,7 @@
     </row>
     <row r="1134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1134" s="6">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="B1134" s="6" t="s">
         <v>1424</v>
@@ -56822,7 +56824,7 @@
     </row>
     <row r="1135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1135" s="6">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B1135" s="6" t="s">
         <v>1727</v>
@@ -56845,7 +56847,7 @@
     </row>
     <row r="1136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1136" s="6">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="B1136" s="6" t="s">
         <v>1729</v>
@@ -56868,7 +56870,7 @@
     </row>
     <row r="1137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1137" s="6">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="B1137" s="6" t="s">
         <v>1709</v>
@@ -56891,7 +56893,7 @@
     </row>
     <row r="1138" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1138" s="6">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B1138" s="6" t="s">
         <v>1717</v>
@@ -56912,7 +56914,7 @@
     </row>
     <row r="1139" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1139" s="6">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B1139" s="6" t="s">
         <v>1738</v>
@@ -56933,7 +56935,7 @@
     </row>
     <row r="1140" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1140" s="6">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="B1140" s="6" t="s">
         <v>1743</v>
@@ -56954,7 +56956,7 @@
     </row>
     <row r="1141" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1141" s="6">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B1141" s="6" t="s">
         <v>2334</v>
@@ -56977,7 +56979,7 @@
     </row>
     <row r="1142" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1142" s="6">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B1142" s="6" t="s">
         <v>1906</v>
@@ -56998,7 +57000,7 @@
     </row>
     <row r="1143" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1143" s="6">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="B1143" s="6" t="s">
         <v>2074</v>
@@ -57021,7 +57023,7 @@
     </row>
     <row r="1144" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1144" s="6">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="B1144" s="6" t="s">
         <v>2035</v>
@@ -57046,7 +57048,7 @@
     </row>
     <row r="1145" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1145" s="6">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B1145" s="6" t="s">
         <v>2956</v>
@@ -57069,7 +57071,7 @@
     </row>
     <row r="1146" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1146" s="6">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B1146" s="6" t="s">
         <v>2080</v>
@@ -57092,7 +57094,7 @@
     </row>
     <row r="1147" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1147" s="6">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B1147" s="6" t="s">
         <v>2834</v>
@@ -57115,7 +57117,7 @@
     </row>
     <row r="1148" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1148" s="6">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B1148" s="6" t="s">
         <v>2046</v>
@@ -57138,7 +57140,7 @@
     </row>
     <row r="1149" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1149" s="6">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B1149" s="6" t="s">
         <v>1975</v>
@@ -57161,7 +57163,7 @@
     </row>
     <row r="1150" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1150" s="6">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B1150" s="6" t="s">
         <v>2041</v>
@@ -57184,7 +57186,7 @@
     </row>
     <row r="1151" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1151" s="6">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="B1151" s="6" t="s">
         <v>2248</v>
@@ -57207,7 +57209,7 @@
     </row>
     <row r="1152" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1152" s="6">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B1152" s="6" t="s">
         <v>2049</v>
@@ -57230,7 +57232,7 @@
     </row>
     <row r="1153" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1153" s="6">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B1153" s="6" t="s">
         <v>2096</v>
@@ -57256,7 +57258,7 @@
     </row>
     <row r="1154" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1154" s="6">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="B1154" s="6" t="s">
         <v>1900</v>
@@ -57279,7 +57281,7 @@
     </row>
     <row r="1155" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1155" s="6">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B1155" s="6" t="s">
         <v>1901</v>
@@ -57304,7 +57306,7 @@
     </row>
     <row r="1156" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1156" s="6">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B1156" s="6" t="s">
         <v>1923</v>
@@ -57325,7 +57327,7 @@
     </row>
     <row r="1157" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1157" s="6">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B1157" s="6" t="s">
         <v>2089</v>
@@ -57348,7 +57350,7 @@
     </row>
     <row r="1158" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1158" s="6">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B1158" s="6" t="s">
         <v>1916</v>
@@ -57371,7 +57373,7 @@
     </row>
     <row r="1159" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1159" s="6">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B1159" s="6" t="s">
         <v>1918</v>
@@ -57396,7 +57398,7 @@
     </row>
     <row r="1160" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1160" s="6">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="B1160" s="6" t="s">
         <v>3294</v>
@@ -57419,7 +57421,7 @@
     </row>
     <row r="1161" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1161" s="6">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B1161" s="6" t="s">
         <v>2139</v>
@@ -57442,7 +57444,7 @@
     </row>
     <row r="1162" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1162" s="6">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B1162" s="6" t="s">
         <v>2165</v>
@@ -57465,7 +57467,7 @@
     </row>
     <row r="1163" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1163" s="6">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="B1163" s="6" t="s">
         <v>1986</v>
@@ -57486,7 +57488,7 @@
     </row>
     <row r="1164" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1164" s="6">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B1164" s="6" t="s">
         <v>2155</v>
@@ -57507,7 +57509,7 @@
     </row>
     <row r="1165" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1165" s="6">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="B1165" s="6" t="s">
         <v>2029</v>
@@ -57528,7 +57530,7 @@
     </row>
     <row r="1166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1166" s="6">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B1166" s="6" t="s">
         <v>3255</v>
@@ -57551,7 +57553,7 @@
     </row>
     <row r="1167" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1167" s="6">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B1167" s="6" t="s">
         <v>2159</v>
@@ -57574,7 +57576,7 @@
     </row>
     <row r="1168" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1168" s="6">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B1168" s="6" t="s">
         <v>2148</v>
@@ -57595,7 +57597,7 @@
     </row>
     <row r="1169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1169" s="6">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="B1169" s="6" t="s">
         <v>1944</v>
@@ -57618,7 +57620,7 @@
     </row>
     <row r="1170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1170" s="6">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B1170" s="9" t="s">
         <v>656</v>
@@ -57639,7 +57641,7 @@
     </row>
     <row r="1171" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1171" s="6">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="B1171" s="6" t="s">
         <v>2007</v>
@@ -57662,7 +57664,7 @@
     </row>
     <row r="1172" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1172" s="6">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B1172" s="6" t="s">
         <v>2152</v>
@@ -57683,7 +57685,7 @@
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1173" s="6">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="B1173" s="6" t="s">
         <v>2026</v>
@@ -57704,7 +57706,7 @@
     </row>
     <row r="1174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1174" s="6">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B1174" s="6" t="s">
         <v>2023</v>
@@ -57729,7 +57731,7 @@
     </row>
     <row r="1175" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1175" s="6">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B1175" s="6" t="s">
         <v>2115</v>
@@ -57752,7 +57754,7 @@
     </row>
     <row r="1176" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1176" s="6">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B1176" s="6" t="s">
         <v>1936</v>
@@ -57777,7 +57779,7 @@
     </row>
     <row r="1177" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1177" s="6">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B1177" s="6" t="s">
         <v>1930</v>
@@ -57798,7 +57800,7 @@
     </row>
     <row r="1178" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1178" s="6">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B1178" s="6" t="s">
         <v>1934</v>
@@ -57821,7 +57823,7 @@
     </row>
     <row r="1179" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1179" s="6">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B1179" s="6" t="s">
         <v>1940</v>
@@ -57844,7 +57846,7 @@
     </row>
     <row r="1180" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1180" s="6">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B1180" s="6" t="s">
         <v>1998</v>
@@ -57869,7 +57871,7 @@
     </row>
     <row r="1181" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1181" s="6">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="B1181" s="6" t="s">
         <v>2100</v>
@@ -57890,7 +57892,7 @@
     </row>
     <row r="1182" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1182" s="6">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="B1182" s="6" t="s">
         <v>2518</v>
@@ -57913,7 +57915,7 @@
     </row>
     <row r="1183" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1183" s="6">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B1183" s="6" t="s">
         <v>2103</v>
@@ -57936,7 +57938,7 @@
     </row>
     <row r="1184" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1184" s="6">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="B1184" s="6" t="s">
         <v>3342</v>
@@ -57959,7 +57961,7 @@
     </row>
     <row r="1185" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1185" s="6">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="B1185" s="6" t="s">
         <v>2217</v>
@@ -57980,7 +57982,7 @@
     </row>
     <row r="1186" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1186" s="6">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="B1186" s="9" t="s">
         <v>1115</v>
@@ -58003,7 +58005,7 @@
     </row>
     <row r="1187" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1187" s="6">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B1187" s="9" t="s">
         <v>3334</v>
@@ -58026,7 +58028,7 @@
     </row>
     <row r="1188" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1188" s="6">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B1188" s="9" t="s">
         <v>1121</v>
@@ -58047,7 +58049,7 @@
     </row>
     <row r="1189" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1189" s="6">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B1189" s="9" t="s">
         <v>1133</v>
@@ -58070,7 +58072,7 @@
     </row>
     <row r="1190" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1190" s="6">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B1190" s="6" t="s">
         <v>1141</v>
@@ -58094,7 +58096,7 @@
     </row>
     <row r="1191" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1191" s="6">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B1191" s="9" t="s">
         <v>1137</v>
@@ -58117,7 +58119,7 @@
     </row>
     <row r="1192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1192" s="6">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B1192" s="6" t="s">
         <v>1240</v>
@@ -58140,7 +58142,7 @@
     </row>
     <row r="1193" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1193" s="6">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B1193" s="9" t="s">
         <v>1143</v>
@@ -58163,7 +58165,7 @@
     </row>
     <row r="1194" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1194" s="6">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B1194" s="9" t="s">
         <v>1145</v>
@@ -58186,7 +58188,7 @@
     </row>
     <row r="1195" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1195" s="6">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B1195" s="9" t="s">
         <v>3256</v>
@@ -58209,7 +58211,7 @@
     </row>
     <row r="1196" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1196" s="6">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B1196" s="6" t="s">
         <v>1244</v>
@@ -58230,7 +58232,7 @@
     </row>
     <row r="1197" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1197" s="6">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B1197" s="6" t="s">
         <v>3325</v>
@@ -58253,7 +58255,7 @@
     </row>
     <row r="1198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1198" s="6">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="B1198" s="6" t="s">
         <v>3319</v>
@@ -58276,7 +58278,7 @@
     </row>
     <row r="1199" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1199" s="6">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B1199" s="6" t="s">
         <v>3318</v>
@@ -58299,7 +58301,7 @@
     </row>
     <row r="1200" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1200" s="6">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B1200" s="9" t="s">
         <v>2343</v>
@@ -58322,7 +58324,7 @@
     </row>
     <row r="1201" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1201" s="6">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B1201" s="6" t="s">
         <v>1791</v>
@@ -58345,7 +58347,7 @@
     </row>
     <row r="1202" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1202" s="6">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B1202" s="6" t="s">
         <v>1792</v>
@@ -58368,7 +58370,7 @@
     </row>
     <row r="1203" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1203" s="6">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B1203" s="6" t="s">
         <v>2290</v>
@@ -58391,7 +58393,7 @@
     </row>
     <row r="1204" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1204" s="6">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B1204" s="6" t="s">
         <v>1850</v>
@@ -58412,7 +58414,7 @@
     </row>
     <row r="1205" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1205" s="6">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B1205" s="6" t="s">
         <v>1831</v>
@@ -58433,7 +58435,7 @@
     </row>
     <row r="1206" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1206" s="6">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B1206" s="6" t="s">
         <v>2515</v>
@@ -58457,7 +58459,7 @@
     </row>
     <row r="1207" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1207" s="6">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B1207" s="6" t="s">
         <v>3275</v>
@@ -58478,7 +58480,7 @@
     </row>
     <row r="1208" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1208" s="6">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B1208" s="6" t="s">
         <v>3276</v>
@@ -58499,7 +58501,7 @@
     </row>
     <row r="1209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1209" s="6">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B1209" s="6" t="s">
         <v>1851</v>
@@ -58524,7 +58526,7 @@
     </row>
     <row r="1210" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1210" s="6">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B1210" s="6" t="s">
         <v>1853</v>
@@ -58547,7 +58549,7 @@
     </row>
     <row r="1211" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1211" s="6">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B1211" s="6" t="s">
         <v>1856</v>
@@ -58568,7 +58570,7 @@
     </row>
     <row r="1212" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1212" s="6">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B1212" s="6" t="s">
         <v>2533</v>
@@ -58593,7 +58595,7 @@
     </row>
     <row r="1213" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1213" s="6">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B1213" s="6" t="s">
         <v>2214</v>
@@ -58614,7 +58616,7 @@
     </row>
     <row r="1214" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1214" s="6">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B1214" s="6" t="s">
         <v>1864</v>
@@ -58639,7 +58641,7 @@
     </row>
     <row r="1215" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1215" s="6">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B1215" s="6" t="s">
         <v>1840</v>
@@ -58662,7 +58664,7 @@
     </row>
     <row r="1216" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1216" s="6">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="B1216" s="6" t="s">
         <v>1847</v>
@@ -58683,7 +58685,7 @@
     </row>
     <row r="1217" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1217" s="6">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="B1217" s="6" t="s">
         <v>1834</v>
@@ -58704,7 +58706,7 @@
     </row>
     <row r="1218" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1218" s="6">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="B1218" s="6" t="s">
         <v>1836</v>
@@ -58729,7 +58731,7 @@
     </row>
     <row r="1219" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1219" s="6">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="B1219" s="6" t="s">
         <v>1842</v>
@@ -58752,7 +58754,7 @@
     </row>
     <row r="1220" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1220" s="6">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="B1220" s="6" t="s">
         <v>1870</v>
@@ -58775,7 +58777,7 @@
     </row>
     <row r="1221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1221" s="6">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B1221" s="6" t="s">
         <v>1867</v>
@@ -58800,7 +58802,7 @@
     </row>
     <row r="1222" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1222" s="6">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="B1222" s="6" t="s">
         <v>1880</v>
@@ -58825,7 +58827,7 @@
     </row>
     <row r="1223" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1223" s="6">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B1223" s="6" t="s">
         <v>1877</v>
@@ -58848,7 +58850,7 @@
     </row>
     <row r="1224" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1224" s="6">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="B1224" s="6" t="s">
         <v>3264</v>
@@ -58871,7 +58873,7 @@
     </row>
     <row r="1225" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1225" s="6">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B1225" s="6" t="s">
         <v>3269</v>
@@ -58892,7 +58894,7 @@
     </row>
     <row r="1226" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1226" s="6">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B1226" s="6" t="s">
         <v>1672</v>
@@ -58913,7 +58915,7 @@
     </row>
     <row r="1227" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1227" s="6">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B1227" s="6" t="s">
         <v>1665</v>
@@ -58934,7 +58936,7 @@
     </row>
     <row r="1228" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1228" s="6">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B1228" s="6" t="s">
         <v>1681</v>
@@ -58955,7 +58957,7 @@
     </row>
     <row r="1229" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1229" s="6">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B1229" s="6" t="s">
         <v>1686</v>
@@ -58978,7 +58980,7 @@
     </row>
     <row r="1230" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1230" s="6">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B1230" s="6" t="s">
         <v>1685</v>
@@ -59001,7 +59003,7 @@
     </row>
     <row r="1231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1231" s="6">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B1231" s="6" t="s">
         <v>1683</v>
@@ -59022,7 +59024,7 @@
     </row>
     <row r="1232" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1232" s="6">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B1232" s="6" t="s">
         <v>1696</v>
@@ -59045,7 +59047,7 @@
     </row>
     <row r="1233" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1233" s="6">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="B1233" s="6" t="s">
         <v>1706</v>
@@ -59070,7 +59072,7 @@
     </row>
     <row r="1234" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1234" s="6">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="B1234" s="6" t="s">
         <v>3249</v>
@@ -59093,7 +59095,7 @@
     </row>
     <row r="1235" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1235" s="6">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="B1235" s="6" t="s">
         <v>1774</v>
@@ -59114,7 +59116,7 @@
     </row>
     <row r="1236" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1236" s="6">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B1236" s="6" t="s">
         <v>2249</v>
@@ -59137,7 +59139,7 @@
     </row>
     <row r="1237" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1237" s="6">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B1237" s="6" t="s">
         <v>2271</v>
@@ -59160,7 +59162,7 @@
     </row>
     <row r="1238" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1238" s="6">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B1238" s="6" t="s">
         <v>2275</v>
@@ -59185,7 +59187,7 @@
     </row>
     <row r="1239" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1239" s="6">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="B1239" s="6" t="s">
         <v>2276</v>
@@ -59210,7 +59212,7 @@
     </row>
     <row r="1240" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1240" s="6">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B1240" s="6" t="s">
         <v>2315</v>
@@ -59235,7 +59237,7 @@
     </row>
     <row r="1241" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1241" s="6">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B1241" s="6" t="s">
         <v>3387</v>
@@ -59258,7 +59260,7 @@
     </row>
     <row r="1242" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1242" s="6">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B1242" s="6" t="s">
         <v>2322</v>
@@ -59279,7 +59281,7 @@
     </row>
     <row r="1243" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1243" s="6">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B1243" s="6" t="s">
         <v>889</v>
@@ -59300,7 +59302,7 @@
     </row>
     <row r="1244" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1244" s="6">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B1244" s="6" t="s">
         <v>893</v>
@@ -59323,7 +59325,7 @@
     </row>
     <row r="1245" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1245" s="6">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="B1245" s="6" t="s">
         <v>2496</v>
@@ -59346,7 +59348,7 @@
     </row>
     <row r="1246" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1246" s="6">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B1246" s="6" t="s">
         <v>1231</v>
@@ -59367,7 +59369,7 @@
     </row>
     <row r="1247" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1247" s="6">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B1247" s="6" t="s">
         <v>980</v>
@@ -59388,7 +59390,7 @@
     </row>
     <row r="1248" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1248" s="6">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B1248" s="6" t="s">
         <v>978</v>
@@ -59411,7 +59413,7 @@
     </row>
     <row r="1249" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1249" s="6">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B1249" s="6" t="s">
         <v>1779</v>
@@ -59432,7 +59434,7 @@
     </row>
     <row r="1250" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1250" s="6">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B1250" s="6" t="s">
         <v>3383</v>
@@ -59453,7 +59455,7 @@
     </row>
     <row r="1251" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1251" s="6">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B1251" s="6" t="s">
         <v>3329</v>
@@ -59476,7 +59478,7 @@
     </row>
     <row r="1252" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1252" s="6">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B1252" s="9" t="s">
         <v>699</v>
@@ -59503,7 +59505,7 @@
     </row>
     <row r="1253" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1253" s="6">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="B1253" s="6" t="s">
         <v>1679</v>
@@ -59526,7 +59528,7 @@
     </row>
     <row r="1254" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1254" s="6">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="B1254" s="9" t="s">
         <v>11</v>
@@ -59551,7 +59553,7 @@
     </row>
     <row r="1255" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1255" s="6">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B1255" s="6" t="s">
         <v>2497</v>
@@ -59572,7 +59574,7 @@
     </row>
     <row r="1256" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1256" s="6">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B1256" s="6" t="s">
         <v>2503</v>
@@ -59595,7 +59597,7 @@
     </row>
     <row r="1257" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1257" s="6">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="B1257" s="6" t="s">
         <v>2509</v>
@@ -59616,7 +59618,7 @@
     </row>
     <row r="1258" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1258" s="6">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B1258" s="6" t="s">
         <v>2514</v>
@@ -59637,7 +59639,7 @@
     </row>
     <row r="1259" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1259" s="6">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="B1259" s="6" t="s">
         <v>2527</v>
@@ -59658,7 +59660,7 @@
     </row>
     <row r="1260" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1260" s="6">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="B1260" s="6" t="s">
         <v>2539</v>
@@ -59679,7 +59681,7 @@
     </row>
     <row r="1261" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1261" s="6">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="B1261" s="6" t="s">
         <v>2535</v>
@@ -59700,7 +59702,7 @@
     </row>
     <row r="1262" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1262" s="6">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="B1262" s="9" t="s">
         <v>2489</v>
@@ -59723,7 +59725,7 @@
     </row>
     <row r="1263" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1263" s="6">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="B1263" s="9" t="s">
         <v>3260</v>
@@ -59746,7 +59748,7 @@
     </row>
     <row r="1264" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1264" s="6">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="B1264" s="6" t="s">
         <v>1345</v>
@@ -59767,7 +59769,7 @@
     </row>
     <row r="1265" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1265" s="6">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="B1265" s="6" t="s">
         <v>2543</v>
@@ -59788,7 +59790,7 @@
     </row>
     <row r="1266" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1266" s="6">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B1266" s="6" t="s">
         <v>2548</v>
@@ -59809,7 +59811,7 @@
     </row>
     <row r="1267" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1267" s="6">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B1267" s="6" t="s">
         <v>2559</v>
@@ -59830,7 +59832,7 @@
     </row>
     <row r="1268" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1268" s="6">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B1268" s="6" t="s">
         <v>2563</v>
@@ -59853,7 +59855,7 @@
     </row>
     <row r="1269" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1269" s="6">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B1269" s="6" t="s">
         <v>2576</v>
@@ -59876,7 +59878,7 @@
     </row>
     <row r="1270" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1270" s="6">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B1270" s="6" t="s">
         <v>2579</v>
@@ -59901,7 +59903,7 @@
     </row>
     <row r="1271" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1271" s="6">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B1271" s="6" t="s">
         <v>2580</v>
@@ -59924,7 +59926,7 @@
     </row>
     <row r="1272" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1272" s="6">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B1272" s="6" t="s">
         <v>2581</v>
@@ -59947,7 +59949,7 @@
     </row>
     <row r="1273" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1273" s="6">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="B1273" s="6" t="s">
         <v>2582</v>
@@ -59968,7 +59970,7 @@
     </row>
     <row r="1274" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1274" s="6">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="B1274" s="6" t="s">
         <v>2585</v>
@@ -59991,7 +59993,7 @@
     </row>
     <row r="1275" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1275" s="6">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="B1275" s="6" t="s">
         <v>2593</v>
@@ -60014,7 +60016,7 @@
     </row>
     <row r="1276" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1276" s="6">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="B1276" s="6" t="s">
         <v>2595</v>
@@ -60037,7 +60039,7 @@
     </row>
     <row r="1277" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1277" s="6">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="B1277" s="6" t="s">
         <v>2597</v>
@@ -60060,7 +60062,7 @@
     </row>
     <row r="1278" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1278" s="6">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B1278" s="6" t="s">
         <v>2642</v>
@@ -60083,7 +60085,7 @@
     </row>
     <row r="1279" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1279" s="6">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B1279" s="6" t="s">
         <v>3365</v>
@@ -60106,7 +60108,7 @@
     </row>
     <row r="1280" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1280" s="6">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="B1280" s="6" t="s">
         <v>2648</v>
@@ -60129,7 +60131,7 @@
     </row>
     <row r="1281" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1281" s="6">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B1281" s="6" t="s">
         <v>2652</v>
@@ -60152,7 +60154,7 @@
     </row>
     <row r="1282" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1282" s="6">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B1282" s="6" t="s">
         <v>2665</v>
@@ -60175,7 +60177,7 @@
     </row>
     <row r="1283" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1283" s="6">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B1283" s="6" t="s">
         <v>2691</v>
@@ -60200,7 +60202,7 @@
     </row>
     <row r="1284" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1284" s="6">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B1284" s="6" t="s">
         <v>2745</v>
@@ -60225,7 +60227,7 @@
     </row>
     <row r="1285" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1285" s="6">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B1285" s="9" t="s">
         <v>954</v>
@@ -60248,7 +60250,7 @@
     </row>
     <row r="1286" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1286" s="6">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B1286" s="6" t="s">
         <v>2734</v>
@@ -60271,7 +60273,7 @@
     </row>
     <row r="1287" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1287" s="6">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B1287" s="6" t="s">
         <v>2054</v>
@@ -60294,7 +60296,7 @@
     </row>
     <row r="1288" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1288" s="6">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B1288" s="6" t="s">
         <v>1628</v>
@@ -60317,7 +60319,7 @@
     </row>
     <row r="1289" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1289" s="6">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B1289" s="6" t="s">
         <v>2971</v>
@@ -60340,7 +60342,7 @@
     </row>
     <row r="1290" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1290" s="6">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B1290" s="6" t="s">
         <v>2570</v>
@@ -60363,7 +60365,7 @@
     </row>
     <row r="1291" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1291" s="6">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B1291" s="6" t="s">
         <v>3117</v>
@@ -60386,7 +60388,7 @@
     </row>
     <row r="1292" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1292" s="6">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B1292" s="6" t="s">
         <v>2752</v>
@@ -60409,7 +60411,7 @@
     </row>
     <row r="1293" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1293" s="6">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B1293" s="9" t="s">
         <v>2330</v>
@@ -60432,7 +60434,7 @@
     </row>
     <row r="1294" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1294" s="6">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B1294" s="6" t="s">
         <v>1538</v>
@@ -60455,7 +60457,7 @@
     </row>
     <row r="1295" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1295" s="6">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B1295" s="6" t="s">
         <v>2331</v>
@@ -60478,7 +60480,7 @@
     </row>
     <row r="1296" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1296" s="6">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B1296" s="9" t="s">
         <v>1080</v>
@@ -60501,7 +60503,7 @@
     </row>
     <row r="1297" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1297" s="6">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B1297" s="6" t="s">
         <v>1765</v>
@@ -60524,7 +60526,7 @@
     </row>
     <row r="1298" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1298" s="6">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="B1298" s="6" t="s">
         <v>2332</v>
@@ -60547,7 +60549,7 @@
     </row>
     <row r="1299" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1299" s="6">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="B1299" s="6" t="s">
         <v>3114</v>
@@ -60570,7 +60572,7 @@
     </row>
     <row r="1300" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1300" s="6">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="B1300" s="6" t="s">
         <v>2333</v>
@@ -60593,7 +60595,7 @@
     </row>
     <row r="1301" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1301" s="6">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="B1301" s="6" t="s">
         <v>1721</v>
@@ -60616,7 +60618,7 @@
     </row>
     <row r="1302" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1302" s="6">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="B1302" s="6" t="s">
         <v>1904</v>
@@ -60639,7 +60641,7 @@
     </row>
     <row r="1303" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1303" s="6">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B1303" s="6" t="s">
         <v>2335</v>
@@ -60662,7 +60664,7 @@
     </row>
     <row r="1304" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1304" s="6">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B1304" s="6" t="s">
         <v>1812</v>
@@ -60685,7 +60687,7 @@
     </row>
     <row r="1305" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1305" s="6">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B1305" s="6" t="s">
         <v>1814</v>
@@ -60708,7 +60710,7 @@
     </row>
     <row r="1306" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1306" s="6">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B1306" s="6" t="s">
         <v>1784</v>
@@ -60731,7 +60733,7 @@
     </row>
     <row r="1307" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1307" s="6">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B1307" s="6" t="s">
         <v>3110</v>
@@ -60754,7 +60756,7 @@
     </row>
     <row r="1308" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1308" s="6">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B1308" s="6" t="s">
         <v>1806</v>
@@ -60777,7 +60779,7 @@
     </row>
     <row r="1309" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1309" s="6">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B1309" s="6" t="s">
         <v>2336</v>
@@ -60800,7 +60802,7 @@
     </row>
     <row r="1310" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1310" s="6">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B1310" s="6" t="s">
         <v>2467</v>
@@ -60823,7 +60825,7 @@
     </row>
     <row r="1311" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1311" s="6">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B1311" s="9" t="s">
         <v>834</v>
@@ -60846,7 +60848,7 @@
     </row>
     <row r="1312" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1312" s="6">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B1312" s="6" t="s">
         <v>1293</v>
@@ -60869,7 +60871,7 @@
     </row>
     <row r="1313" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1313" s="6">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B1313" s="6" t="s">
         <v>2758</v>
@@ -60890,7 +60892,7 @@
     </row>
     <row r="1314" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1314" s="6">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B1314" s="6" t="s">
         <v>2760</v>
@@ -60911,7 +60913,7 @@
     </row>
     <row r="1315" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1315" s="6">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B1315" s="6" t="s">
         <v>2782</v>
@@ -60936,7 +60938,7 @@
     </row>
     <row r="1316" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1316" s="6">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B1316" s="6" t="s">
         <v>2784</v>
@@ -60957,7 +60959,7 @@
     </row>
     <row r="1317" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1317" s="6">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="B1317" s="6" t="s">
         <v>2792</v>
@@ -60980,7 +60982,7 @@
     </row>
     <row r="1318" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1318" s="6">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B1318" s="6" t="s">
         <v>2794</v>
@@ -61003,7 +61005,7 @@
     </row>
     <row r="1319" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1319" s="6">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="B1319" s="6" t="s">
         <v>2802</v>
@@ -61024,7 +61026,7 @@
     </row>
     <row r="1320" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1320" s="6">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="B1320" s="6" t="s">
         <v>2815</v>
@@ -61047,7 +61049,7 @@
     </row>
     <row r="1321" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1321" s="6">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="B1321" s="6" t="s">
         <v>2828</v>
@@ -61070,7 +61072,7 @@
     </row>
     <row r="1322" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1322" s="6">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="B1322" s="6" t="s">
         <v>2838</v>
@@ -61093,7 +61095,7 @@
     </row>
     <row r="1323" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1323" s="6">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="B1323" s="6" t="s">
         <v>2842</v>
@@ -61114,7 +61116,7 @@
     </row>
     <row r="1324" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1324" s="6">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="B1324" s="6" t="s">
         <v>2854</v>
@@ -61137,7 +61139,7 @@
     </row>
     <row r="1325" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1325" s="6">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="B1325" s="6" t="s">
         <v>2856</v>
@@ -61158,7 +61160,7 @@
     </row>
     <row r="1326" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1326" s="6">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="B1326" s="6" t="s">
         <v>2859</v>
@@ -61179,7 +61181,7 @@
     </row>
     <row r="1327" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1327" s="6">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="B1327" s="6" t="s">
         <v>3094</v>
@@ -61202,7 +61204,7 @@
     </row>
     <row r="1328" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1328" s="6">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="B1328" s="6" t="s">
         <v>2871</v>
@@ -61225,7 +61227,7 @@
     </row>
     <row r="1329" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1329" s="6">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="B1329" s="6" t="s">
         <v>2875</v>
@@ -61246,7 +61248,7 @@
     </row>
     <row r="1330" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1330" s="6">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="B1330" s="6" t="s">
         <v>2878</v>
@@ -61269,7 +61271,7 @@
     </row>
     <row r="1331" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1331" s="6">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="B1331" s="6" t="s">
         <v>3076</v>
@@ -61290,7 +61292,7 @@
     </row>
     <row r="1332" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1332" s="6">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B1332" s="6" t="s">
         <v>3113</v>
@@ -61311,7 +61313,7 @@
     </row>
     <row r="1333" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1333" s="6">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B1333" s="6" t="s">
         <v>2887</v>
@@ -61334,7 +61336,7 @@
     </row>
     <row r="1334" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1334" s="6">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B1334" s="6" t="s">
         <v>2889</v>
@@ -61355,7 +61357,7 @@
     </row>
     <row r="1335" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1335" s="6">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B1335" s="6" t="s">
         <v>1395</v>
@@ -61376,7 +61378,7 @@
     </row>
     <row r="1336" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1336" s="6">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B1336" s="6" t="s">
         <v>2898</v>
@@ -61399,7 +61401,7 @@
     </row>
     <row r="1337" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1337" s="6">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="B1337" s="6" t="s">
         <v>2906</v>
@@ -61420,7 +61422,7 @@
     </row>
     <row r="1338" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1338" s="6">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B1338" s="6" t="s">
         <v>2909</v>
@@ -61443,7 +61445,7 @@
     </row>
     <row r="1339" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1339" s="6">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B1339" s="6" t="s">
         <v>2921</v>
@@ -61466,7 +61468,7 @@
     </row>
     <row r="1340" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1340" s="6">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="B1340" s="6" t="s">
         <v>2926</v>
@@ -61487,7 +61489,7 @@
     </row>
     <row r="1341" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1341" s="6">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B1341" s="6" t="s">
         <v>2931</v>
@@ -61510,7 +61512,7 @@
     </row>
     <row r="1342" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1342" s="6">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B1342" s="6" t="s">
         <v>2936</v>
@@ -61533,7 +61535,7 @@
     </row>
     <row r="1343" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1343" s="6">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="B1343" s="6" t="s">
         <v>2950</v>
@@ -61556,7 +61558,7 @@
     </row>
     <row r="1344" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1344" s="6">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B1344" s="6" t="s">
         <v>2952</v>
@@ -61579,7 +61581,7 @@
     </row>
     <row r="1345" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1345" s="6">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B1345" s="6" t="s">
         <v>2958</v>
@@ -61600,7 +61602,7 @@
     </row>
     <row r="1346" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1346" s="6">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="B1346" s="6" t="s">
         <v>2963</v>
@@ -61623,7 +61625,7 @@
     </row>
     <row r="1347" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1347" s="6">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B1347" s="6" t="s">
         <v>2972</v>
@@ -61646,7 +61648,7 @@
     </row>
     <row r="1348" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1348" s="6">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B1348" s="6" t="s">
         <v>2974</v>
@@ -61667,7 +61669,7 @@
     </row>
     <row r="1349" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1349" s="6">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B1349" s="6" t="s">
         <v>2978</v>
@@ -61690,7 +61692,7 @@
     </row>
     <row r="1350" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1350" s="6">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B1350" s="6" t="s">
         <v>2980</v>
@@ -61711,7 +61713,7 @@
     </row>
     <row r="1351" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1351" s="6">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B1351" s="6" t="s">
         <v>2994</v>
@@ -61734,7 +61736,7 @@
     </row>
     <row r="1352" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1352" s="6">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="B1352" s="6" t="s">
         <v>1952</v>
@@ -61755,7 +61757,7 @@
     </row>
     <row r="1353" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1353" s="6">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B1353" s="6" t="s">
         <v>3012</v>
@@ -61778,7 +61780,7 @@
     </row>
     <row r="1354" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1354" s="6">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B1354" s="6" t="s">
         <v>3087</v>
@@ -61801,7 +61803,7 @@
     </row>
     <row r="1355" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1355" s="6">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B1355" s="6" t="s">
         <v>3092</v>
@@ -61824,7 +61826,7 @@
     </row>
     <row r="1356" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1356" s="6">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B1356" s="6" t="s">
         <v>3100</v>
@@ -61847,7 +61849,7 @@
     </row>
     <row r="1357" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1357" s="6">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B1357" s="9" t="s">
         <v>3101</v>
@@ -61874,7 +61876,7 @@
     </row>
     <row r="1358" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1358" s="6">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="B1358" s="6" t="s">
         <v>3108</v>
@@ -61897,7 +61899,7 @@
     </row>
     <row r="1359" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1359" s="6">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B1359" s="6" t="s">
         <v>3331</v>
@@ -61918,7 +61920,7 @@
     </row>
     <row r="1360" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1360" s="6">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B1360" s="6" t="s">
         <v>2407</v>
@@ -61940,7 +61942,7 @@
     </row>
     <row r="1361" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1361" s="6">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B1361" s="6" t="s">
         <v>609</v>
@@ -61962,7 +61964,7 @@
     </row>
     <row r="1362" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1362" s="6">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B1362" s="6" t="s">
         <v>925</v>
@@ -61984,7 +61986,7 @@
     </row>
     <row r="1363" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1363" s="6">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B1363" s="6" t="s">
         <v>545</v>
@@ -62007,7 +62009,7 @@
     </row>
     <row r="1364" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1364" s="6">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B1364" s="6" t="s">
         <v>597</v>
@@ -62030,7 +62032,7 @@
     </row>
     <row r="1365" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1365" s="6">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B1365" s="6" t="s">
         <v>2323</v>
@@ -62053,7 +62055,7 @@
     </row>
     <row r="1366" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1366" s="6">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="B1366" s="6" t="s">
         <v>2432</v>
@@ -62076,7 +62078,7 @@
     </row>
     <row r="1367" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1367" s="6">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="B1367" s="6" t="s">
         <v>512</v>
@@ -62099,7 +62101,7 @@
     </row>
     <row r="1368" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1368" s="6">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="B1368" s="6" t="s">
         <v>3384</v>
@@ -62122,7 +62124,7 @@
     </row>
     <row r="1369" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1369" s="6">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B1369" s="6" t="s">
         <v>2327</v>
@@ -62145,7 +62147,7 @@
     </row>
     <row r="1370" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1370" s="6">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="B1370" s="6" t="s">
         <v>584</v>
@@ -62166,7 +62168,7 @@
     </row>
     <row r="1371" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1371" s="6">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="B1371" s="6" t="s">
         <v>2433</v>
@@ -62187,7 +62189,7 @@
     </row>
     <row r="1372" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1372" s="6">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B1372" s="6" t="s">
         <v>2324</v>
@@ -62210,7 +62212,7 @@
     </row>
     <row r="1373" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1373" s="6">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B1373" s="6" t="s">
         <v>520</v>
@@ -62231,7 +62233,7 @@
     </row>
     <row r="1374" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1374" s="6">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B1374" s="6" t="s">
         <v>607</v>
@@ -62252,7 +62254,7 @@
     </row>
     <row r="1375" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1375" s="6">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B1375" s="6" t="s">
         <v>2461</v>
@@ -62273,7 +62275,7 @@
     </row>
     <row r="1376" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1376" s="6">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B1376" s="6" t="s">
         <v>622</v>
@@ -62294,7 +62296,7 @@
     </row>
     <row r="1377" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1377" s="6">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B1377" s="6" t="s">
         <v>35</v>
@@ -62317,7 +62319,7 @@
     </row>
     <row r="1378" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1378" s="6">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B1378" s="6" t="s">
         <v>531</v>
@@ -62340,7 +62342,7 @@
     </row>
     <row r="1379" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1379" s="6">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B1379" s="6" t="s">
         <v>538</v>
@@ -62361,7 +62363,7 @@
     </row>
     <row r="1380" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1380" s="6">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B1380" s="6" t="s">
         <v>2434</v>
@@ -62382,7 +62384,7 @@
     </row>
     <row r="1381" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1381" s="6">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B1381" s="6" t="s">
         <v>663</v>
@@ -62403,7 +62405,7 @@
     </row>
     <row r="1382" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1382" s="6">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="B1382" s="6" t="s">
         <v>660</v>
@@ -62424,7 +62426,7 @@
     </row>
     <row r="1383" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1383" s="6">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="B1383" s="6" t="s">
         <v>563</v>
@@ -62445,7 +62447,7 @@
     </row>
     <row r="1384" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1384" s="6">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="B1384" s="6" t="s">
         <v>668</v>
@@ -62466,7 +62468,7 @@
     </row>
     <row r="1385" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1385" s="6">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B1385" s="6" t="s">
         <v>679</v>
@@ -62489,7 +62491,7 @@
     </row>
     <row r="1386" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1386" s="6">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B1386" s="6" t="s">
         <v>677</v>
@@ -62510,7 +62512,7 @@
     </row>
     <row r="1387" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1387" s="6">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B1387" s="6" t="s">
         <v>573</v>
@@ -62531,7 +62533,7 @@
     </row>
     <row r="1388" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1388" s="6">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B1388" s="6" t="s">
         <v>3268</v>
@@ -62552,7 +62554,7 @@
     </row>
     <row r="1389" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1389" s="6">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B1389" s="6" t="s">
         <v>575</v>
@@ -62573,7 +62575,7 @@
     </row>
     <row r="1390" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1390" s="6">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B1390" s="6" t="s">
         <v>685</v>
@@ -62594,7 +62596,7 @@
     </row>
     <row r="1391" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1391" s="6">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B1391" s="6" t="s">
         <v>569</v>
@@ -62617,7 +62619,7 @@
     </row>
     <row r="1392" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1392" s="6">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B1392" s="6" t="s">
         <v>3385</v>
@@ -62638,7 +62640,7 @@
     </row>
     <row r="1393" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1393" s="6">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="B1393" s="6" t="s">
         <v>612</v>
@@ -62659,7 +62661,7 @@
     </row>
     <row r="1394" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1394" s="6">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="B1394" s="6" t="s">
         <v>647</v>
@@ -62682,7 +62684,7 @@
     </row>
     <row r="1395" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1395" s="6">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B1395" s="6" t="s">
         <v>581</v>
@@ -62703,7 +62705,7 @@
     </row>
     <row r="1396" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1396" s="6">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="B1396" s="6" t="s">
         <v>687</v>
@@ -62724,7 +62726,7 @@
     </row>
     <row r="1397" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1397" s="6">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="B1397" s="6" t="s">
         <v>582</v>
@@ -62745,7 +62747,7 @@
     </row>
     <row r="1398" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1398" s="6">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B1398" s="6" t="s">
         <v>1543</v>
@@ -62768,7 +62770,7 @@
     </row>
     <row r="1399" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1399" s="6">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B1399" s="6" t="s">
         <v>1517</v>
@@ -62791,7 +62793,7 @@
     </row>
     <row r="1400" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1400" s="6">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B1400" s="6" t="s">
         <v>1527</v>
@@ -62814,7 +62816,7 @@
     </row>
     <row r="1401" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1401" s="6">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B1401" s="6" t="s">
         <v>1042</v>
@@ -62837,7 +62839,7 @@
     </row>
     <row r="1402" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1402" s="6">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B1402" s="6" t="s">
         <v>2637</v>
@@ -62860,7 +62862,7 @@
     </row>
     <row r="1403" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1403" s="6">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B1403" s="6" t="s">
         <v>733</v>
@@ -62881,7 +62883,7 @@
     </row>
     <row r="1404" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1404" s="6">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="B1404" s="6" t="s">
         <v>737</v>
@@ -62904,7 +62906,7 @@
     </row>
     <row r="1405" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1405" s="6">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="B1405" s="6" t="s">
         <v>748</v>
@@ -62925,7 +62927,7 @@
     </row>
     <row r="1406" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1406" s="6">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="B1406" s="6" t="s">
         <v>746</v>
@@ -62946,7 +62948,7 @@
     </row>
     <row r="1407" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1407" s="6">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="B1407" s="6" t="s">
         <v>1018</v>
@@ -62969,7 +62971,7 @@
     </row>
     <row r="1408" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1408" s="6">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="B1408" s="6" t="s">
         <v>2181</v>
@@ -62990,7 +62992,7 @@
     </row>
     <row r="1409" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1409" s="6">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B1409" s="6" t="s">
         <v>2179</v>
@@ -63011,7 +63013,7 @@
     </row>
     <row r="1410" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1410" s="6">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B1410" s="6" t="s">
         <v>861</v>
@@ -63032,7 +63034,7 @@
     </row>
     <row r="1411" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1411" s="6">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="B1411" s="6" t="s">
         <v>896</v>
@@ -63053,7 +63055,7 @@
     </row>
     <row r="1412" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1412" s="6">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B1412" s="6" t="s">
         <v>823</v>
@@ -63074,7 +63076,7 @@
     </row>
     <row r="1413" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1413" s="6">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="B1413" s="6" t="s">
         <v>838</v>
@@ -63095,7 +63097,7 @@
     </row>
     <row r="1414" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1414" s="6">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B1414" s="6" t="s">
         <v>887</v>
@@ -63116,7 +63118,7 @@
     </row>
     <row r="1415" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1415" s="6">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B1415" s="6" t="s">
         <v>966</v>
@@ -63137,7 +63139,7 @@
     </row>
     <row r="1416" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1416" s="6">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B1416" s="6" t="s">
         <v>976</v>
@@ -63158,7 +63160,7 @@
     </row>
     <row r="1417" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1417" s="6">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B1417" s="6" t="s">
         <v>983</v>
@@ -63179,7 +63181,7 @@
     </row>
     <row r="1418" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1418" s="6">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B1418" s="6" t="s">
         <v>985</v>
@@ -63200,7 +63202,7 @@
     </row>
     <row r="1419" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1419" s="6">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B1419" s="6" t="s">
         <v>1010</v>
@@ -63221,7 +63223,7 @@
     </row>
     <row r="1420" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1420" s="6">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B1420" s="6" t="s">
         <v>1008</v>
@@ -63244,7 +63246,7 @@
     </row>
     <row r="1421" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1421" s="6">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B1421" s="6" t="s">
         <v>1012</v>
@@ -63267,7 +63269,7 @@
     </row>
     <row r="1422" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1422" s="6">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B1422" s="6" t="s">
         <v>931</v>
@@ -63288,7 +63290,7 @@
     </row>
     <row r="1423" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1423" s="6">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="B1423" s="6" t="s">
         <v>1015</v>
@@ -63309,7 +63311,7 @@
     </row>
     <row r="1424" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1424" s="6">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="B1424" s="6" t="s">
         <v>1757</v>
@@ -63330,7 +63332,7 @@
     </row>
     <row r="1425" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1425" s="6">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B1425" s="6" t="s">
         <v>1759</v>
@@ -63351,7 +63353,7 @@
     </row>
     <row r="1426" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1426" s="6">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="B1426" s="6" t="s">
         <v>1763</v>
@@ -63372,7 +63374,7 @@
     </row>
     <row r="1427" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1427" s="6">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B1427" s="6" t="s">
         <v>2427</v>
@@ -63395,7 +63397,7 @@
     </row>
     <row r="1428" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1428" s="6">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B1428" s="6" t="s">
         <v>1585</v>
@@ -63416,7 +63418,7 @@
     </row>
     <row r="1429" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1429" s="6">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B1429" s="6" t="s">
         <v>2431</v>
@@ -63439,7 +63441,7 @@
     </row>
     <row r="1430" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1430" s="6">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B1430" s="6" t="s">
         <v>2440</v>
@@ -63460,7 +63462,7 @@
     </row>
     <row r="1431" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1431" s="6">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B1431" s="6" t="s">
         <v>1556</v>
@@ -63481,7 +63483,7 @@
     </row>
     <row r="1432" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1432" s="6">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B1432" s="6" t="s">
         <v>1611</v>
@@ -63502,7 +63504,7 @@
     </row>
     <row r="1433" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1433" s="6">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B1433" s="6" t="s">
         <v>1639</v>
@@ -63523,7 +63525,7 @@
     </row>
     <row r="1434" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1434" s="6">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B1434" s="6" t="s">
         <v>1645</v>
@@ -63546,7 +63548,7 @@
     </row>
     <row r="1435" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1435" s="6">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B1435" s="6" t="s">
         <v>1275</v>
@@ -63567,7 +63569,7 @@
     </row>
     <row r="1436" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1436" s="6">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B1436" s="6" t="s">
         <v>1288</v>
@@ -63590,7 +63592,7 @@
     </row>
     <row r="1437" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1437" s="6">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B1437" s="6" t="s">
         <v>1319</v>
@@ -63611,7 +63613,7 @@
     </row>
     <row r="1438" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1438" s="6">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B1438" s="6" t="s">
         <v>2442</v>
@@ -63632,7 +63634,7 @@
     </row>
     <row r="1439" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1439" s="6">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B1439" s="6" t="s">
         <v>1324</v>
@@ -63655,7 +63657,7 @@
     </row>
     <row r="1440" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1440" s="6">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B1440" s="6" t="s">
         <v>1327</v>
@@ -63676,7 +63678,7 @@
     </row>
     <row r="1441" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1441" s="6">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B1441" s="6" t="s">
         <v>1314</v>
@@ -63697,7 +63699,7 @@
     </row>
     <row r="1442" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1442" s="6">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B1442" s="6" t="s">
         <v>568</v>
@@ -63718,7 +63720,7 @@
     </row>
     <row r="1443" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1443" s="6">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B1443" s="6" t="s">
         <v>2219</v>
@@ -63739,7 +63741,7 @@
     </row>
     <row r="1444" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1444" s="6">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="B1444" s="6" t="s">
         <v>753</v>
@@ -63760,7 +63762,7 @@
     </row>
     <row r="1445" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1445" s="6">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="B1445" s="6" t="s">
         <v>757</v>
@@ -63781,7 +63783,7 @@
     </row>
     <row r="1446" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1446" s="6">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="B1446" s="6" t="s">
         <v>767</v>
@@ -63804,7 +63806,7 @@
     </row>
     <row r="1447" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1447" s="6">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="B1447" s="6" t="s">
         <v>773</v>
@@ -63825,7 +63827,7 @@
     </row>
     <row r="1448" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1448" s="6">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="B1448" s="6" t="s">
         <v>782</v>
@@ -63846,7 +63848,7 @@
     </row>
     <row r="1449" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1449" s="6">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="B1449" s="6" t="s">
         <v>795</v>
@@ -63867,7 +63869,7 @@
     </row>
     <row r="1450" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1450" s="6">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B1450" s="6" t="s">
         <v>771</v>
@@ -63888,7 +63890,7 @@
     </row>
     <row r="1451" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1451" s="6">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B1451" s="6" t="s">
         <v>1373</v>
@@ -63909,7 +63911,7 @@
     </row>
     <row r="1452" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1452" s="6">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B1452" s="6" t="s">
         <v>1376</v>
@@ -63930,7 +63932,7 @@
     </row>
     <row r="1453" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1453" s="6">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B1453" s="6" t="s">
         <v>1337</v>
@@ -63951,7 +63953,7 @@
     </row>
     <row r="1454" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1454" s="6">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B1454" s="6" t="s">
         <v>1361</v>
@@ -63974,7 +63976,7 @@
     </row>
     <row r="1455" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1455" s="6">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B1455" s="6" t="s">
         <v>2435</v>
@@ -63995,7 +63997,7 @@
     </row>
     <row r="1456" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1456" s="6">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="B1456" s="6" t="s">
         <v>1400</v>
@@ -64018,7 +64020,7 @@
     </row>
     <row r="1457" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1457" s="6">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="B1457" s="6" t="s">
         <v>1344</v>
@@ -64039,7 +64041,7 @@
     </row>
     <row r="1458" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1458" s="6">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="B1458" s="6" t="s">
         <v>762</v>
@@ -64060,7 +64062,7 @@
     </row>
     <row r="1459" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1459" s="6">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="B1459" s="6" t="s">
         <v>1439</v>
@@ -64083,7 +64085,7 @@
     </row>
     <row r="1460" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1460" s="6">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="B1460" s="6" t="s">
         <v>2930</v>
@@ -64106,7 +64108,7 @@
     </row>
     <row r="1461" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1461" s="6">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="B1461" s="6" t="s">
         <v>1500</v>
@@ -64127,7 +64129,7 @@
     </row>
     <row r="1462" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1462" s="6">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="B1462" s="6" t="s">
         <v>1506</v>
@@ -64150,7 +64152,7 @@
     </row>
     <row r="1463" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1463" s="6">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="B1463" s="6" t="s">
         <v>1422</v>
@@ -64173,7 +64175,7 @@
     </row>
     <row r="1464" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1464" s="6">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B1464" s="6" t="s">
         <v>938</v>
@@ -64194,7 +64196,7 @@
     </row>
     <row r="1465" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1465" s="6">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B1465" s="6" t="s">
         <v>940</v>
@@ -64215,7 +64217,7 @@
     </row>
     <row r="1466" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1466" s="6">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B1466" s="6" t="s">
         <v>1719</v>
@@ -64236,7 +64238,7 @@
     </row>
     <row r="1467" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1467" s="6">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B1467" s="6" t="s">
         <v>1973</v>
@@ -64257,7 +64259,7 @@
     </row>
     <row r="1468" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1468" s="6">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B1468" s="6" t="s">
         <v>2069</v>
@@ -64278,7 +64280,7 @@
     </row>
     <row r="1469" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1469" s="6">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B1469" s="6" t="s">
         <v>2065</v>
@@ -64301,7 +64303,7 @@
     </row>
     <row r="1470" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1470" s="6">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B1470" s="6" t="s">
         <v>2050</v>
@@ -64322,7 +64324,7 @@
     </row>
     <row r="1471" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1471" s="6">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B1471" s="6" t="s">
         <v>2016</v>
@@ -64345,7 +64347,7 @@
     </row>
     <row r="1472" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1472" s="6">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="B1472" s="6" t="s">
         <v>2084</v>
@@ -64366,7 +64368,7 @@
     </row>
     <row r="1473" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1473" s="6">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="B1473" s="6" t="s">
         <v>2086</v>
@@ -64387,7 +64389,7 @@
     </row>
     <row r="1474" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1474" s="6">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="B1474" s="6" t="s">
         <v>2087</v>
@@ -64408,7 +64410,7 @@
     </row>
     <row r="1475" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1475" s="6">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="B1475" s="6" t="s">
         <v>2075</v>
@@ -64429,7 +64431,7 @@
     </row>
     <row r="1476" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1476" s="6">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="B1476" s="6" t="s">
         <v>1981</v>
@@ -64450,7 +64452,7 @@
     </row>
     <row r="1477" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1477" s="6">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B1477" s="6" t="s">
         <v>1995</v>
@@ -64471,7 +64473,7 @@
     </row>
     <row r="1478" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1478" s="6">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="B1478" s="6" t="s">
         <v>2133</v>
@@ -64492,7 +64494,7 @@
     </row>
     <row r="1479" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1479" s="6">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B1479" s="6" t="s">
         <v>1992</v>
@@ -64513,7 +64515,7 @@
     </row>
     <row r="1480" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1480" s="6">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B1480" s="6" t="s">
         <v>2031</v>
@@ -64536,7 +64538,7 @@
     </row>
     <row r="1481" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1481" s="6">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B1481" s="6" t="s">
         <v>1991</v>
@@ -64559,7 +64561,7 @@
     </row>
     <row r="1482" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1482" s="6">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B1482" s="6" t="s">
         <v>1993</v>
@@ -64580,7 +64582,7 @@
     </row>
     <row r="1483" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1483" s="6">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B1483" s="6" t="s">
         <v>1955</v>
@@ -64601,7 +64603,7 @@
     </row>
     <row r="1484" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1484" s="6">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B1484" s="6" t="s">
         <v>2141</v>
@@ -64622,7 +64624,7 @@
     </row>
     <row r="1485" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1485" s="6">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B1485" s="6" t="s">
         <v>2142</v>
@@ -64643,7 +64645,7 @@
     </row>
     <row r="1486" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1486" s="6">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B1486" s="6" t="s">
         <v>1560</v>
@@ -64664,7 +64666,7 @@
     </row>
     <row r="1487" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1487" s="6">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B1487" s="6" t="s">
         <v>2436</v>
@@ -64685,7 +64687,7 @@
     </row>
     <row r="1488" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1488" s="6">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B1488" s="6" t="s">
         <v>1971</v>
@@ -64706,7 +64708,7 @@
     </row>
     <row r="1489" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1489" s="6">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B1489" s="6" t="s">
         <v>2154</v>
@@ -64727,7 +64729,7 @@
     </row>
     <row r="1490" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1490" s="6">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B1490" s="6" t="s">
         <v>2157</v>
@@ -64748,7 +64750,7 @@
     </row>
     <row r="1491" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1491" s="6">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B1491" s="6" t="s">
         <v>2150</v>
@@ -64769,7 +64771,7 @@
     </row>
     <row r="1492" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1492" s="6">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B1492" s="6" t="s">
         <v>2018</v>
@@ -64790,7 +64792,7 @@
     </row>
     <row r="1493" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1493" s="6">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B1493" s="6" t="s">
         <v>2135</v>
@@ -64811,7 +64813,7 @@
     </row>
     <row r="1494" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1494" s="6">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B1494" s="6" t="s">
         <v>2005</v>
@@ -64832,7 +64834,7 @@
     </row>
     <row r="1495" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1495" s="6">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B1495" s="6" t="s">
         <v>2013</v>
@@ -64853,7 +64855,7 @@
     </row>
     <row r="1496" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1496" s="6">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B1496" s="6" t="s">
         <v>1963</v>
@@ -64876,7 +64878,7 @@
     </row>
     <row r="1497" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1497" s="6">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B1497" s="6" t="s">
         <v>1995</v>
@@ -64897,7 +64899,7 @@
     </row>
     <row r="1498" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1498" s="6">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="B1498" s="6" t="s">
         <v>2266</v>
@@ -64918,7 +64920,7 @@
     </row>
     <row r="1499" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1499" s="6">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="B1499" s="6" t="s">
         <v>1131</v>
@@ -64939,7 +64941,7 @@
     </row>
     <row r="1500" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1500" s="6">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B1500" s="6" t="s">
         <v>1130</v>
@@ -64962,7 +64964,7 @@
     </row>
     <row r="1501" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1501" s="6">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B1501" s="6" t="s">
         <v>1147</v>
@@ -64983,7 +64985,7 @@
     </row>
     <row r="1502" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1502" s="6">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B1502" s="6" t="s">
         <v>1819</v>
@@ -65006,7 +65008,7 @@
     </row>
     <row r="1503" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1503" s="6">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="B1503" s="6" t="s">
         <v>2437</v>
@@ -65027,7 +65029,7 @@
     </row>
     <row r="1504" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1504" s="6">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B1504" s="6" t="s">
         <v>3244</v>
@@ -65048,7 +65050,7 @@
     </row>
     <row r="1505" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1505" s="6">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="B1505" s="6" t="s">
         <v>1859</v>
@@ -65069,7 +65071,7 @@
     </row>
     <row r="1506" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1506" s="6">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="B1506" s="6" t="s">
         <v>1873</v>
@@ -65090,7 +65092,7 @@
     </row>
     <row r="1507" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1507" s="6">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B1507" s="6" t="s">
         <v>1655</v>
@@ -65111,7 +65113,7 @@
     </row>
     <row r="1508" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1508" s="6">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B1508" s="6" t="s">
         <v>1667</v>
@@ -65132,7 +65134,7 @@
     </row>
     <row r="1509" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1509" s="6">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B1509" s="6" t="s">
         <v>3290</v>
@@ -65155,7 +65157,7 @@
     </row>
     <row r="1510" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1510" s="6">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B1510" s="6" t="s">
         <v>2929</v>
@@ -65178,7 +65180,7 @@
     </row>
     <row r="1511" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1511" s="6">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B1511" s="6" t="s">
         <v>1700</v>
@@ -65199,7 +65201,7 @@
     </row>
     <row r="1512" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1512" s="6">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B1512" s="6" t="s">
         <v>1693</v>
@@ -65222,7 +65224,7 @@
     </row>
     <row r="1513" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1513" s="6">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B1513" s="6" t="s">
         <v>1689</v>
@@ -65243,7 +65245,7 @@
     </row>
     <row r="1514" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1514" s="6">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B1514" s="6" t="s">
         <v>1694</v>
@@ -65264,7 +65266,7 @@
     </row>
     <row r="1515" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1515" s="6">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B1515" s="6" t="s">
         <v>1708</v>
@@ -65285,7 +65287,7 @@
     </row>
     <row r="1516" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1516" s="6">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B1516" s="6" t="s">
         <v>1704</v>
@@ -65308,7 +65310,7 @@
     </row>
     <row r="1517" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1517" s="6">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B1517" s="6" t="s">
         <v>2195</v>
@@ -65329,7 +65331,7 @@
     </row>
     <row r="1518" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1518" s="6">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="B1518" s="6" t="s">
         <v>2199</v>
@@ -65350,7 +65352,7 @@
     </row>
     <row r="1519" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1519" s="6">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="B1519" s="6" t="s">
         <v>2200</v>
@@ -65371,7 +65373,7 @@
     </row>
     <row r="1520" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1520" s="6">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="B1520" s="6" t="s">
         <v>2438</v>
@@ -65392,7 +65394,7 @@
     </row>
     <row r="1521" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1521" s="6">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="B1521" s="6" t="s">
         <v>1778</v>
@@ -65413,7 +65415,7 @@
     </row>
     <row r="1522" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1522" s="6">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1522" s="6" t="s">
         <v>634</v>
@@ -65436,7 +65438,7 @@
     </row>
     <row r="1523" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1523" s="6">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1523" s="6" t="s">
         <v>960</v>
@@ -65457,7 +65459,7 @@
     </row>
     <row r="1524" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1524" s="6">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1524" s="6" t="s">
         <v>2439</v>
@@ -65482,7 +65484,7 @@
     </row>
     <row r="1525" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1525" s="6">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1525" s="6" t="s">
         <v>1450</v>
@@ -65505,7 +65507,7 @@
     </row>
     <row r="1526" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1526" s="6">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1526" s="6" t="s">
         <v>2215</v>
@@ -65528,7 +65530,7 @@
     </row>
     <row r="1527" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1527" s="6">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1527" s="6" t="s">
         <v>1915</v>
@@ -65549,7 +65551,7 @@
     </row>
     <row r="1528" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1528" s="6">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1528" s="6" t="s">
         <v>518</v>
@@ -65572,7 +65574,7 @@
     </row>
     <row r="1529" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1529" s="6">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1529" s="6" t="s">
         <v>2430</v>
@@ -65595,7 +65597,7 @@
     </row>
     <row r="1530" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1530" s="6">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1530" s="6" t="s">
         <v>1025</v>
@@ -65620,7 +65622,7 @@
     </row>
     <row r="1531" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1531" s="6">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1531" s="6" t="s">
         <v>2494</v>
@@ -65645,7 +65647,7 @@
     </row>
     <row r="1532" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1532" s="6">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1532" s="6" t="s">
         <v>2584</v>
@@ -65666,7 +65668,7 @@
     </row>
     <row r="1533" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1533" s="6">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1533" s="6" t="s">
         <v>2505</v>
@@ -65691,7 +65693,7 @@
     </row>
     <row r="1534" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1534" s="6">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1534" s="6" t="s">
         <v>2525</v>
@@ -65716,7 +65718,7 @@
     </row>
     <row r="1535" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1535" s="6">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1535" s="6" t="s">
         <v>2537</v>
@@ -65737,7 +65739,7 @@
     </row>
     <row r="1536" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1536" s="6">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1536" s="6" t="s">
         <v>2545</v>
@@ -65758,7 +65760,7 @@
     </row>
     <row r="1537" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1537" s="6">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1537" s="6" t="s">
         <v>2555</v>
@@ -65779,7 +65781,7 @@
     </row>
     <row r="1538" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1538" s="6">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1538" s="6" t="s">
         <v>2567</v>
@@ -65802,7 +65804,7 @@
     </row>
     <row r="1539" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1539" s="6">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1539" s="6" t="s">
         <v>2614</v>
@@ -65825,7 +65827,7 @@
     </row>
     <row r="1540" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1540" s="6">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1540" s="6" t="s">
         <v>2635</v>
@@ -65848,7 +65850,7 @@
     </row>
     <row r="1541" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1541" s="6">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1541" s="6" t="s">
         <v>2638</v>
@@ -65869,7 +65871,7 @@
     </row>
     <row r="1542" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1542" s="6">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1542" s="6" t="s">
         <v>2674</v>
@@ -65892,7 +65894,7 @@
     </row>
     <row r="1543" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1543" s="6">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1543" s="6" t="s">
         <v>868</v>
@@ -65915,7 +65917,7 @@
     </row>
     <row r="1544" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1544" s="6">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1544" s="6" t="s">
         <v>2227</v>
@@ -65938,7 +65940,7 @@
     </row>
     <row r="1545" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1545" s="6">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1545" s="9" t="s">
         <v>527</v>
@@ -65961,7 +65963,7 @@
     </row>
     <row r="1546" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1546" s="6">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1546" s="9" t="s">
         <v>3154</v>
@@ -65984,7 +65986,7 @@
     </row>
     <row r="1547" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1547" s="6">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1547" s="6" t="s">
         <v>1626</v>
@@ -66007,7 +66009,7 @@
     </row>
     <row r="1548" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1548" s="6">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1548" s="6" t="s">
         <v>2090</v>
@@ -66030,7 +66032,7 @@
     </row>
     <row r="1549" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1549" s="6">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1549" s="6" t="s">
         <v>2551</v>
@@ -66053,7 +66055,7 @@
     </row>
     <row r="1550" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1550" s="6">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1550" s="6" t="s">
         <v>1602</v>
@@ -66074,7 +66076,7 @@
     </row>
     <row r="1551" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1551" s="6">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1551" s="6" t="s">
         <v>2002</v>
@@ -66095,7 +66097,7 @@
     </row>
     <row r="1552" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1552" s="6">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="B1552" s="6" t="s">
         <v>706</v>
@@ -66118,7 +66120,7 @@
     </row>
     <row r="1553" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1553" s="6">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1553" s="6" t="s">
         <v>2746</v>
@@ -66143,7 +66145,7 @@
     </row>
     <row r="1554" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1554" s="6">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1554" s="6" t="s">
         <v>2735</v>
@@ -66164,7 +66166,7 @@
     </row>
     <row r="1555" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1555" s="6">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1555" s="6" t="s">
         <v>710</v>
@@ -66189,7 +66191,7 @@
     </row>
     <row r="1556" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1556" s="6">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1556" s="6" t="s">
         <v>2764</v>
@@ -66210,7 +66212,7 @@
     </row>
     <row r="1557" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1557" s="6">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1557" s="6" t="s">
         <v>2766</v>
@@ -66231,7 +66233,7 @@
     </row>
     <row r="1558" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1558" s="6">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1558" s="6" t="s">
         <v>2768</v>
@@ -66252,7 +66254,7 @@
     </row>
     <row r="1559" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1559" s="6">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1559" s="6" t="s">
         <v>2796</v>
@@ -66273,7 +66275,7 @@
     </row>
     <row r="1560" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1560" s="6">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1560" s="6" t="s">
         <v>2846</v>
@@ -66294,7 +66296,7 @@
     </row>
     <row r="1561" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1561" s="6">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1561" s="6" t="s">
         <v>2863</v>
@@ -66317,7 +66319,7 @@
     </row>
     <row r="1562" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1562" s="6">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1562" s="6" t="s">
         <v>2865</v>
@@ -66340,7 +66342,7 @@
     </row>
     <row r="1563" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1563" s="6">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1563" s="6" t="s">
         <v>2877</v>
@@ -66361,7 +66363,7 @@
     </row>
     <row r="1564" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1564" s="6">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1564" s="6" t="s">
         <v>2883</v>
@@ -66382,7 +66384,7 @@
     </row>
     <row r="1565" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1565" s="6">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1565" s="6" t="s">
         <v>2968</v>
@@ -66403,7 +66405,7 @@
     </row>
     <row r="1566" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1566" s="6">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1566" s="6" t="s">
         <v>3003</v>
@@ -66424,7 +66426,7 @@
     </row>
     <row r="1567" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1567" s="6">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1567" s="6" t="s">
         <v>3017</v>
@@ -66445,7 +66447,7 @@
     </row>
     <row r="1568" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1568" s="6">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1568" s="6" t="s">
         <v>3019</v>
@@ -66466,7 +66468,7 @@
     </row>
     <row r="1569" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1569" s="6">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1569" s="6" t="s">
         <v>3022</v>
@@ -66487,7 +66489,7 @@
     </row>
     <row r="1570" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1570" s="6">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="B1570" s="6" t="s">
         <v>1238</v>
@@ -66510,7 +66512,7 @@
     </row>
     <row r="1571" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1571" s="6">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1571" s="9" t="s">
         <v>1150</v>
@@ -66531,7 +66533,7 @@
     </row>
     <row r="1572" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1572" s="6">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="B1572" s="6" t="s">
         <v>2345</v>
@@ -66554,7 +66556,7 @@
     </row>
     <row r="1573" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1573" s="6">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1573" s="6" t="s">
         <v>2736</v>
@@ -66577,7 +66579,7 @@
     </row>
     <row r="1574" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1574" s="6">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="B1574" s="6" t="s">
         <v>2605</v>
@@ -66600,7 +66602,7 @@
     </row>
     <row r="1575" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1575" s="6">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="B1575" s="6" t="s">
         <v>2742</v>
@@ -66625,7 +66627,7 @@
     </row>
     <row r="1576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1576" s="6">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1576" s="9" t="s">
         <v>2744</v>
@@ -66650,7 +66652,7 @@
     </row>
     <row r="1577" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1577" s="6">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="B1577" s="9" t="s">
         <v>2743</v>
@@ -66673,7 +66675,7 @@
     </row>
     <row r="1578" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1578" s="6">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1578" s="6" t="s">
         <v>2589</v>
@@ -66696,7 +66698,7 @@
     </row>
     <row r="1579" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1579" s="6">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="B1579" s="6" t="s">
         <v>2708</v>
@@ -66719,7 +66721,7 @@
     </row>
     <row r="1580" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1580" s="6">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1580" s="6" t="s">
         <v>2709</v>
@@ -66742,7 +66744,7 @@
     </row>
     <row r="1581" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1581" s="6">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1581" s="6" t="s">
         <v>2710</v>
@@ -66765,7 +66767,7 @@
     </row>
     <row r="1582" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1582" s="6">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1582" s="6" t="s">
         <v>2711</v>
@@ -66788,7 +66790,7 @@
     </row>
     <row r="1583" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1583" s="6">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1583" s="6" t="s">
         <v>2712</v>
@@ -66813,7 +66815,7 @@
     </row>
     <row r="1584" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1584" s="6">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B1584" s="6" t="s">
         <v>2713</v>
@@ -66838,7 +66840,7 @@
     </row>
     <row r="1585" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1585" s="6">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1585" s="6" t="s">
         <v>3315</v>
@@ -66863,7 +66865,7 @@
     </row>
     <row r="1586" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1586" s="6">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1586" s="6" t="s">
         <v>2622</v>
@@ -66886,7 +66888,7 @@
     </row>
     <row r="1587" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1587" s="6">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B1587" s="6" t="s">
         <v>1068</v>
@@ -66911,7 +66913,7 @@
     </row>
     <row r="1588" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1588" s="6">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1588" s="6" t="s">
         <v>1250</v>
@@ -66938,7 +66940,7 @@
     </row>
     <row r="1589" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1589" s="6">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1589" s="6" t="s">
         <v>1588</v>
@@ -66963,7 +66965,7 @@
     </row>
     <row r="1590" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1590" s="6">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="B1590" s="6" t="s">
         <v>2640</v>
@@ -66988,7 +66990,7 @@
     </row>
     <row r="1591" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1591" s="6">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1591" s="6" t="s">
         <v>2113</v>
@@ -67013,7 +67015,7 @@
     </row>
     <row r="1592" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1592" s="6">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1592" s="9" t="s">
         <v>1046</v>
@@ -67036,7 +67038,7 @@
     </row>
     <row r="1593" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1593" s="6">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="B1593" s="6" t="s">
         <v>1615</v>
@@ -67059,7 +67061,7 @@
     </row>
     <row r="1594" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1594" s="6">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1594" s="6" t="s">
         <v>1281</v>
@@ -67082,7 +67084,7 @@
     </row>
     <row r="1595" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1595" s="6">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1595" s="9" t="s">
         <v>1380</v>
@@ -67105,7 +67107,7 @@
     </row>
     <row r="1596" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1596" s="6">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B1596" s="6" t="s">
         <v>1519</v>
@@ -67128,7 +67130,7 @@
     </row>
     <row r="1597" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1597" s="6">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B1597" s="6" t="s">
         <v>2750</v>
@@ -67153,7 +67155,7 @@
     </row>
     <row r="1598" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1598" s="6">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="B1598" s="6" t="s">
         <v>2052</v>
@@ -67176,7 +67178,7 @@
     </row>
     <row r="1599" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1599" s="6">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B1599" s="6" t="s">
         <v>2666</v>
@@ -67199,7 +67201,7 @@
     </row>
     <row r="1600" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1600" s="6">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="B1600" s="6" t="s">
         <v>1334</v>
@@ -67224,7 +67226,7 @@
     </row>
     <row r="1601" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1601" s="6">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="B1601" s="6" t="s">
         <v>1523</v>
@@ -67249,7 +67251,7 @@
     </row>
     <row r="1602" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1602" s="6">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="B1602" s="6" t="s">
         <v>1572</v>
@@ -67272,7 +67274,7 @@
     </row>
     <row r="1603" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1603" s="6">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="B1603" s="6" t="s">
         <v>1596</v>
@@ -67295,7 +67297,7 @@
     </row>
     <row r="1604" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1604" s="6">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="B1604" s="6" t="s">
         <v>1961</v>
@@ -67318,7 +67320,7 @@
     </row>
     <row r="1605" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1605" s="6">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1605" s="6" t="s">
         <v>2679</v>
@@ -67341,7 +67343,7 @@
     </row>
     <row r="1606" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1606" s="6">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1606" s="6" t="s">
         <v>1478</v>
@@ -67366,7 +67368,7 @@
     </row>
     <row r="1607" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1607" s="6">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1607" s="6" t="s">
         <v>1740</v>
@@ -67389,7 +67391,7 @@
     </row>
     <row r="1608" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1608" s="6">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="B1608" s="6" t="s">
         <v>2739</v>
@@ -67412,7 +67414,7 @@
     </row>
     <row r="1609" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1609" s="6">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1609" s="6" t="s">
         <v>2748</v>
@@ -67435,7 +67437,7 @@
     </row>
     <row r="1610" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1610" s="6">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1610" s="6" t="s">
         <v>2749</v>
@@ -67458,7 +67460,7 @@
     </row>
     <row r="1611" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1611" s="6">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1611" s="9" t="s">
         <v>1117</v>
@@ -67481,7 +67483,7 @@
     </row>
     <row r="1612" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1612" s="6">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1612" s="9" t="s">
         <v>565</v>
@@ -67504,7 +67506,7 @@
     </row>
     <row r="1613" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1613" s="6">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1613" s="6" t="s">
         <v>2124</v>
@@ -67527,7 +67529,7 @@
     </row>
     <row r="1614" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1614" s="6">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1614" s="6" t="s">
         <v>1389</v>
@@ -67550,7 +67552,7 @@
     </row>
     <row r="1615" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1615" s="6">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1615" s="6" t="s">
         <v>2657</v>
@@ -67573,7 +67575,7 @@
     </row>
     <row r="1616" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1616" s="6">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1616" s="6" t="s">
         <v>3288</v>
@@ -67596,7 +67598,7 @@
     </row>
     <row r="1617" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1617" s="6">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1617" s="9" t="s">
         <v>923</v>
@@ -67619,7 +67621,7 @@
     </row>
     <row r="1618" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1618" s="6">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B1618" s="9" t="s">
         <v>2751</v>
@@ -67642,7 +67644,7 @@
     </row>
     <row r="1619" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1619" s="6">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B1619" s="6" t="s">
         <v>2603</v>
@@ -67665,7 +67667,7 @@
     </row>
     <row r="1620" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1620" s="6">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B1620" s="6" t="s">
         <v>2107</v>
@@ -67688,7 +67690,7 @@
     </row>
     <row r="1621" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1621" s="6">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B1621" s="6" t="s">
         <v>3306</v>
@@ -67711,7 +67713,7 @@
     </row>
     <row r="1622" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1622" s="6">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1622" s="6" t="s">
         <v>1568</v>
@@ -67734,7 +67736,7 @@
     </row>
     <row r="1623" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1623" s="6">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1623" s="6" t="s">
         <v>2644</v>
@@ -67757,7 +67759,7 @@
     </row>
     <row r="1624" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1624" s="6">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1624" s="6" t="s">
         <v>2058</v>
@@ -67780,7 +67782,7 @@
     </row>
     <row r="1625" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1625" s="6">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1625" s="6" t="s">
         <v>1378</v>
@@ -67803,7 +67805,7 @@
     </row>
     <row r="1626" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1626" s="6">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1626" s="20" t="s">
         <v>3313</v>
@@ -67828,7 +67830,7 @@
     </row>
     <row r="1627" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1627" s="6">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1627" s="20" t="s">
         <v>3345</v>
@@ -67853,7 +67855,7 @@
     </row>
     <row r="1628" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1628" s="6">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1628" s="6" t="s">
         <v>2720</v>
@@ -67876,7 +67878,7 @@
     </row>
     <row r="1629" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1629" s="6">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1629" s="6" t="s">
         <v>2721</v>
@@ -67899,7 +67901,7 @@
     </row>
     <row r="1630" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1630" s="6">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1630" s="6" t="s">
         <v>2722</v>
@@ -67922,7 +67924,7 @@
     </row>
     <row r="1631" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1631" s="6">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1631" s="6" t="s">
         <v>2723</v>
@@ -67945,7 +67947,7 @@
     </row>
     <row r="1632" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1632" s="6">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1632" s="6" t="s">
         <v>2724</v>
@@ -67968,7 +67970,7 @@
     </row>
     <row r="1633" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1633" s="6">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1633" s="6" t="s">
         <v>2719</v>
@@ -67991,7 +67993,7 @@
     </row>
     <row r="1634" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1634" s="6">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1634" s="6" t="s">
         <v>2730</v>
@@ -68014,7 +68016,7 @@
     </row>
     <row r="1635" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1635" s="6">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1635" s="6" t="s">
         <v>2732</v>
@@ -68037,7 +68039,7 @@
     </row>
     <row r="1636" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1636" s="6">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1636" s="6" t="s">
         <v>2577</v>
@@ -68060,7 +68062,7 @@
     </row>
     <row r="1637" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1637" s="6">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1637" s="6" t="s">
         <v>2607</v>
@@ -68083,7 +68085,7 @@
     </row>
     <row r="1638" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1638" s="6">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1638" s="6" t="s">
         <v>2616</v>
@@ -68105,7 +68107,9 @@
       <c r="K1638" s="6"/>
     </row>
     <row r="1639" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1639" s="6"/>
+      <c r="A1639" s="6">
+        <v>1707</v>
+      </c>
       <c r="B1639" s="6" t="s">
         <v>3437</v>
       </c>
@@ -68127,7 +68131,7 @@
     </row>
     <row r="1640" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1640" s="6">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="B1640" s="6" t="s">
         <v>2701</v>
@@ -68150,7 +68154,7 @@
     </row>
     <row r="1641" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1641" s="6">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="B1641" s="6" t="s">
         <v>2702</v>
@@ -68173,7 +68177,7 @@
     </row>
     <row r="1642" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1642" s="6">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="B1642" s="6" t="s">
         <v>2550</v>
@@ -68196,7 +68200,7 @@
     </row>
     <row r="1643" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1643" s="6">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="B1643" s="6" t="s">
         <v>2441</v>
@@ -68221,7 +68225,7 @@
     </row>
     <row r="1644" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1644" s="6">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="B1644" s="6" t="s">
         <v>1332</v>
@@ -68244,7 +68248,7 @@
     </row>
     <row r="1645" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1645" s="6">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="B1645" s="6" t="s">
         <v>2705</v>
@@ -68267,7 +68271,7 @@
     </row>
     <row r="1646" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1646" s="6">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="B1646" s="6" t="s">
         <v>2692</v>
@@ -68292,7 +68296,7 @@
     </row>
     <row r="1647" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1647" s="6">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="B1647" s="9" t="s">
         <v>1051</v>
@@ -68317,7 +68321,7 @@
     </row>
     <row r="1648" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1648" s="6">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="B1648" s="6" t="s">
         <v>1801</v>
@@ -68340,7 +68344,7 @@
     </row>
     <row r="1649" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1649" s="6">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="B1649" s="6" t="s">
         <v>2913</v>
@@ -68363,7 +68367,7 @@
     </row>
     <row r="1650" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1650" s="6">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="B1650" s="1" t="s">
         <v>3389</v>
@@ -68381,7 +68385,7 @@
     </row>
     <row r="1651" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1651" s="6">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="B1651" s="1" t="s">
         <v>3391</v>
@@ -68397,6 +68401,9 @@
       </c>
     </row>
     <row r="1652" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1652" s="6">
+        <v>1720</v>
+      </c>
       <c r="B1652" s="1" t="s">
         <v>3397</v>
       </c>
@@ -68414,6 +68421,9 @@
       </c>
     </row>
     <row r="1653" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1653" s="6">
+        <v>1721</v>
+      </c>
       <c r="B1653" s="1" t="s">
         <v>3400</v>
       </c>
@@ -68428,6 +68438,9 @@
       </c>
     </row>
     <row r="1654" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1654" s="6">
+        <v>1722</v>
+      </c>
       <c r="B1654" s="1" t="s">
         <v>3402</v>
       </c>
@@ -68439,6 +68452,9 @@
       </c>
     </row>
     <row r="1655" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1655" s="6">
+        <v>1723</v>
+      </c>
       <c r="B1655" s="1" t="s">
         <v>3405</v>
       </c>
@@ -68453,6 +68469,9 @@
       </c>
     </row>
     <row r="1656" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1656" s="6">
+        <v>1724</v>
+      </c>
       <c r="B1656" s="1" t="s">
         <v>3406</v>
       </c>
@@ -68467,6 +68486,9 @@
       </c>
     </row>
     <row r="1657" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1657" s="6">
+        <v>1725</v>
+      </c>
       <c r="B1657" s="1" t="s">
         <v>3408</v>
       </c>
@@ -68481,6 +68503,9 @@
       </c>
     </row>
     <row r="1658" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1658" s="6">
+        <v>1726</v>
+      </c>
       <c r="B1658" s="1" t="s">
         <v>3410</v>
       </c>
@@ -68495,6 +68520,9 @@
       </c>
     </row>
     <row r="1659" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1659" s="6">
+        <v>1727</v>
+      </c>
       <c r="B1659" s="1" t="s">
         <v>3412</v>
       </c>
@@ -68509,6 +68537,9 @@
       </c>
     </row>
     <row r="1660" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1660" s="6">
+        <v>1728</v>
+      </c>
       <c r="B1660" s="1" t="s">
         <v>3414</v>
       </c>
@@ -68523,6 +68554,9 @@
       </c>
     </row>
     <row r="1661" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1661" s="6">
+        <v>1729</v>
+      </c>
       <c r="B1661" s="1" t="s">
         <v>3416</v>
       </c>
@@ -68537,6 +68571,9 @@
       </c>
     </row>
     <row r="1662" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1662" s="6">
+        <v>1730</v>
+      </c>
       <c r="B1662" s="1" t="s">
         <v>3419</v>
       </c>
@@ -68551,6 +68588,9 @@
       </c>
     </row>
     <row r="1663" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1663" s="6">
+        <v>1731</v>
+      </c>
       <c r="B1663" s="1" t="s">
         <v>3420</v>
       </c>
@@ -68568,6 +68608,9 @@
       </c>
     </row>
     <row r="1664" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1664" s="6">
+        <v>1732</v>
+      </c>
       <c r="B1664" s="1" t="s">
         <v>3422</v>
       </c>
@@ -68578,7 +68621,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1665" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1665" s="6">
+        <v>1733</v>
+      </c>
       <c r="B1665" s="1" t="s">
         <v>3424</v>
       </c>
@@ -68592,7 +68638,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1666" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1666" s="6">
+        <v>1734</v>
+      </c>
       <c r="B1666" s="1" t="s">
         <v>3427</v>
       </c>
@@ -68606,7 +68655,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1667" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1667" s="6">
+        <v>1735</v>
+      </c>
       <c r="B1667" s="1" t="s">
         <v>3429</v>
       </c>
@@ -68623,7 +68675,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1668" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1668" s="6">
+        <v>1736</v>
+      </c>
       <c r="B1668" s="1" t="s">
         <v>3431</v>
       </c>
@@ -68637,7 +68692,10 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="1669" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1669" s="6">
+        <v>1737</v>
+      </c>
       <c r="B1669" s="1" t="s">
         <v>3433</v>
       </c>
@@ -68648,7 +68706,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1670" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1670" s="6">
+        <v>1738</v>
+      </c>
       <c r="B1670" s="1" t="s">
         <v>3435</v>
       </c>
@@ -68662,7 +68723,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1671" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1671" s="6">
+        <v>1739</v>
+      </c>
       <c r="B1671" s="1" t="s">
         <v>3438</v>
       </c>
@@ -68673,7 +68737,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="1672" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1672" s="6">
+        <v>1740</v>
+      </c>
       <c r="B1672" s="1" t="s">
         <v>3440</v>
       </c>
@@ -68687,7 +68754,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="1673" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="1673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1673" s="6">
+        <v>1741</v>
+      </c>
       <c r="B1673" s="1" t="s">
         <v>3441</v>
       </c>

--- a/data/morphemes.xlsx
+++ b/data/morphemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE98C04-31DF-814D-83EF-290FB2CD0810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E5910-F324-3441-AA79-1D64F00823FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2800" windowWidth="29920" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="960" yWindow="580" windowWidth="29920" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflection" sheetId="8" r:id="rId1"/>
@@ -10901,8 +10901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B788238B-101C-4843-AC72-95B2788397E2}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="218" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A5" zoomScale="218" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11526,8 +11526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E437AF6-2D36-3446-8B18-FBDCA10DEF20}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="176" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A17" zoomScale="176" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12158,8 +12158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE25BEAE-ECB0-3E42-A39B-2C15C3BB1FB8}">
   <dimension ref="A1:XFB1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1659" zoomScale="200" workbookViewId="0">
-      <selection activeCell="A1673" sqref="A1673"/>
+    <sheetView tabSelected="1" topLeftCell="A1663" zoomScale="142" workbookViewId="0">
+      <selection activeCell="B1673" sqref="B1673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/morphemes.xlsx
+++ b/data/morphemes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergeimalyshev/Desktop/Tocharian/Tocharian A/My grammar/Candrakanta/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67E5910-F324-3441-AA79-1D64F00823FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B20F87B-36BB-0843-80E5-688CEF4414D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="580" windowWidth="29920" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="29920" windowHeight="14860" activeTab="2" xr2:uid="{DFFD3512-190B-6C44-A03E-FE8C03207A6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Inflection" sheetId="8" r:id="rId1"/>
@@ -12158,8 +12158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE25BEAE-ECB0-3E42-A39B-2C15C3BB1FB8}">
   <dimension ref="A1:XFB1673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1663" zoomScale="142" workbookViewId="0">
-      <selection activeCell="B1673" sqref="B1673"/>
+    <sheetView tabSelected="1" topLeftCell="A806" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E816" sqref="E816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -49722,7 +49722,7 @@
         <v>17</v>
       </c>
       <c r="E816" s="9" t="s">
-        <v>2454</v>
+        <v>10</v>
       </c>
       <c r="F816" s="9"/>
       <c r="G816" s="9" t="s">
